--- a/雅思核心词汇精讲精练.xlsx
+++ b/雅思核心词汇精讲精练.xlsx
@@ -5,14 +5,27 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liqiang/doc/20.PhD/worlds/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liqiang/doc/20.PhD/worlds/WordsSort/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="初-22" sheetId="1" r:id="rId1"/>
+    <sheet name="入门-12" sheetId="10" r:id="rId1"/>
+    <sheet name="入门-34" sheetId="9" r:id="rId2"/>
+    <sheet name="入门-56" sheetId="8" r:id="rId3"/>
+    <sheet name="入门-78" sheetId="7" r:id="rId4"/>
+    <sheet name="初-1-2" sheetId="5" r:id="rId5"/>
+    <sheet name="初-3-4" sheetId="6" r:id="rId6"/>
+    <sheet name="初-21" sheetId="16" r:id="rId7"/>
+    <sheet name="初-22" sheetId="1" r:id="rId8"/>
+    <sheet name="初-23" sheetId="2" r:id="rId9"/>
+    <sheet name="初-24" sheetId="4" r:id="rId10"/>
+    <sheet name="初-25" sheetId="11" r:id="rId11"/>
+    <sheet name="初-26" sheetId="13" r:id="rId12"/>
+    <sheet name="中-1" sheetId="14" r:id="rId13"/>
+    <sheet name="中-2" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="486">
   <si>
     <t>portrait</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,13 +71,6 @@
   </si>
   <si>
     <t>destruction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贡献</t>
-    <rPh sb="0" eb="1">
-      <t>gong'xian</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -100,13 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参与</t>
-    <rPh sb="0" eb="1">
-      <t>can'yu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">concept </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -549,6 +548,2688 @@
     <t>薄片</t>
     <rPh sb="0" eb="1">
       <t>bo'pian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acquire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得</t>
+    <rPh sb="0" eb="1">
+      <t>huo'de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manufacture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制造</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'zao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄取量</t>
+    <rPh sb="0" eb="1">
+      <t>she'qu'liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诱饵</t>
+    <rPh sb="0" eb="1">
+      <t>you'er</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overlook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略 俯瞰</t>
+    <rPh sb="0" eb="1">
+      <t>hu'l</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fu'kan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ethnic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>geometry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>triangle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三角形</t>
+    <rPh sb="0" eb="1">
+      <t>san'jiao'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公平公正</t>
+    <rPh sb="0" eb="1">
+      <t>gong'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gong'z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三角洲</t>
+    <rPh sb="0" eb="1">
+      <t>san'jiao'zhou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种族的</t>
+    <rPh sb="0" eb="1">
+      <t>zhong'zu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>几何学</t>
+    <rPh sb="0" eb="1">
+      <t>ji'he'xue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领悟</t>
+    <rPh sb="0" eb="1">
+      <t>ling'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>burden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>routine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>antique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>责任</t>
+    <rPh sb="0" eb="1">
+      <t>ze'r</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常工作 日常的</t>
+    <rPh sb="0" eb="1">
+      <t>ri'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gong'zuo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ri'c</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美德</t>
+    <rPh sb="0" eb="1">
+      <t>mei'de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古老的 古董</t>
+    <rPh sb="0" eb="1">
+      <t>gu'lao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gu'dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帝王</t>
+    <rPh sb="0" eb="1">
+      <t>di'wang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择</t>
+    <rPh sb="0" eb="1">
+      <t>xuan'ze</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elementary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本的 元素的</t>
+    <rPh sb="0" eb="1">
+      <t>ji'ben</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yaun'su</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrinkle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trunk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皱纹</t>
+    <rPh sb="0" eb="1">
+      <t>zhou'wen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月亮的</t>
+    <rPh sb="0" eb="1">
+      <t>yue'liang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好奇的</t>
+    <rPh sb="0" eb="1">
+      <t>hao'qi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用</t>
+    <rPh sb="0" eb="1">
+      <t>yin'yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树干 躯干</t>
+    <rPh sb="0" eb="1">
+      <t>shu'gan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qu'gan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beware</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diversity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stroke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>induce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moisture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当心 注意</t>
+    <rPh sb="0" eb="1">
+      <t>dang'x</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhu'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多样性 差异</t>
+    <rPh sb="0" eb="1">
+      <t>duo'yang'x</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cah'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币</t>
+    <rPh sb="0" eb="1">
+      <t>huo'bi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>划桨</t>
+    <rPh sb="0" eb="1">
+      <t>hua'jiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诱导 归纳</t>
+    <rPh sb="0" eb="1">
+      <t>you'dao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gui'na</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水分 湿度</t>
+    <rPh sb="0" eb="1">
+      <t>shui'fen</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi'du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庙宇</t>
+    <rPh sb="0" eb="1">
+      <t>miao'yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skeleton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receipt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auditory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>principal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨架</t>
+    <rPh sb="0" eb="1">
+      <t>gu'jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到 收据</t>
+    <rPh sb="0" eb="1">
+      <t>shou'dao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shou'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听众</t>
+    <rPh sb="0" eb="1">
+      <t>ting'zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声音</t>
+    <rPh sb="0" eb="1">
+      <t>sheng'y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张力 拉力</t>
+    <rPh sb="0" eb="1">
+      <t>zhag'li</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>la'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护照</t>
+    <rPh sb="0" eb="1">
+      <t>hu'zhao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要的</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'yao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原则</t>
+    <rPh sb="0" eb="1">
+      <t>yuan'ze</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>principle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>budget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算</t>
+    <rPh sb="0" eb="1">
+      <t>yu'suan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nutrition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exhibit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营养</t>
+    <rPh sb="0" eb="1">
+      <t>ying'yang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审计</t>
+    <rPh sb="0" eb="1">
+      <t>shen'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展览 展览品</t>
+    <rPh sb="0" eb="1">
+      <t>zhan'lan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhan'lan'p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>secretary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organism</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sacrifice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exhibition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘书</t>
+    <rPh sb="0" eb="1">
+      <t>mi'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有机体</t>
+    <rPh sb="0" eb="1">
+      <t>you'ji'ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牺牲</t>
+    <rPh sb="0" eb="1">
+      <t>xi's</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防卫</t>
+    <rPh sb="0" eb="1">
+      <t>fang'wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主旨</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展览</t>
+    <rPh sb="0" eb="1">
+      <t>zhan'lan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>revive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confront</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thriller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thrill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hemisphere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肝脏</t>
+    <rPh sb="0" eb="1">
+      <t>gan'zang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股份</t>
+    <rPh sb="0" eb="1">
+      <t>gu'f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复兴</t>
+    <rPh sb="0" eb="1">
+      <t>fu'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面对 遭遇</t>
+    <rPh sb="0" eb="1">
+      <t>mian'dui</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zao'yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>令人紧张的小说</t>
+    <rPh sb="0" eb="1">
+      <t>ling'r</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jin'zhang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiao'shuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激动 紧张</t>
+    <rPh sb="0" eb="1">
+      <t>ji'd</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jin'z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半球</t>
+    <rPh sb="0" eb="1">
+      <t>ban'qiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <rPh sb="0" eb="1">
+      <t>mioa'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outlook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>essential</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brilliant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>handout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defeat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dimension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展望</t>
+    <rPh sb="0" eb="1">
+      <t>zhan'wang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必要的 本质的</t>
+    <rPh sb="0" eb="1">
+      <t>bi'yao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ben'zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杰出的</t>
+    <rPh sb="0" eb="1">
+      <t>jie'chu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲义</t>
+    <rPh sb="0" eb="1">
+      <t>jiang'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弧形</t>
+    <rPh sb="0" eb="1">
+      <t>hu'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败</t>
+    <rPh sb="0" eb="1">
+      <t>ji'bai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方面 纬度</t>
+    <rPh sb="0" eb="1">
+      <t>fang'm</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wei'du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆屋顶</t>
+    <rPh sb="0" eb="1">
+      <t>yuan'wu'ding</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beneath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prejudice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fertile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>artificial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>convince</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在…之下</t>
+    <rPh sb="0" eb="1">
+      <t>zai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>underneath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在…底下</t>
+    <rPh sb="0" eb="1">
+      <t>zai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏见</t>
+    <rPh sb="0" eb="1">
+      <t>pian'jain</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富饶的</t>
+    <rPh sb="0" eb="1">
+      <t>fu'rao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人造的</t>
+    <rPh sb="0" eb="1">
+      <t>ren'zao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徒劳的</t>
+    <rPh sb="0" eb="1">
+      <t>tu'lao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说服</t>
+    <rPh sb="0" eb="1">
+      <t>shuo'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specimen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conquer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>property</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ban</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样本</t>
+    <rPh sb="0" eb="1">
+      <t>yang'ben</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作</t>
+    <rPh sb="0" eb="1">
+      <t>dong'zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战胜 征服</t>
+    <rPh sb="0" eb="1">
+      <t>zhan'sheng</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zheng'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞争</t>
+    <rPh sb="0" eb="1">
+      <t>jing'z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能 所有权</t>
+    <rPh sb="0" eb="1">
+      <t>xing'n</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>suo'you'q</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁止</t>
+    <rPh sb="0" eb="1">
+      <t>jin'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colleague</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垂直的</t>
+    <rPh sb="0" eb="1">
+      <t>chui'zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同事</t>
+    <rPh sb="0" eb="1">
+      <t>tong'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变形</t>
+    <rPh sb="0" eb="1">
+      <t>bian'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简易床 小屋</t>
+    <rPh sb="0" eb="1">
+      <t>jian'yi'chuang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiao'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帝国</t>
+    <rPh sb="0" eb="1">
+      <t>di'guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emperor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>surround</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brochure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inland</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prescribe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>summary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包围</t>
+    <rPh sb="0" eb="1">
+      <t>bao'wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手册</t>
+    <rPh sb="0" eb="1">
+      <t>shou'ce</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内地 内地的</t>
+    <rPh sb="0" eb="1">
+      <t>nei'di</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>nei'di'd</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开处方</t>
+    <rPh sb="0" eb="1">
+      <t>kai'chu'fang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摘要</t>
+    <rPh sb="0" eb="1">
+      <t>zhai'yao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际象棋</t>
+    <rPh sb="0" eb="1">
+      <t>guo'ji'xiang'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止</t>
+    <rPh sb="0" eb="1">
+      <t>ting'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>individual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人的</t>
+    <rPh sb="0" eb="1">
+      <t>ge'ren</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efficient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效率的</t>
+    <rPh sb="0" eb="1">
+      <t>you'xiao'lv</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引起 唤醒</t>
+    <rPh sb="0" eb="1">
+      <t>yin'qi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>huan'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>implicit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explicit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含蓄的</t>
+    <rPh sb="0" eb="1">
+      <t>han'xu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明确的</t>
+    <rPh sb="0" eb="1">
+      <t>ming'que</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bully</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欺负</t>
+    <rPh sb="0" eb="1">
+      <t>qi'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fiction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indicate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bucket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postpone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>solar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refugee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>formula</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小说</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'shuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗示 表明</t>
+    <rPh sb="0" eb="1">
+      <t>an'shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>biao'ming</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桶</t>
+    <rPh sb="0" eb="1">
+      <t>tong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脾气 性情</t>
+    <rPh sb="0" eb="1">
+      <t>pi'qi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xing'qing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期 延缓</t>
+    <rPh sb="0" eb="1">
+      <t>yan'qi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yan'huan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳的</t>
+    <rPh sb="0" eb="1">
+      <t>tai'yang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难民</t>
+    <rPh sb="0" eb="1">
+      <t>nan'min</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公式</t>
+    <rPh sb="0" eb="1">
+      <t>gong'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vertical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>namely</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>approximately</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>landlord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>censor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>geology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>generate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>generation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形成 生殖</t>
+    <rPh sb="0" eb="1">
+      <t>xing'c</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>sheng'zhi'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一代人</t>
+    <rPh sb="0" eb="1">
+      <t>yi'dai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查</t>
+    <rPh sb="0" eb="1">
+      <t>jian'cha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地质学</t>
+    <rPh sb="0" eb="1">
+      <t>di'zhi'xue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东 地主</t>
+    <rPh sb="0" eb="1">
+      <t>fang'dong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>di'zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大约</t>
+    <rPh sb="0" eb="1">
+      <t>da'yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也就是 既是</t>
+    <rPh sb="0" eb="1">
+      <t>ye'jiu'shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>military</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bacteria</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>penetrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军人</t>
+    <rPh sb="0" eb="1">
+      <t>jun'ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细菌</t>
+    <rPh sb="0" eb="1">
+      <t>xi'jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温柔的 提供</t>
+    <rPh sb="0" eb="1">
+      <t>wen'rou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ti'gong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渗透</t>
+    <rPh sb="0" eb="1">
+      <t>sheng'tou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>headline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concession</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>engine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头条新闻</t>
+    <rPh sb="0" eb="1">
+      <t>tou'tiao'xin'wen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让步 承认</t>
+    <rPh sb="0" eb="1">
+      <t>rang'bu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cheng'ren'g</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使分心</t>
+    <rPh sb="0" eb="1">
+      <t>shi'bie'ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引擎</t>
+    <rPh sb="0" eb="1">
+      <t>ying'qing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>helicopter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oven</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>implication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tissue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regardless</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直升机</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'sheng'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炉 烤箱</t>
+    <rPh sb="0" eb="1">
+      <t>lu'zi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kao'xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞠躬</t>
+    <rPh sb="0" eb="1">
+      <t>ju'gong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗示 含义 影响</t>
+    <rPh sb="0" eb="1">
+      <t>an'shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>han'yi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ying'xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换</t>
+    <rPh sb="0" eb="1">
+      <t>zhuan'huan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「生物学」组织</t>
+    <rPh sb="1" eb="2">
+      <t>sheng'wu'xue</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zu'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不注意的 不管怎样</t>
+    <rPh sb="0" eb="1">
+      <t>bu'zhu'yi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bu'guan'zen'y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chamber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bias</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>considerable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linguistic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>investment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anniversary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>室 房间</t>
+    <rPh sb="0" eb="1">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fang'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相互影响</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'hu'y'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏爱 偏见 偏移</t>
+    <rPh sb="0" eb="1">
+      <t>pian'ai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>pian'jian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>pian'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值得考虑的</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'de'kao'lv</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言学的</t>
+    <rPh sb="0" eb="1">
+      <t>yu'yan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xue</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资 投入</t>
+    <rPh sb="0" eb="1">
+      <t>tou'zi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tou'ru</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周年纪念日</t>
+    <rPh sb="0" eb="1">
+      <t>zhou'nian'ji'nian'ri</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>surge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deceive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>highlight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>affirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vehicle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plausible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contrast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认</t>
+    <rPh sb="0" eb="1">
+      <t>que'reng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆</t>
+    <rPh sb="0" eb="1">
+      <t>che'laing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>似乎可信的</t>
+    <rPh sb="0" eb="1">
+      <t>si'hu'ke'x</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对比 差别</t>
+    <rPh sb="0" eb="1">
+      <t>dui'bi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cha'bie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波涛 急剧上升</t>
+    <rPh sb="0" eb="1">
+      <t>bo'tao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ji'ju'shang's</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欺骗 行骗</t>
+    <rPh sb="0" eb="1">
+      <t>qi'pian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xing'pian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突出 强调 最精彩的部分</t>
+    <rPh sb="0" eb="1">
+      <t>tu'chu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qiang'diao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zui</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jing'cia</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bu'f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>laser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extraordinary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cultivate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>molecule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>personnel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光</t>
+    <rPh sb="0" eb="1">
+      <t>ji'giang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全体的</t>
+    <rPh sb="0" eb="1">
+      <t>quan'ti</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非凡的 特别的</t>
+    <rPh sb="0" eb="1">
+      <t>fei'fan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>te'bie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培养 耕作</t>
+    <rPh sb="0" eb="1">
+      <t>pei'yang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>geng'zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分子 微粒</t>
+    <rPh sb="0" eb="1">
+      <t>fen'zi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wei'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人事部</t>
+    <rPh sb="0" eb="1">
+      <t>ren'shi'bu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆 积累</t>
+    <rPh sb="0" eb="1">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'lei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>superior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>due</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>horizon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>capacity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容量  能力</t>
+    <rPh sb="0" eb="1">
+      <t>rong'l</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ne'ne'g'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地平线</t>
+    <rPh sb="0" eb="1">
+      <t>di'p'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到期的  应付款</t>
+    <rPh sb="0" eb="1">
+      <t>dao'qi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ying'fu'kuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级的</t>
+    <rPh sb="0" eb="1">
+      <t>shang'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强烈的 紧张的</t>
+    <rPh sb="0" eb="1">
+      <t>qiang'lie</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jing'zhang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优点 价值</t>
+    <rPh sb="0" eb="1">
+      <t>you'dian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jia'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>capable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有能力的</t>
+    <rPh sb="0" eb="1">
+      <t>you'neng'li</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伪造的  假的</t>
+    <rPh sb="0" eb="1">
+      <t>wei'zao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jai'de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨师</t>
+    <rPh sb="0" eb="1">
+      <t>chu'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>steep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upgrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perspective</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supervise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回忆</t>
+    <rPh sb="0" eb="1">
+      <t>hui'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陡峭的 不合理的</t>
+    <rPh sb="0" eb="1">
+      <t>dou'qiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bu'he'l</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级 提升</t>
+    <rPh sb="0" eb="1">
+      <t>sheng'ji</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ti's</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观点 远景</t>
+    <rPh sb="0" eb="1">
+      <t>guan'dian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yuan'jing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监督 管理 指导</t>
+    <rPh sb="0" eb="1">
+      <t>jian'du</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>guan'li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi'dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temporary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deposit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>council</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>momentum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>severe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>juvenile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青少年的 幼稚的</t>
+    <rPh sb="0" eb="1">
+      <t>qing'shao'n</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>you'zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>严峻的 朴素的</t>
+    <rPh sb="0" eb="1">
+      <t>yan'jun</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pu'su</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>势头 动力</t>
+    <rPh sb="0" eb="1">
+      <t>shi'tou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dong'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>野兽</t>
+    <rPh sb="0" eb="1">
+      <t>ye'shou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委员会  理事会</t>
+    <rPh sb="0" eb="1">
+      <t>wei'yuan'hui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>li'shi'hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存款 押金 沉淀 存放</t>
+    <rPh sb="0" eb="1">
+      <t>cun'kuan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ya'j</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chen'dian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>cun'fang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时的</t>
+    <rPh sb="0" eb="1">
+      <t>lin'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>senior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enhance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>squeeze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enhance efficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高效率</t>
+    <rPh sb="0" eb="1">
+      <t>ti'gao'xiao'lv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高 加强</t>
+    <rPh sb="0" eb="1">
+      <t>it'gao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jia'qiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果</t>
+    <rPh sb="0" eb="1">
+      <t>jie'guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">指定 </t>
+    <rPh sb="0" eb="1">
+      <t>zhi'ding</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级的 年长的</t>
+    <rPh sb="0" eb="1">
+      <t>gao'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>nain'zhang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上涨 高飞</t>
+    <rPh sb="0" eb="1">
+      <t>shang'zhang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gao'fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挤压 压榨 紧握</t>
+    <rPh sb="0" eb="1">
+      <t>ji'ya</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ya'zha</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jin'wo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">reluctant </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不情愿的 勉强的</t>
+    <rPh sb="0" eb="1">
+      <t>bu'qing'y</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mian'qiang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>realistic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现实的</t>
+    <rPh sb="0" eb="1">
+      <t>xian'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prevent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>observe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>neglect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预防 阻止</t>
+    <rPh sb="0" eb="1">
+      <t>yu'fang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zu'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侵略 入侵</t>
+    <rPh sb="0" eb="1">
+      <t>qin'lue</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ru'qin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观察 遵守</t>
+    <rPh sb="0" eb="1">
+      <t>guan'cha</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zun'shou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到期 死亡</t>
+    <rPh sb="0" eb="1">
+      <t>dao'qi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>is'wang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽视 忽略</t>
+    <rPh sb="0" eb="1">
+      <t>hu'shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hu'lue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extinct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fantasy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>episode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remarkable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mutual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灭绝的</t>
+    <rPh sb="0" eb="1">
+      <t>mie'jue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻想 白日梦 虚幻的</t>
+    <rPh sb="0" eb="1">
+      <t>huan'xiang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bai'ri'm</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xu'huan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插曲</t>
+    <rPh sb="0" eb="1">
+      <t>cha'qu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值得注意的</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'de'zhu'yi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共同的</t>
+    <rPh sb="0" eb="1">
+      <t>gong'tong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级 优先权</t>
+    <rPh sb="0" eb="1">
+      <t>you'xian'ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>you'xian'quan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apartment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specific</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定的 特殊的 详细的</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'ding</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>te'shu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiang'xi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>convention</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培养 后面 尾部</t>
+    <rPh sb="0" eb="1">
+      <t>pe'yang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hou'm</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wei'bu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公寓 房间</t>
+    <rPh sb="0" eb="1">
+      <t>gong'yu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fang'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限制 界限 边界</t>
+    <rPh sb="0" eb="1">
+      <t>xian'zhi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jie'xian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bian'jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有限的</t>
+    <rPh sb="0" eb="1">
+      <t>you'xian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大会 习俗 约定</t>
+    <rPh sb="0" eb="1">
+      <t>da'hui</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xi'su</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yue'ding</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲调 和谐</t>
+    <rPh sb="0" eb="1">
+      <t>qu'diao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>he'xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whereas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租约 租期 出租</t>
+    <rPh sb="0" eb="1">
+      <t>zu'yue</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zu'qi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chu'zu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然而</t>
+    <rPh sb="0" eb="1">
+      <t>ra'er</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方言 方言的</t>
+    <rPh sb="0" eb="1">
+      <t>fang'yan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fang'yan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mutual respect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相互尊重</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'hu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zun'z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破坏 毁灭 摧毁</t>
+    <rPh sb="0" eb="1">
+      <t>po'huai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hui'mie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>cui'hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与 涉及 提及</t>
+    <rPh sb="0" eb="1">
+      <t>can'yu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>she'ji</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ti'ji</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -882,10 +3563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -898,10 +3579,1671 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -925,335 +5267,677 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/雅思核心词汇精讲精练.xlsx
+++ b/雅思核心词汇精讲精练.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" tabRatio="500" firstSheet="1" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="入门-12" sheetId="10" r:id="rId1"/>
@@ -26,6 +26,10 @@
     <sheet name="初-26" sheetId="13" r:id="rId12"/>
     <sheet name="中-1" sheetId="14" r:id="rId13"/>
     <sheet name="中-2" sheetId="15" r:id="rId14"/>
+    <sheet name="中-3" sheetId="17" r:id="rId15"/>
+    <sheet name="中-4" sheetId="18" r:id="rId16"/>
+    <sheet name="中-5" sheetId="19" r:id="rId17"/>
+    <sheet name="中-6" sheetId="21" r:id="rId18"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="709">
   <si>
     <t>portrait</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3230,6 +3234,1765 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>ti'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>viable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spectacle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spiral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>encase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>axis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可行的</t>
+    <rPh sb="0" eb="1">
+      <t>ke'xing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景 场面 眼镜</t>
+    <rPh sb="0" eb="1">
+      <t>chang'jing</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chang'mian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yan'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基准 标准</t>
+    <rPh sb="0" eb="1">
+      <t>ji'hzun</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>biao'z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺旋形的 盘旋的</t>
+    <rPh sb="0" eb="1">
+      <t>luo'xuan'x</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>pan'xuan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包住 围绕 包装</t>
+    <rPh sb="0" eb="1">
+      <t>bao'zhu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wei'rao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bao'zhuang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轴</t>
+    <rPh sb="0" eb="1">
+      <t>zhou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incorporate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>submarine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intervene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chorus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parasite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excursion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>artistry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并 混合</t>
+    <rPh sb="0" eb="1">
+      <t>he'b</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hun'he</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海底的 潜水艇</t>
+    <rPh sb="0" eb="1">
+      <t>hai'di</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qian'shui't</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>marine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>船</t>
+    <rPh sb="0" eb="1">
+      <t>chuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干涉 干预</t>
+    <rPh sb="0" eb="1">
+      <t>gan'she</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gan'yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合唱队 齐声</t>
+    <rPh sb="0" eb="1">
+      <t>he'chang'dui</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qi'sheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄生虫</t>
+    <rPh sb="0" eb="1">
+      <t>ji'sheng'chong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远足  旅行</t>
+    <rPh sb="0" eb="1">
+      <t>yuan'zu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lv'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改 改善 改进</t>
+    <rPh sb="0" eb="1">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gai'shan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gai'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艺术性 工艺 艺术效果</t>
+    <rPh sb="0" eb="1">
+      <t>yi'shu'x</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gng'yi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yi'shu'xiao'guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>denote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reliance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anticipate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>utilize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗迹 遗物 废墟</t>
+    <rPh sb="0" eb="1">
+      <t>yi'ji</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yi'wu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fei'xu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示 指示</t>
+    <rPh sb="0" eb="1">
+      <t>biao'shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhi'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖 依靠</t>
+    <rPh sb="0" eb="1">
+      <t>yi'lai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yi'kao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学费 讲授</t>
+    <rPh sb="0" eb="1">
+      <t>xue'fei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jiang'shou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡沫 水墨 起泡沫</t>
+    <rPh sb="0" eb="1">
+      <t>pao'mo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shui'mo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期 期望</t>
+    <rPh sb="0" eb="1">
+      <t>yu'qi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qi'wang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>船体 外壳</t>
+    <rPh sb="0" eb="1">
+      <t>chuan'ti</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wai'ke</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用 使用</t>
+    <rPh sb="0" eb="1">
+      <t>li'yong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi'yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deteriorate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>surrender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>herb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>junction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acquisition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>binary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>galaxy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶化</t>
+    <rPh sb="0" eb="1">
+      <t>e'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投降 放弃</t>
+    <rPh sb="0" eb="1">
+      <t>tou'xiang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fang'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药草 香草</t>
+    <rPh sb="0" eb="1">
+      <t>yo'a'cao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xiang'cao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接 交叉点 结合点</t>
+    <rPh sb="0" eb="1">
+      <t>lian'jie</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jiao'cha'dian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jie'he'dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得 收购</t>
+    <rPh sb="0" eb="1">
+      <t>huo'de</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shou'gou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣歌 赞美诗 唱</t>
+    <rPh sb="0" eb="1">
+      <t>sheng'ren</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zan'mei'shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细长的苗条的 微薄的</t>
+    <rPh sb="0" eb="1">
+      <t>xi'chang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mioa'tiao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>d</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wei'bo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二进制</t>
+    <rPh sb="0" eb="1">
+      <t>er'jin'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银河 星系</t>
+    <rPh sb="0" eb="1">
+      <t>ying'he'xi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xing'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>legitimate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reclaim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>municipal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depression</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>constitution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沥青 焦油 柏油</t>
+    <rPh sb="0" eb="1">
+      <t>li'qing</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jiao'you</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bai'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转 编造</t>
+    <rPh sb="0" eb="1">
+      <t>xuan'zhuan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bian'zao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤道</t>
+    <rPh sb="0" eb="1">
+      <t>chi'dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合法的 正当的</t>
+    <rPh sb="0" eb="1">
+      <t>he'fa</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zheng'dang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>legal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合法</t>
+    <rPh sb="0" eb="1">
+      <t>he'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开拓 改造 回收 拿回</t>
+    <rPh sb="0" eb="1">
+      <t>kai'tuo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gai'zao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hui'shou</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>na'hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市政的 市的</t>
+    <rPh sb="0" eb="1">
+      <t>shi'zheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沮丧 抑郁症 萧条</t>
+    <rPh sb="0" eb="1">
+      <t>ju'sang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yu'yu'z</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xiao'tiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宪法 体制 建立 组成</t>
+    <rPh sb="0" eb="1">
+      <t>xian'fa</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ti'zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jian'li</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zu'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mastery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reinforce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>analogy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pendulum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calculus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>versatile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握 精通</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'wo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jing'tong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加强 加固 强化</t>
+    <rPh sb="0" eb="1">
+      <t>jia'qiang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jia'gu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qiang'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类比 类推 类似</t>
+    <rPh sb="0" eb="1">
+      <t>lei'bi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>lei'tui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>lei'si</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知 公布</t>
+    <rPh sb="0" eb="1">
+      <t>tong'zhi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gong'bu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绕道 迂回</t>
+    <rPh sb="0" eb="1">
+      <t>rao'dao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yu'hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">钟摆 </t>
+    <rPh sb="0" eb="1">
+      <t>zhong'bai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微积分学</t>
+    <rPh sb="0" eb="1">
+      <t>wei'ji'f'xue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多才多艺的 通用的</t>
+    <rPh sb="0" eb="1">
+      <t>duo'cai'duo'yi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tong'yong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诗歌 散文</t>
+    <rPh sb="0" eb="1">
+      <t>shi'ge</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>san'wen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stationary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>esteem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>momument</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定的 静止的</t>
+    <rPh sb="0" eb="1">
+      <t>gu'd</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jing'zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尊重 认为 考虑</t>
+    <rPh sb="0" eb="1">
+      <t>zun'z</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ren'wei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>kao'lv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪念碑</t>
+    <rPh sb="0" eb="1">
+      <t>ji'nian'bei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>milestone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里程碑</t>
+    <rPh sb="0" eb="1">
+      <t>li'cheng'bei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tube</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unveil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sophisticated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comparative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效的 正当的</t>
+    <rPh sb="0" eb="1">
+      <t>you'xaio</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zheng'dang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子管 隧道</t>
+    <rPh sb="0" eb="1">
+      <t>dian'zi'guan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>sui'dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>揭开 除去面纱</t>
+    <rPh sb="0" eb="1">
+      <t>jie'kai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chu'qu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mian'sah</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精细的 复杂的 精致的</t>
+    <rPh sb="0" eb="1">
+      <t>jing'xi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fu'za</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jing'zhi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍卖</t>
+    <rPh sb="0" eb="1">
+      <t>pai'mai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较的 相当的</t>
+    <rPh sb="0" eb="1">
+      <t>bi'jiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiang'dang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较</t>
+    <rPh sb="0" eb="1">
+      <t>bi'jiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>division</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inhale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flaw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aesthetic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>automatic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>placebo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paradox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除法 部门</t>
+    <rPh sb="0" eb="1">
+      <t>chu'fa</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bu'men</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸入</t>
+    <rPh sb="0" eb="1">
+      <t>xi'ru</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exhale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼出</t>
+    <rPh sb="0" eb="1">
+      <t>hu'chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扭曲</t>
+    <rPh sb="0" eb="1">
+      <t>niu'qu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑕疵 裂缝</t>
+    <rPh sb="0" eb="1">
+      <t>xia'ci</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>lie'f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的 美学的 审美的</t>
+    <rPh sb="0" eb="1">
+      <t>mei'de</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mei'xue</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shen'mei</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动的 无意识的</t>
+    <rPh sb="0" eb="1">
+      <t>zi'dng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wu'yi'shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安慰剂</t>
+    <rPh sb="0" eb="1">
+      <t>an'wei'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悖论</t>
+    <rPh sb="0" eb="1">
+      <t>bei'lun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remedy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accessory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compatible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oriental</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manuscript</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补救 赔偿 治疗</t>
+    <rPh sb="0" eb="1">
+      <t>bu'jiu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>pei'chang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi'liao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>herbal remedy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草药疗法</t>
+    <rPh sb="0" eb="1">
+      <t>cao'yao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>liao'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配件 附属的</t>
+    <rPh sb="0" eb="1">
+      <t>pei'jain</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fu'shu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bicycle  accessory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自行车配件</t>
+    <rPh sb="0" eb="1">
+      <t>zi'xing'che</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>pei'jain</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼容的 能共处的</t>
+    <rPh sb="0" eb="1">
+      <t>jian'rong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>neng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gong'chu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方的 东方人</t>
+    <rPh sb="0" eb="1">
+      <t>dong'fang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dong'f</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>primitive tribe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始部落</t>
+    <rPh sb="0" eb="1">
+      <t>yuan'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu'luo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>primitive instinct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始本能</t>
+    <rPh sb="0" eb="1">
+      <t>yuan'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ben'ne'g</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手稿 原稿</t>
+    <rPh sb="0" eb="1">
+      <t>shou'gao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yuan'gao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gao'zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计的 统计数值</t>
+    <rPh sb="0" eb="1">
+      <t>tong'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tong'ji</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shu'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unemployment statistics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失业统计资料</t>
+    <rPh sb="0" eb="1">
+      <t>shi'ye'tong'ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zi'liao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warrant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pronunciation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elevate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interchange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coordinate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>retail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保证 批准 证明</t>
+    <rPh sb="0" eb="1">
+      <t>bao'z</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>pi'zhun</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zheng'm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净化 使纯净</t>
+    <rPh sb="0" eb="1">
+      <t>jing'hua</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chun'jing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发音</t>
+    <rPh sb="0" eb="1">
+      <t>fa'y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升 举起</t>
+    <rPh sb="0" eb="1">
+      <t>ti's</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ju'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交换 互换</t>
+    <rPh sb="0" eb="1">
+      <t>jiao'huan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hu'huan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整 坐标 同等的</t>
+    <rPh sb="0" eb="1">
+      <t>tiao'z</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zuo'biao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tong'deng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零售 零售的</t>
+    <rPh sb="0" eb="1">
+      <t>ling'shou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ling'shou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drawback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>counterpart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>embassy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>encircle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replicate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anatomy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺点 不利条件</t>
+    <rPh sb="0" eb="1">
+      <t>que'dian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bu'li</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tiao'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种类 分类</t>
+    <rPh sb="0" eb="1">
+      <t>zhong'lei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fen'lei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本 对应的人</t>
+    <rPh sb="0" eb="1">
+      <t>fu'ben</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dui'ying</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>d</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大使馆 大使馆全体人员</t>
+    <rPh sb="0" eb="1">
+      <t>da'shi'g</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>da'shi'g</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>quan'ti'ren'y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包围 围绕 环绕</t>
+    <rPh sb="0" eb="1">
+      <t>bao'wei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wei'rao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>huan'rao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制 重复 折叠的</t>
+    <rPh sb="0" eb="1">
+      <t>fu'zhi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chong'fu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhe'die</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解剖 剖析</t>
+    <rPh sb="0" eb="1">
+      <t>jie'pou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>pou'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>human anatomy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人体解剖</t>
+    <rPh sb="0" eb="1">
+      <t>ren'ti'jie'p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commodity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stroll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vicious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>standby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>royal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>handicap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>capsule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品 货物</t>
+    <rPh sb="0" eb="1">
+      <t>shang'p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>huo'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漫步 闲逛</t>
+    <rPh sb="0" eb="1">
+      <t>man'bu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xian'guang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶毒的 恶意的</t>
+    <rPh sb="0" eb="1">
+      <t>e'du</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>e'yi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待命状态 备用的</t>
+    <rPh sb="0" eb="1">
+      <t>dai'm</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhuang'tai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bei'yong</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇家的 女王的 高贵的</t>
+    <rPh sb="0" eb="1">
+      <t>huang'jia</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>nv'w</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gao'gui</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>障碍 妨碍</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'ai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fang'ai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胶囊 太空舱 小容器</t>
+    <rPh sb="0" eb="1">
+      <t>jiao'nang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tai'kong'c</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xiao'rng'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声明 陈述</t>
+    <rPh sb="0" eb="1">
+      <t>sheng'm</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chen'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>formulate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>astronomy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>propel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diligent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>premature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maritime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划 用公式表示</t>
+    <rPh sb="0" eb="1">
+      <t>gui'hau</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yong'gong'shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>biao'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简洁的 简明的</t>
+    <rPh sb="0" eb="1">
+      <t>jian'jie</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jian'ming</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天文学</t>
+    <rPh sb="0" eb="1">
+      <t>tian'wen'xue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推进 驱使 激励</t>
+    <rPh sb="0" eb="1">
+      <t>tui'j</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qu'shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ji'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勤勉的 用功的</t>
+    <rPh sb="0" eb="1">
+      <t>qin'mian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yong'gong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不成熟的</t>
+    <rPh sb="0" eb="1">
+      <t>bu'cheng'hsu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成熟的</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海事的 沿海的</t>
+    <rPh sb="0" eb="1">
+      <t>hai'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yan'hai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3935,7 +5698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -4262,8 +6025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -4619,10 +6382,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -4641,9 +6404,436 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>498</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>240</v>
+        <v>506</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>593</v>
       </c>
     </row>
   </sheetData>
@@ -4654,10 +6844,505 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -4684,6 +7369,115 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4851,7 +7645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -5226,7 +8020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>

--- a/雅思核心词汇精讲精练.xlsx
+++ b/雅思核心词汇精讲精练.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" tabRatio="500" firstSheet="1" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" firstSheet="3" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="入门-12" sheetId="10" r:id="rId1"/>
@@ -26,10 +26,12 @@
     <sheet name="初-26" sheetId="13" r:id="rId12"/>
     <sheet name="中-1" sheetId="14" r:id="rId13"/>
     <sheet name="中-2" sheetId="15" r:id="rId14"/>
-    <sheet name="中-3" sheetId="17" r:id="rId15"/>
-    <sheet name="中-4" sheetId="18" r:id="rId16"/>
-    <sheet name="中-5" sheetId="19" r:id="rId17"/>
-    <sheet name="中-6" sheetId="21" r:id="rId18"/>
+    <sheet name="中-3" sheetId="27" r:id="rId15"/>
+    <sheet name="中-4" sheetId="28" r:id="rId16"/>
+    <sheet name="中-5" sheetId="29" r:id="rId17"/>
+    <sheet name="中-6" sheetId="30" r:id="rId18"/>
+    <sheet name="中-7" sheetId="32" r:id="rId19"/>
+    <sheet name="中-8" sheetId="33" r:id="rId20"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="1371">
   <si>
     <t>portrait</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4993,6 +4995,4718 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tropic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magnitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suitcase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>surpass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>democracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contradict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lapse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热带 回归线 热带的</t>
+    <rPh sb="0" eb="1">
+      <t>re'dai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hui'gui'x</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>re'dai'de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大小 量级</t>
+    <rPh sb="0" eb="1">
+      <t>da'xiao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>liang'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手提箱 衣物箱</t>
+    <rPh sb="0" eb="1">
+      <t>shou'ti'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超越 胜过</t>
+    <rPh sb="0" eb="1">
+      <t>chao'yue</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>sheng'guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民主</t>
+    <rPh sb="0" eb="1">
+      <t>min'zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反驳 否定</t>
+    <rPh sb="0" eb="1">
+      <t>fan'bo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fou'd</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过失 流失</t>
+    <rPh sb="0" eb="1">
+      <t>guo'shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>liu'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>persevere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allege</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abundance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>differentiation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张力 拉紧</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'li</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>la'jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取代 置换 转移</t>
+    <rPh sb="0" eb="1">
+      <t>qu'dai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhi'huan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhuan'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宣称 断言</t>
+    <rPh sb="0" eb="1">
+      <t>xuan'cheng</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>duan'yan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充裕 丰富</t>
+    <rPh sb="0" eb="1">
+      <t>chong'yu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>feng'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分化 区别</t>
+    <rPh sb="0" eb="1">
+      <t>fen'hua</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qu'bie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木材 木料</t>
+    <rPh sb="0" eb="1">
+      <t>mu'cai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mu'liao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游行 阅兵</t>
+    <rPh sb="0" eb="1">
+      <t>you'xing</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yue'bing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>military parade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军事检阅</t>
+    <rPh sb="0" eb="1">
+      <t>jun'shi'jan'yue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jian'yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prolong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延长 延伸</t>
+    <rPh sb="0" eb="1">
+      <t>yan'chang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yan'shen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proceed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始 继续进行 进行</t>
+    <rPh sb="0" eb="1">
+      <t>kai'shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ji'xu'jin'x</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jin'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shuttle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿梭班机 公共骑车</t>
+    <rPh sb="0" eb="1">
+      <t>chuan'suo'ba'b'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ban'ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gong'gong'ji'che</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>qi'che</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warfare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demography</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notorious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adornment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战争 冲突</t>
+    <rPh sb="0" eb="1">
+      <t>zhan'z</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chong'tu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政权 政体</t>
+    <rPh sb="0" eb="1">
+      <t>zhegn'quan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zheng'ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人口学</t>
+    <rPh sb="0" eb="1">
+      <t>ren'ko'xue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边缘</t>
+    <rPh sb="0" eb="1">
+      <t>bian'yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臭名昭著的</t>
+    <rPh sb="0" eb="1">
+      <t>chou'ming'zhao'zhu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装饰 装饰品</t>
+    <rPh sb="0" eb="1">
+      <t>zhuang'shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhuan'shi'ping</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refund</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>retreat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>booth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>havoc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款 退还 偿还</t>
+    <rPh sb="0" eb="1">
+      <t>tui'kuan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tui'huan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chang'huan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撤退</t>
+    <rPh sb="0" eb="1">
+      <t>che'tui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑翔 滑行</t>
+    <rPh sb="0" eb="1">
+      <t>hua'xiang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hua'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摊货 公共电话亭</t>
+    <rPh sb="3" eb="4">
+      <t>gong'gong'd'h't</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dian'hua't</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同 婚约</t>
+    <rPh sb="0" eb="1">
+      <t>he't</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hun'yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大破坏 损毁</t>
+    <rPh sb="0" eb="1">
+      <t>da'po'huai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>sun'hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸馏 提炼</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'liu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ti'lian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜡 给…上蜡</t>
+    <rPh sb="0" eb="1">
+      <t>la'zhu'u</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outright</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cosmetic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainstream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acclaim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proponent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sculpture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>barrel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全的 彻底的</t>
+    <rPh sb="0" eb="1">
+      <t>wan'q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>che'di</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美容的 化妆品</t>
+    <rPh sb="0" eb="1">
+      <t>mei'rong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hua'zhuang'p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主流</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'liu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>称赞 喝彩</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'zan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>he'cai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持者 建议者</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'chi'zhe</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jian'yi'zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雕塑 雕刻</t>
+    <rPh sb="0" eb="1">
+      <t>diao'su</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>diao'ke</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桶 枪管</t>
+    <rPh sb="0" eb="1">
+      <t>tong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qiang'guan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medieval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memorise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aggravate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coincide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calculate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>neutron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vulnerable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中世纪的</t>
+    <rPh sb="0" eb="1">
+      <t>zhong'shi'ji</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记忆 存储</t>
+    <rPh sb="0" eb="1">
+      <t>ji'yi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cun'chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加重 使…恶化</t>
+    <rPh sb="0" eb="1">
+      <t>jia'zhong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一致 同时发生</t>
+    <rPh sb="0" eb="1">
+      <t>yi'zhi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tong'shi'fa's</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算 预测 认为</t>
+    <rPh sb="0" eb="1">
+      <t>ji'suan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yu'ce</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ren'wi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中子</t>
+    <rPh sb="0" eb="1">
+      <t>zhong'zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易受伤害的 有弱点的</t>
+    <rPh sb="0" eb="1">
+      <t>yi'shou'sang'hai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>you'ruo'dian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vulnerable member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱势群体</t>
+    <rPh sb="0" eb="1">
+      <t>ruo'shi'qun'ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prominent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conservation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taxonomy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sediment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突出的 杰出的</t>
+    <rPh sb="0" eb="1">
+      <t>tu'chu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie'chu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存 保护</t>
+    <rPh sb="0" eb="1">
+      <t>bao'cun</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bao'hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类学</t>
+    <rPh sb="0" eb="1">
+      <t>fen'lei'xue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉淀 沉淀物</t>
+    <rPh sb="0" eb="1">
+      <t>chen'dian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cheng'dian'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biodiversity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>circulate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dwell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delicate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>denounce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物多样性</t>
+    <rPh sb="0" eb="1">
+      <t>s'w'd'y'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推动 驱动 激励</t>
+    <rPh sb="0" eb="1">
+      <t>tui'dong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qu'dong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ji'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传播 循环</t>
+    <rPh sb="0" eb="1">
+      <t>chuan'bo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xun'huan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居住</t>
+    <rPh sb="0" eb="1">
+      <t>ju'zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微妙的 柔和的</t>
+    <rPh sb="0" eb="1">
+      <t>wei'miao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>rou'he</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谴责 告发</t>
+    <rPh sb="0" eb="1">
+      <t>qian'ze</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gao'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doctorate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disclose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disrupt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>durable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discriminate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>census</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博士学位</t>
+    <rPh sb="0" eb="1">
+      <t>bo'shi'xue'wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公开 揭露</t>
+    <rPh sb="0" eb="1">
+      <t>gong'kai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jie'lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破坏 使分裂</t>
+    <rPh sb="0" eb="1">
+      <t>po'huai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fen'lie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐用的 持久的</t>
+    <rPh sb="0" eb="1">
+      <t>nai'yong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chi'jiu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完整的</t>
+    <rPh sb="0" eb="1">
+      <t>wan'z</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歧视 区别 辨别</t>
+    <rPh sb="0" eb="1">
+      <t>qi'shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qu'bie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>biab'bie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人口普查</t>
+    <rPh sb="0" eb="1">
+      <t>ren'kou'pu'cha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apparatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>premise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meditation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adverse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lateral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resemble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>albeit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装置 设备</t>
+    <rPh sb="0" eb="1">
+      <t>zhuang'zhi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>she'bei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前提 引出</t>
+    <rPh sb="0" eb="1">
+      <t>qian'ti</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yin'chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冥想 沉思</t>
+    <rPh sb="0" eb="1">
+      <t>ming'xiang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chen'si</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不利的 相反的</t>
+    <rPh sb="0" eb="1">
+      <t>bu'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiang'fan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侧面的 横向的</t>
+    <rPh sb="0" eb="1">
+      <t>ce'mian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>heng'xiang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似 像</t>
+    <rPh sb="0" eb="1">
+      <t>lei'si</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xaing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虽然 即使</t>
+    <rPh sb="0" eb="1">
+      <t>sui'ran</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ji'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receptive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>corpus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>occupation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expedition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peril</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>marble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resolve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suspicious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受的 容纳的</t>
+    <rPh sb="0" eb="1">
+      <t>jie'shou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>rong'na</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语料库 文集</t>
+    <rPh sb="0" eb="1">
+      <t>yu'liao'ku</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wen'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业 占有</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'ye</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhan'you</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探险 远征</t>
+    <rPh sb="0" eb="1">
+      <t>tan'xian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yuan'zheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>危险 冒险 危及</t>
+    <rPh sb="0" eb="1">
+      <t>wei'xian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mao'xian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wei'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大理石</t>
+    <rPh sb="0" eb="1">
+      <t>da'li'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决 分解</t>
+    <rPh sb="0" eb="1">
+      <t>jie'jue</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fen'jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可疑的 怀疑的</t>
+    <rPh sb="4" eb="5">
+      <t>huai'yi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>porcelain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compensate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fabulous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manoeuvre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delegate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impetus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negotiate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓷器</t>
+    <rPh sb="0" eb="1">
+      <t>ci'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赔偿</t>
+    <rPh sb="0" eb="1">
+      <t>pei'chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极好的</t>
+    <rPh sb="0" eb="1">
+      <t>ji'hoa</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调动 操作 策略</t>
+    <rPh sb="0" eb="1">
+      <t>diao'dong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cao'zuo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ce'l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代表</t>
+    <rPh sb="0" eb="1">
+      <t>dai'biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动力 促进</t>
+    <rPh sb="0" eb="1">
+      <t>dong'li</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cu'jing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谈判 商议</t>
+    <rPh sb="0" eb="1">
+      <t>tan'pan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shang'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warehouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tilt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hedge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orthodox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>optimum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>predominant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库 货栈</t>
+    <rPh sb="0" eb="1">
+      <t>cang'ku</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>huo'zhan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倾斜</t>
+    <rPh sb="0" eb="1">
+      <t>qing'xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群众 多数</t>
+    <rPh sb="0" eb="1">
+      <t>qun'zhong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>duo'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困境 誓约 保证 约定</t>
+    <rPh sb="0" eb="1">
+      <t>kun'jing</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi'yue</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bao'zheng</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yue'ding</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树篱 障碍</t>
+    <rPh sb="0" eb="1">
+      <t>shu'li</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhang'ai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正统的</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'tong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最佳效果的 最适宜的</t>
+    <rPh sb="0" eb="1">
+      <t>zui'jia'xiao'guo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zui'shi'ye</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要的 支配的</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'yao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhi'pei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrepreneur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impartial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业家 主办者</t>
+    <rPh sb="0" eb="1">
+      <t>qi'ye'jia</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhu'ban'zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐吓 威胁</t>
+    <rPh sb="0" eb="1">
+      <t>kong'he</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wei'xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逮捕 阻止</t>
+    <rPh sb="0" eb="1">
+      <t>dai'bu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zu'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要 承担</t>
+    <rPh sb="0" eb="1">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cheng'dan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短暂的 路过的</t>
+    <rPh sb="0" eb="1">
+      <t>duan'zan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lu'guo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公平的 公正的</t>
+    <rPh sb="0" eb="1">
+      <t>gong'ping</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gong'zheng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使遵守  使一致</t>
+    <rPh sb="0" eb="1">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zun'shou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yi'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intermediate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physiology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jury</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>navigate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clutch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>latitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中间的 中间物</t>
+    <rPh sb="0" eb="1">
+      <t>zhong'jain</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhong'jain</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生理学 生理机能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陪审团 评判委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航行 驾驶 操纵</t>
+    <rPh sb="0" eb="1">
+      <t>hang'x</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jia'shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>cao'zong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离合器 控制 抓住</t>
+    <rPh sb="0" eb="1">
+      <t>li'he'qi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>kong'zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhua'zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纬度 界限</t>
+    <rPh sb="0" eb="1">
+      <t>wei'du</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jie'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>locomotive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dilemma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diminish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prestigious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drastically</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heritage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subtitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">火车头的 </t>
+    <rPh sb="0" eb="1">
+      <t>huo'che'tou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困境</t>
+    <rPh sb="0" eb="1">
+      <t>kun'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少 缩小</t>
+    <rPh sb="0" eb="1">
+      <t>jian'shao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>suo'xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有名望的</t>
+    <rPh sb="0" eb="1">
+      <t>you'mng'wang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彻底的 激烈的</t>
+    <rPh sb="0" eb="1">
+      <t>che'di</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji'lie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗产</t>
+    <rPh sb="0" eb="1">
+      <t>yi'chan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副标题</t>
+    <rPh sb="0" eb="1">
+      <t>fu'biao'ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incentive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clarity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>implement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dynasty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interplay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parental</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动机 刺激</t>
+    <rPh sb="0" eb="1">
+      <t>dong'ji</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ci'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清楚 清晰</t>
+    <rPh sb="0" eb="1">
+      <t>qing'chu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qing'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实施 执行 工具</t>
+    <rPh sb="0" eb="1">
+      <t>shi'shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhi'x</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gong'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王朝 朝代</t>
+    <rPh sb="0" eb="1">
+      <t>wang'chao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chao'dai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父母的</t>
+    <rPh sb="0" eb="1">
+      <t>fu'mu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有责任的 有义务的</t>
+    <rPh sb="0" eb="1">
+      <t>you'ze'r</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>you'yi'wu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toxic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pervasive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scenario</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overlap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peculiar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commerce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有毒的</t>
+    <rPh sb="0" eb="1">
+      <t>you'du</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普遍的 流行的</t>
+    <rPh sb="0" eb="1">
+      <t>pu'bian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>liu'xing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航行</t>
+    <rPh sb="0" eb="1">
+      <t>hang'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案 情节</t>
+    <rPh sb="0" eb="1">
+      <t>fang'an</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qing'jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重叠</t>
+    <rPh sb="0" eb="1">
+      <t>chong'die</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊的 奇怪的</t>
+    <rPh sb="0" eb="1">
+      <t>te'shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qi'guai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贸易 商业</t>
+    <rPh sb="0" eb="1">
+      <t>mao'yi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shang'ye</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dilute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>molecular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bibliography</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>undertake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anthropology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>render</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">稀释 </t>
+    <rPh sb="0" eb="1">
+      <t>xi'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分子的</t>
+    <rPh sb="0" eb="1">
+      <t>fen'zi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考书目</t>
+    <rPh sb="0" eb="1">
+      <t>can'kao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'mu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芭蕾舞剧</t>
+    <rPh sb="0" eb="1">
+      <t>ba'lei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wu'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承担 重试</t>
+    <rPh sb="0" eb="1">
+      <t>chen'dan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chong'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类学</t>
+    <rPh sb="0" eb="1">
+      <t>ren'lei'xue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导致</t>
+    <rPh sb="0" eb="1">
+      <t>dao'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cluster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bronze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imitate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>democratic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eccentric</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refuge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aerial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群 丛</t>
+    <rPh sb="0" eb="1">
+      <t>qun</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青铜</t>
+    <rPh sb="0" eb="1">
+      <t>qign'tong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模仿</t>
+    <rPh sb="0" eb="1">
+      <t>mo'fang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民主的</t>
+    <rPh sb="0" eb="1">
+      <t>min'zhu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">古怪的 </t>
+    <rPh sb="0" eb="1">
+      <t>gu'guai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>避难所</t>
+    <rPh sb="0" eb="1">
+      <t>bi'nan'suo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航空的</t>
+    <rPh sb="0" eb="1">
+      <t>hang'kong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cohesive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vein</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vaccine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quotation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>despite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>presumably</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>convict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portfolio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凝聚的</t>
+    <rPh sb="0" eb="1">
+      <t>ning'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血管</t>
+    <rPh sb="0" eb="1">
+      <t>xue'guan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">疫苗 </t>
+    <rPh sb="0" eb="1">
+      <t>yi'miao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻视 鄙视</t>
+    <rPh sb="0" eb="1">
+      <t>qing'shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bi'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大概 推测起来</t>
+    <rPh sb="0" eb="1">
+      <t>da'gai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tui'ce</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qi'lai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>犯罪</t>
+    <rPh sb="0" eb="1">
+      <t>fan'zui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公文包 文件夹</t>
+    <rPh sb="0" eb="1">
+      <t>gong'wen'bao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wen'jan'jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活</t>
+    <rPh sb="0" eb="1">
+      <t>ji'huo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pottery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bypass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>headquarter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appendix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spectator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">支路 </t>
+    <rPh sb="0" eb="1">
+      <t>zhi'lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供 分配</t>
+    <rPh sb="0" eb="1">
+      <t>ti'gong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fen'pei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总部</t>
+    <rPh sb="0" eb="1">
+      <t>zong'bu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附录</t>
+    <rPh sb="0" eb="1">
+      <t>fu'lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观众 旁观者</t>
+    <rPh sb="0" eb="1">
+      <t>guan'zhong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>pang'guan'zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶器「瓷器」</t>
+    <rPh sb="0" eb="1">
+      <t>tao'qi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ci'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conspicuous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nicotine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allocate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mimic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>telepathy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monopoly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显著的</t>
+    <rPh sb="0" eb="1">
+      <t>xian'zhu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尼古丁</t>
+    <rPh sb="0" eb="1">
+      <t>ni'gu'd</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配 指定</t>
+    <rPh sb="0" eb="1">
+      <t>fen'pei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhi'ding</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流浪 偏离</t>
+    <rPh sb="0" eb="1">
+      <t>liu'lang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>pian'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心灵感应</t>
+    <rPh sb="0" eb="1">
+      <t>x'n'l'g'y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垄断</t>
+    <rPh sb="0" eb="1">
+      <t>long'duan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sketch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seminar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endanger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>withstand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scrape</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>landmark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cereal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stubborn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素描</t>
+    <rPh sb="0" eb="1">
+      <t>su'miao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论会</t>
+    <rPh sb="0" eb="1">
+      <t>tao'lun'hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>危及</t>
+    <rPh sb="0" eb="1">
+      <t>wei'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵挡 反抗</t>
+    <rPh sb="0" eb="1">
+      <t>di'dang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fan'kang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擦痕 困境</t>
+    <rPh sb="0" eb="1">
+      <t>ca'hen</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>kun'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路标 里程碑</t>
+    <rPh sb="0" eb="1">
+      <t>lu'biao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>li'chebg'bei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷物</t>
+    <rPh sb="0" eb="1">
+      <t>gu'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顽强的</t>
+    <rPh sb="0" eb="1">
+      <t>wan'qiang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inclination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>domain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transcend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>publicise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conceive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overwhelm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重述 概括</t>
+    <rPh sb="0" eb="1">
+      <t>chong'shu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gai'kuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倾斜 倾向</t>
+    <rPh sb="0" eb="1">
+      <t>qing'xie</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qin'xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领域 产业</t>
+    <rPh sb="0" eb="1">
+      <t>ling'yu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chan'ye</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜过 超越</t>
+    <rPh sb="0" eb="1">
+      <t>sheng'guo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chao'yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宣传 公布</t>
+    <rPh sb="0" eb="1">
+      <t>xuan'c</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gong'bu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构思 设想</t>
+    <rPh sb="0" eb="1">
+      <t>gou'si</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>she'xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淹没 压到</t>
+    <rPh sb="0" eb="1">
+      <t>yan'mo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ya'dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>climax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pledge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>burgeon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intricate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainspring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>susceptible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高潮 顶点</t>
+    <rPh sb="0" eb="1">
+      <t>gao'chao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>din'dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保证</t>
+    <rPh sb="0" eb="1">
+      <t>bao'zheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萌芽 发芽</t>
+    <rPh sb="0" eb="1">
+      <t>meng'ya</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fa'ya</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复杂的 错综的</t>
+    <rPh sb="0" eb="1">
+      <t>fu'za</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cuo'zong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要动力</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'yao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dong'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始 着手</t>
+    <rPh sb="0" eb="1">
+      <t>kai'shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhuo'shou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易受影响的</t>
+    <rPh sb="0" eb="1">
+      <t>yi'shou'y'x</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gossip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apportion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plague</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speculate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distinct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pastime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ethical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>layer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>simulate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>symptom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小道传闻</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'dao'chuan'wen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可使用的</t>
+    <rPh sb="0" eb="1">
+      <t>ke'shi'yong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘟疫 折磨 使烦恼</t>
+    <rPh sb="0" eb="1">
+      <t>wen'yi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhe'mo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fan'noa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推迟</t>
+    <rPh sb="0" eb="1">
+      <t>tui'chi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惊吓 减弱</t>
+    <rPh sb="0" eb="1">
+      <t>jing'xia</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jian'ruo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推测 推断</t>
+    <rPh sb="0" eb="1">
+      <t>tuiu'ce</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tui'duan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有区别的 独特的</t>
+    <rPh sb="0" eb="1">
+      <t>you'qu'bie</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>du'te</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>娱乐 消遣</t>
+    <rPh sb="0" eb="1">
+      <t>yu'le</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xiao'qian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伦理的 道德的</t>
+    <rPh sb="0" eb="1">
+      <t>lun'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dao'de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>层次</t>
+    <rPh sb="0" eb="1">
+      <t>ceng'ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟 模仿</t>
+    <rPh sb="0" eb="1">
+      <t>mo'ni</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mo'fang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>征兆 症状</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'zhao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zheng'zhuang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>symptom  of depression</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抑郁症状</t>
+    <rPh sb="0" eb="1">
+      <t>yi'yu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>z'z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dedicate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elastic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perception</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overuse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sanitary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sufficient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>degenerate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deficit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凹槽</t>
+    <rPh sb="0" eb="1">
+      <t>ao'cao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>致力 献身</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'li'yu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xian'shen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奉献</t>
+    <rPh sb="0" eb="1">
+      <t>feng'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有弹性的 灵活的</t>
+    <rPh sb="0" eb="1">
+      <t>you'tan'x</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ling'huo</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sufficient elastic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>足够灵活的</t>
+    <rPh sb="0" eb="1">
+      <t>zu'gou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lng'huo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呻吟 抱怨</t>
+    <rPh sb="0" eb="1">
+      <t>shen'yin</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bao'yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直觉 看法</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'jue</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>kan'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visual perception</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视觉</t>
+    <rPh sb="0" eb="1">
+      <t>shi'jue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过度使用</t>
+    <rPh sb="0" eb="1">
+      <t>guo'du</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生的 清洁的</t>
+    <rPh sb="0" eb="1">
+      <t>wei'sheng'de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qing'jie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sanitary facility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生设施</t>
+    <rPh sb="0" eb="1">
+      <t>wei'sheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>she'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>足够的 充分的</t>
+    <rPh sb="0" eb="1">
+      <t>zu'gou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chong'fen</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深厚的</t>
+    <rPh sb="0" eb="1">
+      <t>shen'hou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profound insights</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精辟的见解</t>
+    <rPh sb="0" eb="1">
+      <t>jing'pi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jian'jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commercial transaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业交易</t>
+    <rPh sb="0" eb="1">
+      <t>shang'ye</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jiao'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退化 恶化</t>
+    <rPh sb="0" eb="1">
+      <t>tui'hua</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>e'hua'u</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤字</t>
+    <rPh sb="0" eb="1">
+      <t>chi'zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>budget deficit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算赤字</t>
+    <rPh sb="0" eb="1">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chi'zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>retain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保持</t>
+    <rPh sb="0" eb="1">
+      <t>bao'chi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>retain independence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保持中立</t>
+    <rPh sb="0" eb="1">
+      <t>bao'chi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhong'il</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>twist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拧 编制</t>
+    <rPh sb="0" eb="1">
+      <t>ning</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bian'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cortex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮质 树皮</t>
+    <rPh sb="0" eb="1">
+      <t>pi'zhi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shu'pi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auditory cortex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听觉皮层</t>
+    <rPh sb="0" eb="1">
+      <t>ting'jue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pi'ceng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultraviolet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫外线的</t>
+    <rPh sb="0" eb="1">
+      <t>zi'wai'x</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultraviolet rays</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫外线</t>
+    <rPh sb="0" eb="1">
+      <t>zi'wai'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>splash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溅 飞溅的水</t>
+    <rPh sb="0" eb="1">
+      <t>jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fei'jian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disperse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分散</t>
+    <rPh sb="0" eb="1">
+      <t>fen'san</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disperse the crowd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱散人群</t>
+    <rPh sb="0" eb="1">
+      <t>qu'san</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ren'qun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demolish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">推翻 </t>
+    <rPh sb="0" eb="1">
+      <t>tui'fan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demolish the rumours</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击破谣言</t>
+    <rPh sb="0" eb="1">
+      <t>ji'po'yao'yan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protein deficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋白质缺乏</t>
+    <rPh sb="0" eb="1">
+      <t>dan'bai'zhi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>que'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>furnish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供 供应 装横 布置</t>
+    <rPh sb="0" eb="1">
+      <t>ti'gong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gong'ying</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhuang'he'n'g</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bu'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>furnish sth with antiques</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用古董来装饰sth</t>
+    <rPh sb="0" eb="1">
+      <t>yong'gu'dong</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>gu'dong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>lai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhuang'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>circumscribe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限制</t>
+    <rPh sb="0" eb="1">
+      <t>xian'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>narrative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事 叙事的</t>
+    <rPh sb="0" eb="1">
+      <t>gu'shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xu'shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intersection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交叉 十字路口</t>
+    <rPh sb="0" eb="1">
+      <t>jiao'cah</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi'zi'lu'kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>street intersection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十字路口</t>
+    <rPh sb="0" eb="1">
+      <t>shi'zi'lu'kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stride</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大步行走 跨国</t>
+    <rPh sb="0" eb="1">
+      <t>da'bu'xing'zou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kua'guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integrity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完整 正直</t>
+    <rPh sb="0" eb="1">
+      <t>wan'z</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zheng'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>behave with integrity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表现得正直</t>
+    <rPh sb="0" eb="1">
+      <t>biao'x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zheng'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赋予权力 成为</t>
+    <rPh sb="0" eb="1">
+      <t>fu'yu'quan'li</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cheng'wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>herbicide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detrimental</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>silt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enlighten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alliance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accredit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epidemic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tenant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subsidy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allergy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>terrify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allergy to animal hair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对动物毛过敏</t>
+    <rPh sb="0" eb="1">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>dong'wu'mao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>guo'ming</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐吓 使恐怖</t>
+    <rPh sb="0" eb="1">
+      <t>kong'he</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>kong'bu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除草剂</t>
+    <rPh sb="0" eb="1">
+      <t>chu'cao'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不利的 有害的</t>
+    <rPh sb="0" eb="1">
+      <t>bu'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>you'hai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潮湿的 多雨的</t>
+    <rPh sb="0" eb="1">
+      <t>chao'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>duo'yu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淤泥 残渣</t>
+    <rPh sb="0" eb="1">
+      <t>yu'ni</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>can'zha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉 感动</t>
+    <rPh sb="0" eb="1">
+      <t>gan'jue</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gan'dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启发 启蒙</t>
+    <rPh sb="0" eb="1">
+      <t>qi'fa</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qi'meng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟 联合</t>
+    <rPh sb="0" eb="1">
+      <t>lian'm</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>lian'he</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权 信任</t>
+    <rPh sb="0" eb="1">
+      <t>shou'quan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xin'ren'g</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流行的 传染的</t>
+    <rPh sb="0" eb="1">
+      <t>liu'x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chuan'ran</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a flu epidemic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流感</t>
+    <rPh sb="0" eb="1">
+      <t>liu'gan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承租人 房客</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'zu'r</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fang'ke</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补贴 补助金</t>
+    <rPh sb="0" eb="1">
+      <t>bu'tie</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bu'zhu'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过敏</t>
+    <rPh sb="0" eb="1">
+      <t>guo'm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trivial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overdraw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mammal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琐碎的</t>
+    <rPh sb="0" eb="1">
+      <t>suo'sui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a trivial detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细枝末节</t>
+    <rPh sb="0" eb="1">
+      <t>xi'zhi'mo'jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>透支 夸张</t>
+    <rPh sb="0" eb="1">
+      <t>toiu'zhi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>kau'zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哺乳动物</t>
+    <rPh sb="0" eb="1">
+      <t>pu'ru'dong'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合金</t>
+    <rPh sb="0" eb="1">
+      <t>he'jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空间的</t>
+    <rPh sb="0" eb="1">
+      <t>kong'jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相互的</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'hu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇异的</t>
+    <rPh sb="0" eb="1">
+      <t>qi'yi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值的 数字的</t>
+    <rPh sb="0" eb="1">
+      <t>shu'zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shu'zi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alloy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spatial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reciprocal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bizarre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numerical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>artefact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verbal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cassette</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cassette recorder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>painstaking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>painstaking research</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>painstaking effort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>optimal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工艺品</t>
+    <rPh sb="0" eb="1">
+      <t>gong'yi'ping</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口头的</t>
+    <rPh sb="0" eb="1">
+      <t>kou'tou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verbal agreement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口头协议</t>
+    <rPh sb="0" eb="1">
+      <t>kou'tou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xie'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盒式磁带</t>
+    <rPh sb="0" eb="1">
+      <t>he'shi'ci'dai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盒式磁带录音机</t>
+    <rPh sb="0" eb="1">
+      <t>he'shi'ci'dai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lu'y'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艰苦的 勤勉的</t>
+    <rPh sb="0" eb="1">
+      <t>jian'ku</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qin'mian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细心的研究</t>
+    <rPh sb="0" eb="1">
+      <t>xi'xin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yan'jiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艰苦的努力</t>
+    <rPh sb="0" eb="1">
+      <t>jian'ku</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>nu'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最佳的 最理想的</t>
+    <rPh sb="0" eb="1">
+      <t>zui'jia</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zui'li'x</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持 从军</t>
+    <rPh sb="0" eb="1">
+      <t>zh'chi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cong'jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>archive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>archive Material</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">stream </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mountain stream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ascertain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imperative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imperative tone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insulate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>artery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stitch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>catalogue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>innate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>library catalogue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>donate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exaggerate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夸大</t>
+    <rPh sb="0" eb="1">
+      <t>kua'da</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscribe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>档案</t>
+    <rPh sb="0" eb="1">
+      <t>dang'an</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>档案资料</t>
+    <rPh sb="0" eb="1">
+      <t>dang'an'zi'liao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流动 溪流</t>
+    <rPh sb="0" eb="1">
+      <t>liu'dong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xi'liu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山涧</t>
+    <rPh sb="0" eb="1">
+      <t>shan'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定 查明</t>
+    <rPh sb="0" eb="1">
+      <t>que'ding</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cha'ming</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令 必要的是</t>
+    <rPh sb="0" eb="1">
+      <t>ming'l</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bi'yao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令的语调</t>
+    <rPh sb="0" eb="1">
+      <t>ming'l</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yu'diao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔离 使绝缘</t>
+    <rPh sb="0" eb="1">
+      <t>ge'li</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jue'yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动脉 主流 干道</t>
+    <rPh sb="0" eb="1">
+      <t>dong'mai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhu'liu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gan'dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一针 缝合</t>
+    <rPh sb="0" eb="1">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zhen</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>feng'he</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录</t>
+    <rPh sb="0" eb="1">
+      <t>mu'lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图书馆目录</t>
+    <rPh sb="0" eb="1">
+      <t>tu'shu'g</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mu'lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先天的</t>
+    <rPh sb="0" eb="1">
+      <t>xian'tian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>innate ability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天生的才能</t>
+    <rPh sb="0" eb="1">
+      <t>tian'sheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cai'eng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捐赠</t>
+    <rPh sb="0" eb="1">
+      <t>juan'zeng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彗星</t>
+    <rPh sb="0" eb="1">
+      <t>hui'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小巷 航线 车道</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'xiang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hang'xian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>che'dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订阅 签署 认购</t>
+    <rPh sb="0" eb="1">
+      <t>ding'yue</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qian'shu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ren'gou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prehistoric</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compulsory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authentic module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verdict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reach a verdict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>execution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unpredictable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gauge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fuel gauge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accumulate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accumulate  a fortune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to provide a template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reserve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scrap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hydrogen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supplement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史前的</t>
+    <rPh sb="0" eb="1">
+      <t>shi'qian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>义务的 强制的 必修的</t>
+    <rPh sb="0" eb="1">
+      <t>yi'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qiang'hzi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bi'xiu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compulsory education</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>义务教育</t>
+    <rPh sb="0" eb="1">
+      <t>yi'wu'jao'yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authentic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真正的 真实的</t>
+    <rPh sb="0" eb="1">
+      <t>zhen'zheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhen'shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真实的模型</t>
+    <rPh sb="0" eb="1">
+      <t>zhen'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mo'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结论 裁定</t>
+    <rPh sb="0" eb="1">
+      <t>jie'lun</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cai'ding</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做出裁决</t>
+    <rPh sb="0" eb="1">
+      <t>zuo'chu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cai'jue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反转 颠倒「倒杯子」</t>
+    <rPh sb="0" eb="1">
+      <t>fan'zhuan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dian'dao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bei'zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行 实行</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'x</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>predict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测</t>
+    <rPh sb="0" eb="1">
+      <t>yu'ce</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可预测的</t>
+    <rPh sb="0" eb="1">
+      <t>bu'ke'yu'ce</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测量 测量器</t>
+    <rPh sb="0" eb="1">
+      <t>ce'liang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ce'liang'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽油量表</t>
+    <rPh sb="0" eb="1">
+      <t>qi'you</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>liang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积累 集聚</t>
+    <rPh sb="0" eb="1">
+      <t>ji'lei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ji'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积累财富</t>
+    <rPh sb="0" eb="1">
+      <t>ji'lei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cai'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样板</t>
+    <rPh sb="0" eb="1">
+      <t>yang'ban</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供模板</t>
+    <rPh sb="0" eb="1">
+      <t>ti'gong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mu'ban</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>储备 保留 预定</t>
+    <rPh sb="0" eb="1">
+      <t>chu'bei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bao'liu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yu'ding</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">碎片 </t>
+    <rPh sb="0" eb="1">
+      <t>sui'pian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crumpled scrap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邹巴巴的碎片</t>
+    <rPh sb="0" eb="1">
+      <t>zou'ba'ba</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>sui'pa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>氢</t>
+    <rPh sb="0" eb="1">
+      <t>qing'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充 增补</t>
+    <rPh sb="0" eb="1">
+      <t>bu'chong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zeng'bu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curiosity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好奇 好奇心</t>
+    <rPh sb="0" eb="1">
+      <t>hao'qi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hao'qi'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好奇的</t>
+    <rPh sb="0" eb="1">
+      <t>hao'qi'de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tablet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchandise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impair the intellectual vigor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磨灭思想活力</t>
+    <rPh sb="0" eb="1">
+      <t>mo'mie</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>si'xiang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>huo'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nominate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tropical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热带的</t>
+    <rPh sb="0" eb="1">
+      <t>re'dai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subtropical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚热带的</t>
+    <rPh sb="0" eb="1">
+      <t>ya're'dai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fury</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴怒 狂怒</t>
+    <rPh sb="0" eb="1">
+      <t>bao'nu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>kuang'nu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the fury of the storm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂风暴雨</t>
+    <rPh sb="0" eb="1">
+      <t>kuang'feng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药片 写字板 平板电脑</t>
+    <rPh sb="0" eb="1">
+      <t>yao'pian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xie'zi'babn</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ping'ban'dia'an'o</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品 买卖</t>
+    <rPh sb="0" eb="1">
+      <t>shang'p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mai'mai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>损害 削弱</t>
+    <rPh sb="0" eb="1">
+      <t>sun'hai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xiao'ruo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be nominated for an Oscar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提名奥斯卡</t>
+    <rPh sb="0" eb="1">
+      <t>ti'm</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ao'si'ka</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐 提名</t>
+    <rPh sb="0" eb="1">
+      <t>tui'jian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ti'ming</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">gravity </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重力</t>
+    <rPh sb="0" eb="1">
+      <t>zhong'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>universal gravity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万有引力定律</t>
+    <rPh sb="0" eb="1">
+      <t>wan'you'ying'li</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ding'lv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>artisan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pesticide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工匠 技术</t>
+    <rPh sb="0" eb="1">
+      <t>gong'jiang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ji'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀虫剂</t>
+    <rPh sb="0" eb="1">
+      <t>sha'chong'ji</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5329,7 +10043,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -6377,6 +11091,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -6385,7 +11100,7 @@
   <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -6839,6 +11554,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -6846,8 +11562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -7334,15 +12050,2347 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.1640625" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>811</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B56"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.83203125" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B66"/>
+  <sheetViews>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -7361,35 +14409,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="22" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="42.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -7397,113 +14440,561 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>1243</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.83203125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="22" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.83203125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="22" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.83203125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="22" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8020,7 +15511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>

--- a/雅思核心词汇精讲精练.xlsx
+++ b/雅思核心词汇精讲精练.xlsx
@@ -9,29 +9,35 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" firstSheet="3" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="入门-12" sheetId="10" r:id="rId1"/>
-    <sheet name="入门-34" sheetId="9" r:id="rId2"/>
-    <sheet name="入门-56" sheetId="8" r:id="rId3"/>
-    <sheet name="入门-78" sheetId="7" r:id="rId4"/>
-    <sheet name="初-1-2" sheetId="5" r:id="rId5"/>
-    <sheet name="初-3-4" sheetId="6" r:id="rId6"/>
-    <sheet name="初-21" sheetId="16" r:id="rId7"/>
-    <sheet name="初-22" sheetId="1" r:id="rId8"/>
-    <sheet name="初-23" sheetId="2" r:id="rId9"/>
-    <sheet name="初-24" sheetId="4" r:id="rId10"/>
-    <sheet name="初-25" sheetId="11" r:id="rId11"/>
-    <sheet name="初-26" sheetId="13" r:id="rId12"/>
-    <sheet name="中-1" sheetId="14" r:id="rId13"/>
-    <sheet name="中-2" sheetId="15" r:id="rId14"/>
-    <sheet name="中-3" sheetId="27" r:id="rId15"/>
-    <sheet name="中-4" sheetId="28" r:id="rId16"/>
-    <sheet name="中-5" sheetId="29" r:id="rId17"/>
-    <sheet name="中-6" sheetId="30" r:id="rId18"/>
-    <sheet name="中-7" sheetId="32" r:id="rId19"/>
-    <sheet name="中-8" sheetId="33" r:id="rId20"/>
+    <sheet name="记忆法" sheetId="40" r:id="rId1"/>
+    <sheet name="入门-12" sheetId="10" r:id="rId2"/>
+    <sheet name="入门-34" sheetId="9" r:id="rId3"/>
+    <sheet name="入门-56" sheetId="8" r:id="rId4"/>
+    <sheet name="入门-78" sheetId="7" r:id="rId5"/>
+    <sheet name="初-1-2" sheetId="5" r:id="rId6"/>
+    <sheet name="初-3-4" sheetId="6" r:id="rId7"/>
+    <sheet name="初-21" sheetId="16" r:id="rId8"/>
+    <sheet name="初-22" sheetId="1" r:id="rId9"/>
+    <sheet name="初-23" sheetId="2" r:id="rId10"/>
+    <sheet name="初-24" sheetId="4" r:id="rId11"/>
+    <sheet name="初-25" sheetId="11" r:id="rId12"/>
+    <sheet name="初-26" sheetId="13" r:id="rId13"/>
+    <sheet name="中-1" sheetId="14" r:id="rId14"/>
+    <sheet name="中-2" sheetId="15" r:id="rId15"/>
+    <sheet name="中-3" sheetId="27" r:id="rId16"/>
+    <sheet name="中-4" sheetId="28" r:id="rId17"/>
+    <sheet name="中-5" sheetId="29" r:id="rId18"/>
+    <sheet name="中-6" sheetId="30" r:id="rId19"/>
+    <sheet name="中-7" sheetId="32" r:id="rId20"/>
+    <sheet name="中-8" sheetId="33" r:id="rId21"/>
+    <sheet name="中-9" sheetId="35" r:id="rId22"/>
+    <sheet name="中-10" sheetId="36" r:id="rId23"/>
+    <sheet name="中-11" sheetId="37" r:id="rId24"/>
+    <sheet name="中-12" sheetId="38" r:id="rId25"/>
+    <sheet name="高-1" sheetId="39" r:id="rId26"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -46,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="1371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="1959">
   <si>
     <t>portrait</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9707,6 +9713,4618 @@
     <t>杀虫剂</t>
     <rPh sb="0" eb="1">
       <t>sha'chong'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chronic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chronic lung disease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interpersonal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interpersonal skills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>revise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>revision of policy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prompt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prompt treatment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>correspond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enforce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to enforce the law</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>symphony</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beethoven's Fifth Symphony</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intuitin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a strand of hair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢性的</t>
+    <rPh sb="0" eb="1">
+      <t>man'xing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢性肺病</t>
+    <rPh sb="0" eb="1">
+      <t>man'x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fei'bing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟 愤怒</t>
+    <rPh sb="0" eb="1">
+      <t>yan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen'nu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明显的 不同的</t>
+    <rPh sb="0" eb="1">
+      <t>ming'xian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bu'tong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人际的</t>
+    <rPh sb="0" eb="1">
+      <t>ren'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人际交往技巧</t>
+    <rPh sb="0" eb="1">
+      <t>ren'ji'jiao'w'j'q</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修订 复习 校订</t>
+    <rPh sb="0" eb="1">
+      <t>xiu'ding</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fu'xi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jiao'ding</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策改革</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'ce</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gai'ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迅速的 敏捷的</t>
+    <rPh sb="0" eb="1">
+      <t>xun'su</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>min'jie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即治疗</t>
+    <rPh sb="0" eb="1">
+      <t>li'ji'zhi'liao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符合 一致 通信</t>
+    <rPh sb="0" eb="1">
+      <t>fu'he</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yi'zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tong'xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实施 执行 强制</t>
+    <rPh sb="0" eb="1">
+      <t>shi'shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhi'x</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qiang'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执法</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交响乐 和声</t>
+    <rPh sb="0" eb="1">
+      <t>jiao'xiang'yue</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>he'sheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝多芬的第五交响曲</t>
+    <rPh sb="0" eb="1">
+      <t>bei'duo'f</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>di'wu'jiao'xiang'qu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直觉 直觉的知识</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'jue</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhi'jue</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>d</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培养 养育 抚育</t>
+    <rPh sb="0" eb="1">
+      <t>pei'yang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yang'yu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fu'yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线 串</t>
+    <rPh sb="0" eb="1">
+      <t>xian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一戳头发</t>
+    <rPh sb="0" eb="1">
+      <t>yi'chuo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tou'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sanction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fracture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制裁 处罚 批准 认可</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'cai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chu'fa</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>pi'zhun</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ren'ke</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破裂 断裂</t>
+    <rPh sb="0" eb="1">
+      <t>po'lie</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>duan'lie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obscure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昏暗的 不清楚的</t>
+    <rPh sb="0" eb="1">
+      <t>hu'nan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bu'qing'chu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eminent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杰出的 有名的明显的</t>
+    <rPh sb="0" eb="1">
+      <t>jie'chu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>you'ming</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ming'xian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>an eminent scientist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个杰出的科学家</t>
+    <rPh sb="0" eb="1">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'chu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>d</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ke'xue'jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合唱队</t>
+    <rPh sb="0" eb="1">
+      <t>he'chang'dui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小巷</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>architect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑师 创造者</t>
+    <rPh sb="0" eb="1">
+      <t>jian'zhu'shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chuang'zao'zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">landscape architect </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>园林设计师</t>
+    <rPh sb="0" eb="1">
+      <t>yuan'lin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>she'ji'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mansion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>府邸 大厦</t>
+    <rPh sb="0" eb="1">
+      <t>fu'di</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>da'sha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>afflict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折磨 使烦恼</t>
+    <rPh sb="0" eb="1">
+      <t>zhe'mo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fan'nao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scatter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分散 撒开</t>
+    <rPh sb="0" eb="1">
+      <t>fen'san</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>sa'kai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支配 统治</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'pei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tong'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confusion reigned about…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…陷入了混乱{混乱支配了...}</t>
+    <rPh sb="4" eb="5">
+      <t>hun'luan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>hun'luan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhi'pei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desolate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荒凉的  使荒凉</t>
+    <rPh sb="0" eb="1">
+      <t>huang'liang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>huang'liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hierarchy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">阶级 </t>
+    <rPh sb="0" eb="1">
+      <t>jie'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the social hierarchy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会等级制度</t>
+    <rPh sb="0" eb="1">
+      <t>she'hui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>deng'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appraisal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评估 估价 估计</t>
+    <rPh sb="0" eb="1">
+      <t>ping'gu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gu'jia</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gu'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>metropolitan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大都市的</t>
+    <rPh sb="0" eb="1">
+      <t>da'du'shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prosper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>繁荣 昌盛</t>
+    <rPh sb="0" eb="1">
+      <t>fan'rong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chang'sheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perplex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使困惑</t>
+    <rPh sb="0" eb="1">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>kun'huo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a perplexing problem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>令人不解的问题</t>
+    <rPh sb="0" eb="1">
+      <t>ling're</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu'jie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>d</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wen'ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞跃 跳跃</t>
+    <rPh sb="0" eb="1">
+      <t>fei'yue</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tiao'yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to leap into the river</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳入河中</t>
+    <rPh sb="0" eb="1">
+      <t>tiao'ru</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>he'zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>propound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提出 提议</t>
+    <rPh sb="0" eb="1">
+      <t>ti'chu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ti'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the theory is propounded by…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个理论由…提出</t>
+    <rPh sb="0" eb="1">
+      <t>zhe'ge</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>li'lun</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>you</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tournament</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞标赛 比赛</t>
+    <rPh sb="0" eb="1">
+      <t>jing'biao'sai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bi'sai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示 意味 预示</t>
+    <rPh sb="0" eb="1">
+      <t>biao'shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yi'wei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yu'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to signify a radical change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表明一个根本的变化</t>
+    <rPh sb="0" eb="1">
+      <t>biao'ming</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>geng'ben</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>biabn'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>antibody</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗体</t>
+    <rPh sb="0" eb="1">
+      <t>kang'ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mechanical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械的 力学的</t>
+    <rPh sb="0" eb="1">
+      <t>ji'xie</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>li'xue</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">分离 拆卸 </t>
+    <rPh sb="0" eb="1">
+      <t>fen'li</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chai'xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撕下来并保存好</t>
+    <rPh sb="0" eb="1">
+      <t>si'xia'lai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bao'cun'hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detach this part and keep it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>substitute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>替代品 替代</t>
+    <rPh sb="0" eb="1">
+      <t>ti'dai'p</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ti'dai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ignite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点燃 使燃烧</t>
+    <rPh sb="0" eb="1">
+      <t>dian'ran</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ran'shao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depletion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗 损耗</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'hao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>sun'hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ozone depletion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臭氧消耗</t>
+    <rPh sb="0" eb="1">
+      <t>chou'yang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiao'hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pursue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追求</t>
+    <rPh sb="0" eb="1">
+      <t>zhui'qiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pursue one's own interests</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追求某人自己的爱好</t>
+    <rPh sb="0" eb="1">
+      <t>zhui'qiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mou'r</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zi'ji</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ai'hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noteworthy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值得注意的 显著的</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'de'zhu'yi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xian'zhu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noteworthy achievement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显著的成就</t>
+    <rPh sb="0" eb="1">
+      <t>xian'zhu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cheng'jiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挫折 退步</t>
+    <rPh sb="0" eb="1">
+      <t>cuo'zhe</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tui'bu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>archaeology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考古学</t>
+    <rPh sb="0" eb="1">
+      <t>kao'gu'xue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>archaeology excavation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考古挖掘</t>
+    <rPh sb="0" eb="1">
+      <t>kao'gu'wa'jue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>archaeology evidence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考古实证</t>
+    <rPh sb="0" eb="1">
+      <t>kao'gu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'zheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>precede</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在…之前</t>
+    <rPh sb="0" eb="1">
+      <t>zai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the years preceding the war</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战前的几年</t>
+    <rPh sb="0" eb="1">
+      <t>zhan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ji'nian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bewilder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使迷惑</t>
+    <rPh sb="0" eb="1">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>mi'huo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bewildered look</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困惑的样子</t>
+    <rPh sb="0" eb="1">
+      <t>kun'huo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yang'zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>immerse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉浸</t>
+    <rPh sb="0" eb="1">
+      <t>chen'jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉浸于…</t>
+    <rPh sb="0" eb="1">
+      <t>chen'jin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to be immersed in…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>synthetic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合的 合成的人造的</t>
+    <rPh sb="0" eb="1">
+      <t>zong'he</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>he'c</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ren'zao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parallel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parallel line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平行线</t>
+    <rPh sb="0" eb="1">
+      <t>ping'x'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平行的 平行 类似的</t>
+    <rPh sb="0" eb="1">
+      <t>ping'x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ping'x</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>lei'si</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>precaution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预警 预防</t>
+    <rPh sb="0" eb="1">
+      <t>yu'jing</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yu'fang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>safety precaution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全防范措施</t>
+    <rPh sb="0" eb="1">
+      <t>an'q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fang'fan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chuo'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pragmatic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际的</t>
+    <rPh sb="0" eb="1">
+      <t>shi'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pragmatic approach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>务实的做法</t>
+    <rPh sb="0" eb="1">
+      <t>wu'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zuo'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redundant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多余的 过剩的</t>
+    <rPh sb="0" eb="1">
+      <t>duo'yu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>guo'sheng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the skills are redundant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这些技术是多余的</t>
+    <rPh sb="0" eb="1">
+      <t>zhe'xie</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>duo'yu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elicit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引出 引起</t>
+    <rPh sb="0" eb="1">
+      <t>yin'chu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yin'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to elicit a gentle smile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使人微笑</t>
+    <rPh sb="0" eb="1">
+      <t>shi'ren</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei'xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留住 耽搁 拘留</t>
+    <rPh sb="0" eb="1">
+      <t>liu'zhu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dan'ge</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ju'liu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被拘留</t>
+    <rPh sb="0" eb="1">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ju'liu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to be detained</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>friction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩擦力</t>
+    <rPh sb="0" eb="1">
+      <t>mo'ca'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demographic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人口统计学的</t>
+    <rPh sb="0" eb="1">
+      <t>ren'kou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tong'j'xue</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人口统计学</t>
+    <rPh sb="0" eb="1">
+      <t>ren'kou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tong'ji'xue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the demographic transition theory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人口过渡理论</t>
+    <rPh sb="0" eb="1">
+      <t>ren'kou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guo'du</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>li'lun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assumption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假定 设想</t>
+    <rPh sb="0" eb="1">
+      <t>jia'ding</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>she'xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼓掌 欢呼 喝彩</t>
+    <rPh sb="0" eb="1">
+      <t>gu'zhang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>huan'hu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>he'cai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entwine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缠绕 盘绕</t>
+    <rPh sb="0" eb="1">
+      <t>chan'rao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>pan'rao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disprove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反驳 证明..虚假</t>
+    <rPh sb="0" eb="1">
+      <t>fan'bo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zheng'm</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xu'jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>byproduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副产品</t>
+    <rPh sb="0" eb="1">
+      <t>fu'chan'p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>engender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引起 产生</t>
+    <rPh sb="0" eb="1">
+      <t>yin'qi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chan's</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to engender a sense of achievement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产生成就感</t>
+    <rPh sb="0" eb="1">
+      <t>chan's</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cheng'jiu'gan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collocation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭配 配置</t>
+    <rPh sb="0" eb="1">
+      <t>da'pei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>pei'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the basic notion of collocation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭配的基本概念</t>
+    <rPh sb="0" eb="1">
+      <t>da'pei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ji'ben</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gai'nain</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glossary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>术语表 词汇表</t>
+    <rPh sb="0" eb="1">
+      <t>shu'yu'biao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ci'hui'biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contaminate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>污染 弄脏</t>
+    <rPh sb="0" eb="1">
+      <t>wu'ran</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>long'zang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">contaminate the wound </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沾染伤口</t>
+    <rPh sb="0" eb="1">
+      <t>zhan'ran</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shang'kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>illuminate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阐明 说明</t>
+    <rPh sb="0" eb="1">
+      <t>chan'ming</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shuo'm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>masterpiece</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杰作</t>
+    <rPh sb="0" eb="1">
+      <t>jie'zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paraphrase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释义 意译</t>
+    <rPh sb="0" eb="1">
+      <t>shi'yi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yi'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to paraphrase the contents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解释内容</t>
+    <rPh sb="0" eb="1">
+      <t>jie'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>nei'r</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temprate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温和的 适度的{气温}</t>
+    <rPh sb="0" eb="1">
+      <t>wen'he</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'du</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qi'wen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>despoil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破坏 掠夺 剥夺</t>
+    <rPh sb="0" eb="1">
+      <t>po'huai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>lue'duo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bo'duo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>despoil the countryside</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破坏乡村景致</t>
+    <rPh sb="0" eb="1">
+      <t>po'huai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiang'cun</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jing'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珠子 形成串珠状</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'zi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xing'c</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chuan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhuang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓形 拱形 拱门</t>
+    <rPh sb="0" eb="1">
+      <t>gong'xing</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gong'xing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gong'men</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>masculine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男性的 男子气概的</t>
+    <rPh sb="0" eb="1">
+      <t>nan'x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>nan'zi'qi'gai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>masculine voice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男性化的声音</t>
+    <rPh sb="0" eb="1">
+      <t>nan'x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hua</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>s'yin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diagram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标 图解</t>
+    <rPh sb="0" eb="1">
+      <t>tu'biao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tu'jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>circuit diagram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电路图</t>
+    <rPh sb="0" eb="1">
+      <t>dia'lu'tu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Process diagram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程图</t>
+    <rPh sb="0" eb="1">
+      <t>liu'cheng'tu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获 获得</t>
+    <rPh sb="0" eb="1">
+      <t>shou'huo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>huo'de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reap immense financial rewards</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得巨大的经济回报</t>
+    <rPh sb="0" eb="1">
+      <t>huo'de</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ju'da</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>d</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jing'ji</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>hui'bao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡 毁灭 腐烂</t>
+    <rPh sb="0" eb="1">
+      <t>si'wang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hui'mie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fu'lan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perish the rubber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使橡皮筋腐烂</t>
+    <rPh sb="0" eb="1">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xiang'pi'j</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fu'lan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spacious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽敞的 广阔的</t>
+    <rPh sb="0" eb="1">
+      <t>kuan'chang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>guang'kuo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spacious kitchen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽敞的厨房</t>
+    <rPh sb="0" eb="1">
+      <t>kuan'chang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chu'fang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equivalent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等价的 相等的</t>
+    <rPh sb="0" eb="1">
+      <t>deng'jia</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiang'deng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be equivalent to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相当于</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'dang'yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腰 腰部</t>
+    <rPh sb="0" eb="1">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yao'bu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aisle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">通道 走道 </t>
+    <rPh sb="0" eb="1">
+      <t>tong'dao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zou'dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autonomy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自治 自治权</t>
+    <rPh sb="0" eb="1">
+      <t>zi'zhi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zi'zhi'quan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>align</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使结盟 排列 匹配</t>
+    <rPh sb="0" eb="1">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>jie'meng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pai'lie</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>pi'pei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be aligned with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与..一致</t>
+    <rPh sb="0" eb="1">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yi'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daunt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使气馁</t>
+    <rPh sb="0" eb="1">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>qi'nei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showcase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈列柜</t>
+    <rPh sb="0" eb="1">
+      <t>chen'lie'gui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plateau</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高原 稳定阶段</t>
+    <rPh sb="0" eb="1">
+      <t>gao'yuan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wen'ding</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jie'dua'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to reach to plateau</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达到稳定阶段</t>
+    <rPh sb="0" eb="1">
+      <t>da'dao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wen'din</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie'duan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evaporate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸发 挥发</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'fa</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hui'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suppress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抑制 镇压</t>
+    <rPh sb="0" eb="1">
+      <t>yi'zhi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhen'ya</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quota</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配额 定量</t>
+    <rPh sb="0" eb="1">
+      <t>pei'e</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>din'liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>import quota</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进口量</t>
+    <rPh sb="0" eb="1">
+      <t>jin'kou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值得注意的 著名的</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'de'zhu'yi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhu'ming</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精通 熟练</t>
+    <rPh sb="0" eb="1">
+      <t>jing'tong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shu'lian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic proficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本熟练</t>
+    <rPh sb="0" eb="1">
+      <t>ji'ben</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'lian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>federation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联合 联邦</t>
+    <rPh sb="0" eb="1">
+      <t>lian'he</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>lian'bang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the Russian Federation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俄罗斯联邦</t>
+    <rPh sb="0" eb="1">
+      <t>e'luo'si</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>lian'bang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>erode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侵蚀 腐蚀</t>
+    <rPh sb="0" eb="1">
+      <t>qin'shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fu'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>antibiotic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗体的</t>
+    <rPh sb="0" eb="1">
+      <t>kang'ti</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>antibody</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>terrace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台 阳台 梯田</t>
+    <rPh sb="0" eb="1">
+      <t>ping'tai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yang'tai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ti'tian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屋顶平台</t>
+    <rPh sb="0" eb="1">
+      <t>wu'ding</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ping'tai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华丽的 灿烂的 极好的</t>
+    <rPh sb="0" eb="1">
+      <t>hua'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>can'lan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji'hao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gorgeous mounatain scenery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秀丽的山间景色</t>
+    <rPh sb="0" eb="1">
+      <t>xiu'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shan'jian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jing'se</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjacent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临近的</t>
+    <rPh sb="0" eb="1">
+      <t>lin'jin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运输 经过</t>
+    <rPh sb="0" eb="1">
+      <t>yun'shu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jing'guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金星凌日</t>
+    <rPh sb="0" eb="1">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ling'ri</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roof terrace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gorgeous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Venus in transit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suffice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使满足 合格</t>
+    <rPh sb="0" eb="1">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>man'zu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>he'ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>constrain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱使 强迫</t>
+    <rPh sb="0" eb="1">
+      <t>qu'sahi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qiang'po</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>embed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌入 栽种</t>
+    <rPh sb="0" eb="1">
+      <t>qian'ru</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zai'zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">diversion </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转移 消遣</t>
+    <rPh sb="0" eb="1">
+      <t>zhuan'yi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xiao'qian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>irrigation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灌溉</t>
+    <rPh sb="0" eb="1">
+      <t>guan'gai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>irrigation channels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灌溉渠</t>
+    <rPh sb="0" eb="1">
+      <t>guan'gai'qu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委员会 佣金</t>
+    <rPh sb="0" eb="1">
+      <t>wei'yuan'hui</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yong'jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manifest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表明 证明 明显的</t>
+    <rPh sb="0" eb="1">
+      <t>biao'm</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zheng'm</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ming'xian'de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dissertation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文 专题</t>
+    <rPh sb="0" eb="1">
+      <t>lun'wen</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhuan'ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abbreviation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩写</t>
+    <rPh sb="0" eb="1">
+      <t>suo'xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>optical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光学的 视觉的</t>
+    <rPh sb="0" eb="1">
+      <t>guang'xue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'jue</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>particle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颗粒 质点 粒子</t>
+    <rPh sb="0" eb="1">
+      <t>ke'li</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhi'dian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>li'zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">elementary particle </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本粒子</t>
+    <rPh sb="0" eb="1">
+      <t>ji'ben</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>li'zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>martial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军事的 战争的</t>
+    <rPh sb="0" eb="1">
+      <t>jun'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhan'z</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infrastructure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础设施 公共建设</t>
+    <rPh sb="0" eb="1">
+      <t>ji'chu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>she'shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gong'gong'jian'she</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bundle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>束 捆 捆绑</t>
+    <rPh sb="0" eb="1">
+      <t>shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kun</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>kun'bang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a dundle of benefits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量福利</t>
+    <rPh sb="0" eb="1">
+      <t>da'liang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fu'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>framework</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>框架 结构</t>
+    <rPh sb="0" eb="1">
+      <t>kuang'jia</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jie'gou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dinosaur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐龙</t>
+    <rPh sb="0" eb="1">
+      <t>kong'l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>factual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事实的 真实的</t>
+    <rPh sb="0" eb="1">
+      <t>shi'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhen'shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>underestimate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低估 看轻</t>
+    <rPh sb="0" eb="1">
+      <t>di'gu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>akn'qing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>embarrass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使不安 障碍</t>
+    <rPh sb="0" eb="1">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>bu'an</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhang'ai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to embarrass somebody</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使某人尴尬</t>
+    <rPh sb="0" eb="1">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>mou'r</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gan'ga</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遵守</t>
+    <rPh sb="0" eb="1">
+      <t>zun'shou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to comply with the ceasefire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遵守停火协议</t>
+    <rPh sb="0" eb="1">
+      <t>zun'shou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ting'huo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xie'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rectangular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩形的</t>
+    <rPh sb="0" eb="1">
+      <t>ju'xing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exotic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异国的</t>
+    <rPh sb="0" eb="1">
+      <t>yi'guo'de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线的</t>
+    <rPh sb="0" eb="1">
+      <t>xian</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tunnel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隧道 坑道</t>
+    <rPh sb="0" eb="1">
+      <t>sui'dao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>keng'dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spontaneous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自发的 自然的</t>
+    <rPh sb="0" eb="1">
+      <t>zi'fa</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zi'ran</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spontaneous remission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然地缓解</t>
+    <rPh sb="0" eb="1">
+      <t>zi'ran</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>huan'jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manual workers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力劳动者</t>
+    <rPh sb="0" eb="1">
+      <t>ti'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lao'dong'zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手册 手工的 体力的</t>
+    <rPh sb="0" eb="1">
+      <t>shou'ce</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shou'gong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ti'li</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>erosion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>correlation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关 相互关系</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'g</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xiang'hu'guan'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the correlation between..and..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>..与..的关系</t>
+    <rPh sb="2" eb="3">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>guan'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evoke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引起 唤起</t>
+    <rPh sb="0" eb="1">
+      <t>yin'qi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>huan'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evoke a strong response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引起强烈的反响</t>
+    <rPh sb="0" eb="1">
+      <t>yin'qi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qiang'lie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>d</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fan'xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rationale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本原理 原理</t>
+    <rPh sb="0" eb="1">
+      <t>ji'ben</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yuan'li</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yuan'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rationale behind these exams</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试的理论依据</t>
+    <rPh sb="0" eb="1">
+      <t>ce'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>li'lun'yi'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eligible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合格的</t>
+    <rPh sb="0" eb="1">
+      <t>he'ge</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to be eligible to vote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有投票资格</t>
+    <rPh sb="0" eb="1">
+      <t>you</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>tou'piao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zi'ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instinct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本能 直觉 天性</t>
+    <rPh sb="0" eb="1">
+      <t>ben'neng</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhi'jue</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tian'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a maternal instinct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>母性本能</t>
+    <rPh sb="0" eb="1">
+      <t>mu'xing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ben'n</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重现 循环</t>
+    <rPh sb="0" eb="1">
+      <t>chong'xian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xun'huan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutorial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅导的 家庭教师的</t>
+    <rPh sb="0" eb="1">
+      <t>fu'dao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jia'ting'jiao'shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沼泽 淹没</t>
+    <rPh sb="0" eb="1">
+      <t>zhao'ze</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yan'mo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nourish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滋养 使健壮</t>
+    <rPh sb="0" eb="1">
+      <t>zi'yang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jian'zhuang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duplicate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制 副本</t>
+    <rPh sb="0" eb="1">
+      <t>fu'zhi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fu'ben</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a duplicated form</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制的表格</t>
+    <rPh sb="0" eb="1">
+      <t>fu'zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>biao'ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题 字幕</t>
+    <rPh sb="0" eb="1">
+      <t>biao'ti</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zi'mu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unwind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松开 展开 放松</t>
+    <rPh sb="0" eb="1">
+      <t>song'kai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhan'kai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fang'kai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>song</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a way of unwinding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放松的方法</t>
+    <rPh sb="0" eb="1">
+      <t>fang'song</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fang'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fragile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脆弱的 易碎的</t>
+    <rPh sb="0" eb="1">
+      <t>cui'ruo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yi'sui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fragile political balance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脆弱的政治平衡</t>
+    <rPh sb="0" eb="1">
+      <t>cui'ruo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zheng'zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>png'heng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索 侦查</t>
+    <rPh sb="0" eb="1">
+      <t>sou'suo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhen'cha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>praise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赞美 赞扬</t>
+    <rPh sb="0" eb="1">
+      <t>zan'mei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zan'yang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>songs of praise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颂歌</t>
+    <rPh sb="0" eb="1">
+      <t>song'ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hypnosis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>催眠 催眠状态</t>
+    <rPh sb="0" eb="1">
+      <t>cui'mian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cui'mian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhuang'tai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>under hypnosis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在催眠状态下</t>
+    <rPh sb="0" eb="1">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>cui'mian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhuang't'qi'xia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一批 分批处理</t>
+    <rPh sb="0" eb="1">
+      <t>yi'pi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fen'pi'chu'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">a batch of students </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一批学生</t>
+    <rPh sb="0" eb="1">
+      <t>yi'pi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xue's</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>synthesis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合 合成</t>
+    <rPh sb="0" eb="1">
+      <t>zong'he</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>he'cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>synthetic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成的 人造的</t>
+    <rPh sb="0" eb="1">
+      <t>he'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ren'zao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protein synthesis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋白质合成</t>
+    <rPh sb="0" eb="1">
+      <t>dan'bai'zhi'he'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expenditure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支出 经费</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'chu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jing'fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public expenditure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共开支</t>
+    <rPh sb="0" eb="1">
+      <t>gog'gong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kai'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滋味 风味</t>
+    <rPh sb="0" eb="1">
+      <t>zi'wei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>feng'wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enclose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>围绕 装入</t>
+    <rPh sb="0" eb="1">
+      <t>wei'rao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhuang'ru</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deploy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置 展开 部署</t>
+    <rPh sb="0" eb="1">
+      <t>pei'zhi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhan'kai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bu'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000 missiles are deployed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署1000枚导弹</t>
+    <rPh sb="0" eb="1">
+      <t>bu'shu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>mei</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dao'dan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alien</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外国的 外星人</t>
+    <rPh sb="0" eb="1">
+      <t>wai'guo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wai'x'r</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instalment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分期付款</t>
+    <rPh sb="0" eb="1">
+      <t>fen'qi'ku'k</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fu'kuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a contract of 3 years duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三年期的合同</t>
+    <rPh sb="0" eb="1">
+      <t>san'ian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>he't</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>constituent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成分 选举的</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'f</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xuan'ju</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the active constituent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活性成分</t>
+    <rPh sb="0" eb="1">
+      <t>huo'xing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cheng'f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>validity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效性 正确性</t>
+    <rPh sb="0" eb="1">
+      <t>you'xiao'x</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zheng'que'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合法的</t>
+    <rPh sb="0" eb="1">
+      <t>he'fa</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>permanent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久的 永恒的</t>
+    <rPh sb="0" eb="1">
+      <t>yong'jiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yong'heng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a permanent job</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一份固定的工作</t>
+    <rPh sb="0" eb="1">
+      <t>yi'f</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gu'd</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>d</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gong'zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterlight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水密的 不漏水的</t>
+    <rPh sb="0" eb="1">
+      <t>shui'mi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bu'lou'shui</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterlight container</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防水容器</t>
+    <rPh sb="0" eb="1">
+      <t>fang'shui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>rong'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minimal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低的 最小限度的</t>
+    <rPh sb="0" eb="1">
+      <t>zui'di</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zui'xioa'xian'du</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coherent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连贯的 一致的</t>
+    <rPh sb="0" eb="1">
+      <t>lian'guan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yi'zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coherent narrative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连贯地叙述</t>
+    <rPh sb="0" eb="1">
+      <t>lian'guan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xu'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nurture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>养育 鼓励 培育</t>
+    <rPh sb="0" eb="1">
+      <t>yang'yu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gu'li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>pei'yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nature  or nurture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先天还是后天</t>
+    <rPh sb="0" eb="1">
+      <t>xian'tian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hai'shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hou'tian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testimony</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证词</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false testimony</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伪证</t>
+    <rPh sb="0" eb="1">
+      <t>wei'zheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>provision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规定</t>
+    <rPh sb="0" eb="1">
+      <t>gui'ding</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>provide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供</t>
+    <rPh sb="0" eb="1">
+      <t>ti'gong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aviation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航空 飞行术</t>
+    <rPh sb="0" eb="1">
+      <t>hang'kong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fei'x</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>civil aviation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民用航空</t>
+    <rPh sb="0" eb="1">
+      <t>ming'yong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hang'k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>military aviation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军用航空</t>
+    <rPh sb="0" eb="1">
+      <t>jun'yuong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hang'k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引起 援引</t>
+    <rPh sb="0" eb="1">
+      <t>yin'qi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yuan'yin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>generous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慷慨的 大方的</t>
+    <rPh sb="0" eb="1">
+      <t>kang'kai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>da'fang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empathy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同感 同理心</t>
+    <rPh sb="0" eb="1">
+      <t>tong'gan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tong'li'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提取 摘录</t>
+    <rPh sb="0" eb="1">
+      <t>ti'qu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhai'lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mechanism</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">机制 原理 </t>
+    <rPh sb="0" eb="1">
+      <t>ji'zhi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yuan'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keep cognitive mechanism sharp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保持认知机制的灵敏</t>
+    <rPh sb="0" eb="1">
+      <t>bao'chi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ren'zhi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji'zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ling'm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推论 推断</t>
+    <rPh sb="0" eb="1">
+      <t>tui'lun</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tui'duan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>propose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议 打算 计划</t>
+    <rPh sb="0" eb="1">
+      <t>jian'yi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>da'suan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ji'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to propose marriage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求婚</t>
+    <rPh sb="0" eb="1">
+      <t>qiu'hun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perimeter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周长 边缘</t>
+    <rPh sb="0" eb="1">
+      <t>zhou'c</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bian'yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>predation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕食 掠夺</t>
+    <rPh sb="0" eb="1">
+      <t>bu'shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>lue'duo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spectacular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壮观的 惊人的</t>
+    <rPh sb="0" eb="1">
+      <t>zhuang'guan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jing'r</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spectacular scenery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壮丽的景色</t>
+    <rPh sb="0" eb="1">
+      <t>zhuang'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jing'se</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mercury</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水银 温度计</t>
+    <rPh sb="0" eb="1">
+      <t>shui'yin</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wen'du'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>constitute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组成 构成</t>
+    <rPh sb="0" eb="1">
+      <t>zu'c</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gou'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>码头 船坞</t>
+    <rPh sb="0" eb="1">
+      <t>ma'tou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chuan'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dock workers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>码头工人</t>
+    <rPh sb="0" eb="1">
+      <t>ma't</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gong'r</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assimilation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliberate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故意的</t>
+    <rPh sb="0" eb="1">
+      <t>gu'yi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同化 吸收</t>
+    <rPh sb="0" eb="1">
+      <t>tong'hua</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xi'shou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assimilate the ideas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸收观点</t>
+    <rPh sb="0" eb="1">
+      <t>xi'shou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guan'dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arena</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舞台 竞技场</t>
+    <rPh sb="0" eb="1">
+      <t>wu'tai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jing'ji'chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paralyse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘫痪 麻痹</t>
+    <rPh sb="0" eb="1">
+      <t>tan'huan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ma'bi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>encompass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指南针</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'nan'z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>embark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从事 着手</t>
+    <rPh sb="0" eb="1">
+      <t>cong'shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhuo'shou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">to embark on new carrerrs </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从事新的事业</t>
+    <rPh sb="0" eb="1">
+      <t>cong'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>d</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'ye</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方程式</t>
+    <rPh sb="0" eb="1">
+      <t>fang'cheng'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pedestrain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行人</t>
+    <rPh sb="0" eb="1">
+      <t>xing'r</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pedestrian areas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步行区</t>
+    <rPh sb="0" eb="1">
+      <t>bu'xing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>predecessor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前任 前辈</t>
+    <rPh sb="0" eb="1">
+      <t>qian'r</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qian'bei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>predecessor task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前驱任务</t>
+    <rPh sb="0" eb="1">
+      <t>qian'qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ren'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>holistic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体的</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'ti</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recede</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后退 撤回 减弱</t>
+    <rPh sb="0" eb="1">
+      <t>hou'tui</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>che'hui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jian'ruo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stationery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文具 信纸</t>
+    <rPh sb="0" eb="1">
+      <t>wen'ju</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xin'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>furnace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火炉 熔炉</t>
+    <rPh sb="0" eb="1">
+      <t>huo'lu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>rong'lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commercial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业的 贸易的</t>
+    <rPh sb="0" eb="1">
+      <t>shang'ye</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mao'yi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commercial activity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业活动</t>
+    <rPh sb="0" eb="1">
+      <t>shang'ye</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>huo'dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suspense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悬念 悬而不决</t>
+    <rPh sb="0" eb="1">
+      <t>xuan'nian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xuan'er'bu'jue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deprive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使丧失 剥夺</t>
+    <rPh sb="0" eb="1">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>sang'shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bo'duo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deprive our rights</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剥夺我们的权利</t>
+    <rPh sb="0" eb="1">
+      <t>bo'duo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wo'men</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>d</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>quan'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抛弃</t>
+    <rPh sb="0" eb="1">
+      <t>pao'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discarded newspapers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丢弃的报纸</t>
+    <rPh sb="0" eb="1">
+      <t>diu'qi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bao'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bland</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乏味的</t>
+    <rPh sb="0" eb="1">
+      <t>fa'wei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>catastrophe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大灾难 大祸</t>
+    <rPh sb="0" eb="1">
+      <t>da'zai'nan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>da'huo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rectify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改正 矫正</t>
+    <rPh sb="0" eb="1">
+      <t>gai'zheng</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jiao'zheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to rectify a fault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改正错误</t>
+    <rPh sb="0" eb="1">
+      <t>gai'z</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cuo'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List-Days1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List-Days2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List-Days3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List-Days4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List-Days5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List-Days6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List-Days8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List-Days7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背诵</t>
+    <rPh sb="0" eb="1">
+      <t>bei'song</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据单词书上的把2600个词分成8-Days的量
+复习周期遵循0.5、1、2、4、8天</t>
+    <rPh sb="0" eb="1">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dan'ci'shu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ba</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ci</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>fen'c</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>de</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>liang</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>fu'xi</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>zhou'iq</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>zun'xun</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>tian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习</t>
+    <rPh sb="0" eb="1">
+      <t>fu'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">背诵 </t>
+    <rPh sb="0" eb="1">
+      <t>bei's</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背诵</t>
+    <rPh sb="0" eb="1">
+      <t>bei's</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大测试  把认识的 词都挑出来 制作一个文件副本 然后删除认识的单词</t>
+    <rPh sb="0" eb="1">
+      <t>da'ce'shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ba'ren'shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>d</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ci</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>dou</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>tiao'chu'lai</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>zhi'zuo</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ig'e</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>wen'jian</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>fu'ben</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ran'hou</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>shan'chu</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ren'shi</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>d</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>dan'ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List-Night</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">快速过 </t>
+    <rPh sb="0" eb="1">
+      <t>kuai'su</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guo</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -9715,7 +14333,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -9733,6 +14351,14 @@
     </font>
     <font>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <family val="2"/>
@@ -9760,9 +14386,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -10040,10 +14678,297 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>1952</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" ht="23" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>1943</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1944</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1945</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>1946</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>1947</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>1948</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>1950</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>1949</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="23" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>1953</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>1953</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>1953</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="23" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>1954</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>1953</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>1953</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="23" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>1953</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1955</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>1953</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="23" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>1953</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>1953</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>1955</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5" t="s">
+        <v>1953</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="23" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>1953</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>1953</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>1955</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="23" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>1953</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>1953</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>1953</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>1955</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="23" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>1953</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>1953</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>1953</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>1954</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>1953</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>1953</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>1953</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>1955</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="23" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B11:I11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -10062,9 +14987,316 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>240</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -10073,7 +15305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B39"/>
   <sheetViews>
@@ -10408,7 +15640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B38"/>
   <sheetViews>
@@ -10735,7 +15967,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B42"/>
   <sheetViews>
@@ -11095,7 +16327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B55"/>
   <sheetViews>
@@ -11558,7 +16790,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B59"/>
   <sheetViews>
@@ -12054,7 +17286,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B53"/>
   <sheetViews>
@@ -12498,7 +17730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B56"/>
   <sheetViews>
@@ -12946,7 +18178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B55"/>
   <sheetViews>
@@ -13386,7 +18618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B55"/>
   <sheetViews>
@@ -13834,7 +19066,42 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFF0000"/>
@@ -14385,7 +19652,3453 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="42.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B73"/>
+  <sheetViews>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="42.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B79"/>
+  <sheetViews>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="51.1640625" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B79"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="51.1640625" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B80"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="51.1640625" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+    </row>
+    <row r="74" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B80"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="51.1640625" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+    </row>
+    <row r="74" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -14415,594 +23128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B73"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="42.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>1249</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>1240</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>1241</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>1242</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>1244</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>1246</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>1258</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>1259</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>1261</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>1262</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>1263</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>1267</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>1268</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>1270</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>1269</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>1290</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>1271</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>1272</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>1274</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>1275</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>1276</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>1296</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>1297</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>1316</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>1318</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>1298</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>1299</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>1301</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>1302</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>1303</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>1325</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>1304</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>1305</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>1306</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>1308</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>1311</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>1336</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>1312</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>1313</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>1340</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>1344</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>1345</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>1346</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>1348</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>1360</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>1351</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>1353</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>1355</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>1363</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>1365</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>1367</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-    </row>
-    <row r="70" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-    </row>
-    <row r="71" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-    </row>
-    <row r="72" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-    </row>
-    <row r="73" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -15037,7 +23163,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -15067,7 +23193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -15102,7 +23228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -15132,7 +23258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B44"/>
   <sheetViews>
@@ -15507,7 +23633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B45"/>
   <sheetViews>
@@ -15887,346 +24013,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.83203125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="22" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/雅思核心词汇精讲精练.xlsx
+++ b/雅思核心词汇精讲精练.xlsx
@@ -5,37 +5,38 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liqiang/doc/20.PhD/worlds/WordsSort/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liqiang/Desktop/WordsSort/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" tabRatio="500" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="记忆法" sheetId="40" r:id="rId1"/>
     <sheet name="入门-1234" sheetId="10" r:id="rId2"/>
     <sheet name="入门-5678" sheetId="9" r:id="rId3"/>
-    <sheet name="初-1-2" sheetId="5" r:id="rId4"/>
-    <sheet name="初-3-4" sheetId="6" r:id="rId5"/>
-    <sheet name="初-21" sheetId="16" r:id="rId6"/>
-    <sheet name="初-22" sheetId="1" r:id="rId7"/>
-    <sheet name="初-23" sheetId="2" r:id="rId8"/>
-    <sheet name="初-24" sheetId="4" r:id="rId9"/>
-    <sheet name="初-25" sheetId="11" r:id="rId10"/>
-    <sheet name="初-26" sheetId="13" r:id="rId11"/>
-    <sheet name="中-1" sheetId="14" r:id="rId12"/>
-    <sheet name="中-2" sheetId="15" r:id="rId13"/>
-    <sheet name="中-3" sheetId="27" r:id="rId14"/>
-    <sheet name="中-4" sheetId="28" r:id="rId15"/>
-    <sheet name="中-5" sheetId="29" r:id="rId16"/>
-    <sheet name="中-6" sheetId="30" r:id="rId17"/>
-    <sheet name="中-7" sheetId="32" r:id="rId18"/>
-    <sheet name="中-8" sheetId="33" r:id="rId19"/>
-    <sheet name="中-9" sheetId="35" r:id="rId20"/>
-    <sheet name="中-10" sheetId="36" r:id="rId21"/>
-    <sheet name="中-11" sheetId="37" r:id="rId22"/>
-    <sheet name="中-12" sheetId="38" r:id="rId23"/>
-    <sheet name="高-1" sheetId="39" r:id="rId24"/>
+    <sheet name="初-12" sheetId="41" r:id="rId4"/>
+    <sheet name="初-34" sheetId="42" r:id="rId5"/>
+    <sheet name="初-56" sheetId="43" r:id="rId6"/>
+    <sheet name="初-21" sheetId="16" r:id="rId7"/>
+    <sheet name="初-22" sheetId="1" r:id="rId8"/>
+    <sheet name="初-23" sheetId="2" r:id="rId9"/>
+    <sheet name="初-24" sheetId="4" r:id="rId10"/>
+    <sheet name="初-25" sheetId="11" r:id="rId11"/>
+    <sheet name="初-26" sheetId="13" r:id="rId12"/>
+    <sheet name="中-1" sheetId="14" r:id="rId13"/>
+    <sheet name="中-2" sheetId="15" r:id="rId14"/>
+    <sheet name="中-3" sheetId="27" r:id="rId15"/>
+    <sheet name="中-4" sheetId="28" r:id="rId16"/>
+    <sheet name="中-5" sheetId="29" r:id="rId17"/>
+    <sheet name="中-6" sheetId="30" r:id="rId18"/>
+    <sheet name="中-7" sheetId="32" r:id="rId19"/>
+    <sheet name="中-8" sheetId="33" r:id="rId20"/>
+    <sheet name="中-9" sheetId="35" r:id="rId21"/>
+    <sheet name="中-10" sheetId="36" r:id="rId22"/>
+    <sheet name="中-11" sheetId="37" r:id="rId23"/>
+    <sheet name="中-12" sheetId="38" r:id="rId24"/>
+    <sheet name="高-1" sheetId="39" r:id="rId25"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2271" uniqueCount="2175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2751" uniqueCount="2655">
   <si>
     <t>portrait</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -15846,13 +15847,1454 @@
   <si>
     <t>southern accent</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给..着色</t>
+  </si>
+  <si>
+    <t>stain</t>
+  </si>
+  <si>
+    <t>平凡的</t>
+  </si>
+  <si>
+    <t>ordinary</t>
+  </si>
+  <si>
+    <t>了不起的成就</t>
+  </si>
+  <si>
+    <t>extraordinary feat</t>
+  </si>
+  <si>
+    <t>功绩 壮举</t>
+  </si>
+  <si>
+    <t>feat</t>
+  </si>
+  <si>
+    <t>赞助者</t>
+  </si>
+  <si>
+    <t>sponsor</t>
+  </si>
+  <si>
+    <t>象群</t>
+  </si>
+  <si>
+    <t>herds of elephants</t>
+  </si>
+  <si>
+    <t>兽群</t>
+  </si>
+  <si>
+    <t>herd</t>
+  </si>
+  <si>
+    <t>神经细胞</t>
+  </si>
+  <si>
+    <t>nerve cell</t>
+  </si>
+  <si>
+    <t>遥远的</t>
+  </si>
+  <si>
+    <t>remote</t>
+  </si>
+  <si>
+    <t>促进 提升</t>
+  </si>
+  <si>
+    <t>promote</t>
+  </si>
+  <si>
+    <t>从地球上灭亡</t>
+  </si>
+  <si>
+    <t>vanished from the earth</t>
+  </si>
+  <si>
+    <t>消失 消亡</t>
+  </si>
+  <si>
+    <t>vanish</t>
+  </si>
+  <si>
+    <t>one of the leading candidate</t>
+  </si>
+  <si>
+    <t>候选人</t>
+  </si>
+  <si>
+    <t>candidate</t>
+  </si>
+  <si>
+    <t>官方的</t>
+  </si>
+  <si>
+    <t>official</t>
+  </si>
+  <si>
+    <t>同等的人</t>
+  </si>
+  <si>
+    <t>peer</t>
+  </si>
+  <si>
+    <t>部分 一份</t>
+  </si>
+  <si>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>他事业的顶峰</t>
+  </si>
+  <si>
+    <t>the summit of his career</t>
+  </si>
+  <si>
+    <t>与..的约定</t>
+  </si>
+  <si>
+    <t>an appointment with..</t>
+  </si>
+  <si>
+    <t>任命 约定</t>
+  </si>
+  <si>
+    <t>appointment</t>
+  </si>
+  <si>
+    <t>清除贸易障碍</t>
+  </si>
+  <si>
+    <t>the removal of trade barrier</t>
+  </si>
+  <si>
+    <t>障碍物</t>
+  </si>
+  <si>
+    <t>barrier</t>
+  </si>
+  <si>
+    <t>面临压力</t>
+  </si>
+  <si>
+    <t>encounter stress</t>
+  </si>
+  <si>
+    <t>普遍存在 盛行的</t>
+  </si>
+  <si>
+    <t>prevail</t>
+  </si>
+  <si>
+    <t>钙</t>
+  </si>
+  <si>
+    <t>calcium</t>
+  </si>
+  <si>
+    <t>进取心 事业</t>
+  </si>
+  <si>
+    <t>enterprise</t>
+  </si>
+  <si>
+    <t>评论家</t>
+  </si>
+  <si>
+    <t>critic</t>
+  </si>
+  <si>
+    <t>相反的</t>
+  </si>
+  <si>
+    <t>converse</t>
+  </si>
+  <si>
+    <t>把..分成几个类型</t>
+  </si>
+  <si>
+    <t>classify .. Into certain types</t>
+  </si>
+  <si>
+    <t>促进 帮助</t>
+  </si>
+  <si>
+    <t>facilitate</t>
+  </si>
+  <si>
+    <t>可行的计划</t>
+  </si>
+  <si>
+    <t>a feasible plane</t>
+  </si>
+  <si>
+    <t>意外的</t>
+  </si>
+  <si>
+    <t>accident</t>
+  </si>
+  <si>
+    <t>..的发生率</t>
+  </si>
+  <si>
+    <t>incident of</t>
+  </si>
+  <si>
+    <t>青少年</t>
+  </si>
+  <si>
+    <t>adolescent</t>
+  </si>
+  <si>
+    <t>经济危机</t>
+  </si>
+  <si>
+    <t>economic crisis</t>
+  </si>
+  <si>
+    <t>可选择的方式</t>
+  </si>
+  <si>
+    <t>alternative method</t>
+  </si>
+  <si>
+    <t>管理 调节{使..有规律}</t>
+  </si>
+  <si>
+    <t>regulete</t>
+  </si>
+  <si>
+    <t>区分..和..</t>
+  </si>
+  <si>
+    <t>distinguish between..and..</t>
+  </si>
+  <si>
+    <t>杠杆 撬动</t>
+  </si>
+  <si>
+    <t>lever</t>
+  </si>
+  <si>
+    <t>list2</t>
+  </si>
+  <si>
+    <t>局部的 有偏见的</t>
+  </si>
+  <si>
+    <t>partial</t>
+  </si>
+  <si>
+    <t>缩小 收缩</t>
+  </si>
+  <si>
+    <t>shrink</t>
+  </si>
+  <si>
+    <t>哲学 哲理</t>
+  </si>
+  <si>
+    <t>philosophy</t>
+  </si>
+  <si>
+    <t>学期 半年</t>
+  </si>
+  <si>
+    <t>semester</t>
+  </si>
+  <si>
+    <t>提示 暗示</t>
+  </si>
+  <si>
+    <t>cue</t>
+  </si>
+  <si>
+    <t>词汇</t>
+  </si>
+  <si>
+    <t>lexis</t>
+  </si>
+  <si>
+    <t>词汇的 词典的</t>
+  </si>
+  <si>
+    <t>lexical</t>
+  </si>
+  <si>
+    <t>尊重</t>
+  </si>
+  <si>
+    <t>respect</t>
+  </si>
+  <si>
+    <t>各自的 分别的</t>
+  </si>
+  <si>
+    <t>respectively</t>
+  </si>
+  <si>
+    <t>洗衣店 洗衣房</t>
+  </si>
+  <si>
+    <t>laundry</t>
+  </si>
+  <si>
+    <t>the outline of mountain is dim</t>
+  </si>
+  <si>
+    <t>暗淡的 模糊的</t>
+  </si>
+  <si>
+    <t>dim</t>
+  </si>
+  <si>
+    <t>使挫败  使失望</t>
+  </si>
+  <si>
+    <t>frustrate</t>
+  </si>
+  <si>
+    <t>稀缺资源</t>
+  </si>
+  <si>
+    <t>scarce resource</t>
+  </si>
+  <si>
+    <t>指南针</t>
+  </si>
+  <si>
+    <t>compass</t>
+  </si>
+  <si>
+    <t>他们坚持认为..</t>
+  </si>
+  <si>
+    <t>they contend that..</t>
+  </si>
+  <si>
+    <t>新的证据出现</t>
+  </si>
+  <si>
+    <t>new evidence emerged</t>
+  </si>
+  <si>
+    <t>紧急的</t>
+  </si>
+  <si>
+    <t>emergent</t>
+  </si>
+  <si>
+    <t>极小的一部分</t>
+  </si>
+  <si>
+    <t>a tiny fraction</t>
+  </si>
+  <si>
+    <t>予以处罚</t>
+  </si>
+  <si>
+    <t>to impose a penalty</t>
+  </si>
+  <si>
+    <t>处罚 罚金 罚款</t>
+  </si>
+  <si>
+    <t>penalty</t>
+  </si>
+  <si>
+    <t>俯冲到较低的高度</t>
+  </si>
+  <si>
+    <t>to make a dive  to a lower altitude</t>
+  </si>
+  <si>
+    <t>高度 高地 海拔</t>
+  </si>
+  <si>
+    <t>altitude</t>
+  </si>
+  <si>
+    <t>重大的  有意义的</t>
+  </si>
+  <si>
+    <t>significant</t>
+  </si>
+  <si>
+    <t>离婚</t>
+  </si>
+  <si>
+    <t>divorce</t>
+  </si>
+  <si>
+    <t>大剂量 小剂量</t>
+  </si>
+  <si>
+    <t>a high dose; a low dose</t>
+  </si>
+  <si>
+    <t>剂量</t>
+  </si>
+  <si>
+    <t>dose</t>
+  </si>
+  <si>
+    <t>避免吸烟</t>
+  </si>
+  <si>
+    <t>refrain from smoking</t>
+  </si>
+  <si>
+    <t>克制 避免</t>
+  </si>
+  <si>
+    <t>refrain</t>
+  </si>
+  <si>
+    <t>直线和曲线</t>
+  </si>
+  <si>
+    <t>straight line and curve</t>
+  </si>
+  <si>
+    <t>曲线 曲线的</t>
+  </si>
+  <si>
+    <t>curve</t>
+  </si>
+  <si>
+    <t>由同一祖先进化而来</t>
+  </si>
+  <si>
+    <t>evolved from a single ancetor</t>
+  </si>
+  <si>
+    <t>进化 发展</t>
+  </si>
+  <si>
+    <t>evolve</t>
+  </si>
+  <si>
+    <t>淡淡的色彩</t>
+  </si>
+  <si>
+    <t>subtle colours</t>
+  </si>
+  <si>
+    <t>微妙的 精细的</t>
+  </si>
+  <si>
+    <t>subtle</t>
+  </si>
+  <si>
+    <t>革命</t>
+  </si>
+  <si>
+    <t>revolution</t>
+  </si>
+  <si>
+    <t>创新 改革</t>
+  </si>
+  <si>
+    <t>innovation</t>
+  </si>
+  <si>
+    <t>释义</t>
+  </si>
+  <si>
+    <t>单词</t>
+  </si>
+  <si>
+    <t>religion</t>
+  </si>
+  <si>
+    <t>宗教</t>
+  </si>
+  <si>
+    <t>flatter</t>
+  </si>
+  <si>
+    <t>奉承 谄媚</t>
+  </si>
+  <si>
+    <t>extensive</t>
+  </si>
+  <si>
+    <t>广泛的 大量的</t>
+  </si>
+  <si>
+    <t>intention</t>
+  </si>
+  <si>
+    <t>意图 目的</t>
+  </si>
+  <si>
+    <t>accommodation</t>
+  </si>
+  <si>
+    <t>住处 调节</t>
+  </si>
+  <si>
+    <t>hotel accommodation</t>
+  </si>
+  <si>
+    <t>旅馆住宿</t>
+  </si>
+  <si>
+    <t>explicit</t>
+  </si>
+  <si>
+    <t>明确的 清楚的</t>
+  </si>
+  <si>
+    <t>implicit</t>
+  </si>
+  <si>
+    <t>含糊的</t>
+  </si>
+  <si>
+    <t>shatter</t>
+  </si>
+  <si>
+    <t>打碎 破坏</t>
+  </si>
+  <si>
+    <t>shatter the hope</t>
+  </si>
+  <si>
+    <t>破灭希望</t>
+  </si>
+  <si>
+    <t>transplant</t>
+  </si>
+  <si>
+    <t>移植</t>
+  </si>
+  <si>
+    <t>transplant a liver</t>
+  </si>
+  <si>
+    <t>移植肝脏</t>
+  </si>
+  <si>
+    <t>anchor</t>
+  </si>
+  <si>
+    <t>靠山 精神支柱</t>
+  </si>
+  <si>
+    <t>the anchor of..</t>
+  </si>
+  <si>
+    <t>..的支柱</t>
+  </si>
+  <si>
+    <t>attribute</t>
+  </si>
+  <si>
+    <t>把..归因于</t>
+  </si>
+  <si>
+    <t>she attribute her success to hard work</t>
+  </si>
+  <si>
+    <t>她把她成功的原因归功于努力</t>
+  </si>
+  <si>
+    <t>cable</t>
+  </si>
+  <si>
+    <t>缆绳</t>
+  </si>
+  <si>
+    <t>overhead cables</t>
+  </si>
+  <si>
+    <t>高架电缆</t>
+  </si>
+  <si>
+    <t>estimate</t>
+  </si>
+  <si>
+    <t>估计 估价</t>
+  </si>
+  <si>
+    <t>keen</t>
+  </si>
+  <si>
+    <t>渴望的 明锐的</t>
+  </si>
+  <si>
+    <t>immense</t>
+  </si>
+  <si>
+    <t>巨大的 广大的</t>
+  </si>
+  <si>
+    <t>subsequent</t>
+  </si>
+  <si>
+    <t>后来的随后的</t>
+  </si>
+  <si>
+    <t>prohibit</t>
+  </si>
+  <si>
+    <t>阻止 禁止</t>
+  </si>
+  <si>
+    <t>amateur</t>
+  </si>
+  <si>
+    <t>外行 业余爱好者</t>
+  </si>
+  <si>
+    <t>infant</t>
+  </si>
+  <si>
+    <t>婴儿的 婴儿</t>
+  </si>
+  <si>
+    <t>finance</t>
+  </si>
+  <si>
+    <t>金融</t>
+  </si>
+  <si>
+    <t>cabinet</t>
+  </si>
+  <si>
+    <t>橱柜 陈列室</t>
+  </si>
+  <si>
+    <t>genuine</t>
+  </si>
+  <si>
+    <t>真实的</t>
+  </si>
+  <si>
+    <t>genuine concern for others</t>
+  </si>
+  <si>
+    <t>对他人真诚的关心</t>
+  </si>
+  <si>
+    <t>plural</t>
+  </si>
+  <si>
+    <t>复数的 复数</t>
+  </si>
+  <si>
+    <t>prey</t>
+  </si>
+  <si>
+    <t>捕食 被捕食的动物</t>
+  </si>
+  <si>
+    <t>script</t>
+  </si>
+  <si>
+    <t>脚本 手迹</t>
+  </si>
+  <si>
+    <t>construct</t>
+  </si>
+  <si>
+    <t>构建 构想</t>
+  </si>
+  <si>
+    <t>embrace</t>
+  </si>
+  <si>
+    <t>拥抱 包含</t>
+  </si>
+  <si>
+    <t>proclaim</t>
+  </si>
+  <si>
+    <t>宣布</t>
+  </si>
+  <si>
+    <t>embrace new rules</t>
+  </si>
+  <si>
+    <t>接受新的规则</t>
+  </si>
+  <si>
+    <t>boundary</t>
+  </si>
+  <si>
+    <t>边界 范围</t>
+  </si>
+  <si>
+    <t>ascribe</t>
+  </si>
+  <si>
+    <t>归因于</t>
+  </si>
+  <si>
+    <t>ascribe his success to luck</t>
+  </si>
+  <si>
+    <t>cite</t>
+  </si>
+  <si>
+    <t>引用</t>
+  </si>
+  <si>
+    <t>outcome</t>
+  </si>
+  <si>
+    <t>结果 结局</t>
+  </si>
+  <si>
+    <t>final outcome</t>
+  </si>
+  <si>
+    <t>最终的结果</t>
+  </si>
+  <si>
+    <t>abstract</t>
+  </si>
+  <si>
+    <t>摘要</t>
+  </si>
+  <si>
+    <t>suspect</t>
+  </si>
+  <si>
+    <t>嫌疑犯 怀疑</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>国会 会议</t>
+  </si>
+  <si>
+    <t>turbine</t>
+  </si>
+  <si>
+    <t>涡轮 涡轮机</t>
+  </si>
+  <si>
+    <t>the spinning turbine</t>
+  </si>
+  <si>
+    <t>旋转的涡轮机</t>
+  </si>
+  <si>
+    <t>religious rituals</t>
+  </si>
+  <si>
+    <t>宗教礼仪</t>
+  </si>
+  <si>
+    <t>abolish</t>
+  </si>
+  <si>
+    <t>废除</t>
+  </si>
+  <si>
+    <t>notion</t>
+  </si>
+  <si>
+    <t>概念</t>
+  </si>
+  <si>
+    <t>ethics</t>
+  </si>
+  <si>
+    <t>伦理学</t>
+  </si>
+  <si>
+    <t>fulfil</t>
+  </si>
+  <si>
+    <t>实现 满足</t>
+  </si>
+  <si>
+    <t>compromise</t>
+  </si>
+  <si>
+    <t>拖鞋 让步</t>
+  </si>
+  <si>
+    <t>a compromise solution</t>
+  </si>
+  <si>
+    <t>一个折中的方案</t>
+  </si>
+  <si>
+    <t>cliff</t>
+  </si>
+  <si>
+    <t>悬崖 绝壁</t>
+  </si>
+  <si>
+    <t>the cliff edge</t>
+  </si>
+  <si>
+    <t>悬崖边缘</t>
+  </si>
+  <si>
+    <t>Indian tribes</t>
+  </si>
+  <si>
+    <t>印第安部落</t>
+  </si>
+  <si>
+    <t>conclude</t>
+  </si>
+  <si>
+    <t>推断 决定</t>
+  </si>
+  <si>
+    <t>interfere</t>
+  </si>
+  <si>
+    <t>干扰</t>
+  </si>
+  <si>
+    <t>fancy</t>
+  </si>
+  <si>
+    <t>幻想 奇特的</t>
+  </si>
+  <si>
+    <t>dense</t>
+  </si>
+  <si>
+    <t>稠密的</t>
+  </si>
+  <si>
+    <t>dense substance</t>
+  </si>
+  <si>
+    <t>密度大的物质</t>
+  </si>
+  <si>
+    <t>gear</t>
+  </si>
+  <si>
+    <t>齿轮 装置 工具</t>
+  </si>
+  <si>
+    <t>stiff</t>
+  </si>
+  <si>
+    <t>呆板的 酸痛的</t>
+  </si>
+  <si>
+    <t>diameter</t>
+  </si>
+  <si>
+    <t>直径</t>
+  </si>
+  <si>
+    <t>perimeter</t>
+  </si>
+  <si>
+    <t>周长</t>
+  </si>
+  <si>
+    <t>harbor</t>
+  </si>
+  <si>
+    <t>海港</t>
+  </si>
+  <si>
+    <t>overdue</t>
+  </si>
+  <si>
+    <t>过期的 迟到的</t>
+  </si>
+  <si>
+    <t>an voerdue payment</t>
+  </si>
+  <si>
+    <t>一笔逾期的欠款</t>
+  </si>
+  <si>
+    <t>accurate</t>
+  </si>
+  <si>
+    <t>精确的</t>
+  </si>
+  <si>
+    <t>an accurate calculation</t>
+  </si>
+  <si>
+    <t>精确的计算</t>
+  </si>
+  <si>
+    <t>arbitrary</t>
+  </si>
+  <si>
+    <t>任意的 专制的</t>
+  </si>
+  <si>
+    <t>surgery</t>
+  </si>
+  <si>
+    <t>外科手术</t>
+  </si>
+  <si>
+    <t>sphere</t>
+  </si>
+  <si>
+    <t>范围</t>
+  </si>
+  <si>
+    <t>social sphere</t>
+  </si>
+  <si>
+    <t>社交圈子</t>
+  </si>
+  <si>
+    <t>inhabit</t>
+  </si>
+  <si>
+    <t>居住于</t>
+  </si>
+  <si>
+    <t>cement</t>
+  </si>
+  <si>
+    <t>水泥</t>
+  </si>
+  <si>
+    <t>cement floor</t>
+  </si>
+  <si>
+    <t>水泥地板</t>
+  </si>
+  <si>
+    <t>reliable</t>
+  </si>
+  <si>
+    <t>可靠的</t>
+  </si>
+  <si>
+    <t>a reliable friend</t>
+  </si>
+  <si>
+    <t>可靠的朋友</t>
+  </si>
+  <si>
+    <t>consist</t>
+  </si>
+  <si>
+    <t>由..组成</t>
+  </si>
+  <si>
+    <t>poll</t>
+  </si>
+  <si>
+    <t>投票 民意测验</t>
+  </si>
+  <si>
+    <t>to carray out a poll</t>
+  </si>
+  <si>
+    <t>进行民意测验</t>
+  </si>
+  <si>
+    <t>doom</t>
+  </si>
+  <si>
+    <t>厄运  注定</t>
+  </si>
+  <si>
+    <t>vocation</t>
+  </si>
+  <si>
+    <t>天职 职业</t>
+  </si>
+  <si>
+    <t>vacation</t>
+  </si>
+  <si>
+    <t>假期</t>
+  </si>
+  <si>
+    <t>my true vocation</t>
+  </si>
+  <si>
+    <t>适合我自己的职业</t>
+  </si>
+  <si>
+    <t>surplus</t>
+  </si>
+  <si>
+    <t>过剩的</t>
+  </si>
+  <si>
+    <t>food surplus</t>
+  </si>
+  <si>
+    <t>过剩的食物</t>
+  </si>
+  <si>
+    <t>interpret</t>
+  </si>
+  <si>
+    <t>解释 说明</t>
+  </si>
+  <si>
+    <t>interpret the poem</t>
+  </si>
+  <si>
+    <t>诠释这首诗</t>
+  </si>
+  <si>
+    <t>wrap</t>
+  </si>
+  <si>
+    <t>包</t>
+  </si>
+  <si>
+    <t>wrap up the presents</t>
+  </si>
+  <si>
+    <t>把礼物包起来</t>
+  </si>
+  <si>
+    <t>mineral</t>
+  </si>
+  <si>
+    <t>矿物的</t>
+  </si>
+  <si>
+    <t>mineral extraction</t>
+  </si>
+  <si>
+    <t>矿物开采</t>
+  </si>
+  <si>
+    <t>passive</t>
+  </si>
+  <si>
+    <t>消极的 被动的</t>
+  </si>
+  <si>
+    <t>passive expression</t>
+  </si>
+  <si>
+    <t>默然的表情</t>
+  </si>
+  <si>
+    <t>bounty</t>
+  </si>
+  <si>
+    <t>奖励金</t>
+  </si>
+  <si>
+    <t>sway</t>
+  </si>
+  <si>
+    <t>影响 摇摆 通知</t>
+  </si>
+  <si>
+    <t>sway sb into ..</t>
+  </si>
+  <si>
+    <t>使某人支持做某事</t>
+  </si>
+  <si>
+    <t>isolate</t>
+  </si>
+  <si>
+    <t>隔离 孤立</t>
+  </si>
+  <si>
+    <t>isolate oxygen from hydrogen in water</t>
+  </si>
+  <si>
+    <t>把水中的氧气和氢气分离</t>
+  </si>
+  <si>
+    <t>innocent</t>
+  </si>
+  <si>
+    <t>无辜的 无罪的</t>
+  </si>
+  <si>
+    <t>innocent victims</t>
+  </si>
+  <si>
+    <t>无辜的受害者</t>
+  </si>
+  <si>
+    <t>innocent children</t>
+  </si>
+  <si>
+    <t>天真无邪的小孩儿</t>
+  </si>
+  <si>
+    <t>moral</t>
+  </si>
+  <si>
+    <t>道德的</t>
+  </si>
+  <si>
+    <t>traditional moral values</t>
+  </si>
+  <si>
+    <t>传统的道德观念</t>
+  </si>
+  <si>
+    <t>roll</t>
+  </si>
+  <si>
+    <t>卷  转动 滚</t>
+  </si>
+  <si>
+    <t>a roll of film</t>
+  </si>
+  <si>
+    <t>一卷胶卷</t>
+  </si>
+  <si>
+    <t>appeal</t>
+  </si>
+  <si>
+    <t>呼吁 吸引力</t>
+  </si>
+  <si>
+    <t>lost one's appeal</t>
+  </si>
+  <si>
+    <t>某人失去吸引力</t>
+  </si>
+  <si>
+    <t>newslatter</t>
+  </si>
+  <si>
+    <t>实时通讯</t>
+  </si>
+  <si>
+    <t>lifespan</t>
+  </si>
+  <si>
+    <t>寿命</t>
+  </si>
+  <si>
+    <t>the lifespan of a cat</t>
+  </si>
+  <si>
+    <t>一只猫的寿命</t>
+  </si>
+  <si>
+    <t>decay</t>
+  </si>
+  <si>
+    <t>腐烂</t>
+  </si>
+  <si>
+    <t>fruit have begun to decay</t>
+  </si>
+  <si>
+    <t>水果开始腐烂</t>
+  </si>
+  <si>
+    <t>faculty</t>
+  </si>
+  <si>
+    <t>科 系 全体教员 能力</t>
+  </si>
+  <si>
+    <t>the faculty of learning</t>
+  </si>
+  <si>
+    <t>学习的能力</t>
+  </si>
+  <si>
+    <t>faculty members</t>
+  </si>
+  <si>
+    <t>全体教师</t>
+  </si>
+  <si>
+    <t>territory</t>
+  </si>
+  <si>
+    <t>领土</t>
+  </si>
+  <si>
+    <t>occupied territory|foreign territory</t>
+  </si>
+  <si>
+    <t>被占领的领土
+外国领土</t>
+  </si>
+  <si>
+    <t>contemporary</t>
+  </si>
+  <si>
+    <t>当代的</t>
+  </si>
+  <si>
+    <t>contemporary fiction</t>
+  </si>
+  <si>
+    <t>当代小说</t>
+  </si>
+  <si>
+    <t>comprehend</t>
+  </si>
+  <si>
+    <t>理解</t>
+  </si>
+  <si>
+    <t>impulse</t>
+  </si>
+  <si>
+    <t>脉冲 冲动</t>
+  </si>
+  <si>
+    <t>beehive</t>
+  </si>
+  <si>
+    <t>蜂巢</t>
+  </si>
+  <si>
+    <t>crack</t>
+  </si>
+  <si>
+    <t>破裂</t>
+  </si>
+  <si>
+    <t>reject</t>
+  </si>
+  <si>
+    <t>拒绝</t>
+  </si>
+  <si>
+    <t>cognitive</t>
+  </si>
+  <si>
+    <t>认识的 认知的</t>
+  </si>
+  <si>
+    <t>a child's cognitive</t>
+  </si>
+  <si>
+    <t>儿童的认知</t>
+  </si>
+  <si>
+    <t>cupboard</t>
+  </si>
+  <si>
+    <t>碗柜  橱柜</t>
+  </si>
+  <si>
+    <t>adjoin</t>
+  </si>
+  <si>
+    <t>毗连 邻接</t>
+  </si>
+  <si>
+    <t>an adjoin office</t>
+  </si>
+  <si>
+    <t>旁边的办公室</t>
+  </si>
+  <si>
+    <t>enormous</t>
+  </si>
+  <si>
+    <t>巨大的</t>
+  </si>
+  <si>
+    <t>stir</t>
+  </si>
+  <si>
+    <t>搅拌 激起</t>
+  </si>
+  <si>
+    <t>tremendous</t>
+  </si>
+  <si>
+    <t>极大的 巨大的</t>
+  </si>
+  <si>
+    <t>a tremendous explosion</t>
+  </si>
+  <si>
+    <t>巨大的爆炸声</t>
+  </si>
+  <si>
+    <t>certificate</t>
+  </si>
+  <si>
+    <t>证书  证明</t>
+  </si>
+  <si>
+    <t>birth certificate</t>
+  </si>
+  <si>
+    <t>出生证明</t>
+  </si>
+  <si>
+    <t>rigid</t>
+  </si>
+  <si>
+    <t>严格的 死板的</t>
+  </si>
+  <si>
+    <t>to narrow and too rigid</t>
+  </si>
+  <si>
+    <t>过于狭隘和死板</t>
+  </si>
+  <si>
+    <t>controversy</t>
+  </si>
+  <si>
+    <t>争论 辩论</t>
+  </si>
+  <si>
+    <t>to arouse controversy</t>
+  </si>
+  <si>
+    <t>引起争论</t>
+  </si>
+  <si>
+    <t>harsh climate</t>
+  </si>
+  <si>
+    <t>恶劣的气候</t>
+  </si>
+  <si>
+    <t>pearl</t>
+  </si>
+  <si>
+    <t>珍珠 珍品</t>
+  </si>
+  <si>
+    <t>sting</t>
+  </si>
+  <si>
+    <t>刺激 刺痛</t>
+  </si>
+  <si>
+    <t>my eyes are stinging from smoke</t>
+  </si>
+  <si>
+    <t>眼镜因为烟感到刺痛</t>
+  </si>
+  <si>
+    <t>a general impression</t>
+  </si>
+  <si>
+    <t>整体印象</t>
+  </si>
+  <si>
+    <t>ample</t>
+  </si>
+  <si>
+    <t>丰富的 足够的</t>
+  </si>
+  <si>
+    <t>ample proof</t>
+  </si>
+  <si>
+    <t>充足的证明</t>
+  </si>
+  <si>
+    <t>relieve</t>
+  </si>
+  <si>
+    <t>解除 减轻</t>
+  </si>
+  <si>
+    <t>to relieve traffic congestion</t>
+  </si>
+  <si>
+    <t>缓解交通拥堵</t>
+  </si>
+  <si>
+    <t>liability</t>
+  </si>
+  <si>
+    <t>责任 可能性</t>
+  </si>
+  <si>
+    <t>consult</t>
+  </si>
+  <si>
+    <t>咨询 商议</t>
+  </si>
+  <si>
+    <t>consulting engineer</t>
+  </si>
+  <si>
+    <t>顾问工程师</t>
+  </si>
+  <si>
+    <t>pessimistic</t>
+  </si>
+  <si>
+    <t>悲观的</t>
+  </si>
+  <si>
+    <t>cruise</t>
+  </si>
+  <si>
+    <t>巡航</t>
+  </si>
+  <si>
+    <t>a luxury curise ship</t>
+  </si>
+  <si>
+    <t>一艘豪华游轮</t>
+  </si>
+  <si>
+    <t>triumph</t>
+  </si>
+  <si>
+    <t>胜利 凯旋</t>
+  </si>
+  <si>
+    <t>a shout of triumph</t>
+  </si>
+  <si>
+    <t>一阵胜利的欢呼</t>
+  </si>
+  <si>
+    <t>flame</t>
+  </si>
+  <si>
+    <t>火焰</t>
+  </si>
+  <si>
+    <t>conscious</t>
+  </si>
+  <si>
+    <t>神志清醒的 有意识的</t>
+  </si>
+  <si>
+    <t>unconscious processing</t>
+  </si>
+  <si>
+    <t>无意识加工</t>
+  </si>
+  <si>
+    <t>norm</t>
+  </si>
+  <si>
+    <t>标准 规范</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -15884,16 +17326,37 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="宋体"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -15901,11 +17364,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -15920,9 +17399,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -16484,6 +17969,341 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16809,7 +18629,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B42"/>
   <sheetViews>
@@ -17169,7 +18989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B55"/>
   <sheetViews>
@@ -17632,7 +19452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B59"/>
   <sheetViews>
@@ -18128,7 +19948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B53"/>
   <sheetViews>
@@ -18572,7 +20392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B56"/>
   <sheetViews>
@@ -19020,7 +20840,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B55"/>
   <sheetViews>
@@ -19460,7 +21280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B55"/>
   <sheetViews>
@@ -19908,7 +21728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFF0000"/>
@@ -20452,593 +22272,6 @@
       <c r="B66" s="1" t="s">
         <v>1231</v>
       </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B73"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="42.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>1240</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>1241</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>1242</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>1244</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>1257</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>1258</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>1259</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>1261</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>1262</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>1263</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>1267</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>1269</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>1268</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>1289</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>1270</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>1271</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>1273</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>1274</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>1275</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>1295</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>1296</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>1315</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>1297</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>1298</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>1299</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>1301</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>1302</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>1324</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>1303</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>1304</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>1305</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>1306</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>1308</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>1335</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>1311</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>1312</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>1339</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>1342</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>1344</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>1345</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>1347</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>1359</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>1348</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>1350</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>1352</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>1354</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>1362</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>1364</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>1366</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>1367</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-    </row>
-    <row r="70" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-    </row>
-    <row r="71" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-    </row>
-    <row r="72" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-    </row>
-    <row r="73" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -21564,6 +22797,593 @@
   </sheetPr>
   <dimension ref="A1:B73"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="42.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B73"/>
+  <sheetViews>
     <sheetView topLeftCell="A62" workbookViewId="0">
       <selection activeCell="B72" sqref="B72"/>
     </sheetView>
@@ -22160,7 +23980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFF0000"/>
@@ -22815,7 +24635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFF0000"/>
@@ -23446,7 +25266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFF0000"/>
@@ -24069,7 +25889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFF0000"/>
@@ -24420,7 +26240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
@@ -24840,26 +26660,634 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="A2:B22"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:XFD74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.6640625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="22" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="40" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
+    <row r="1" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>2327</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>2321</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>2319</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>2317</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>2315</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>2313</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>2311</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>2309</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>2307</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>2305</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>2303</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>2301</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>2299</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>2297</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>2295</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>2293</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>2291</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>2289</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>2287</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>2285</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>2283</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>2281</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>2273</v>
+      </c>
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>2272</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>2268</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>2262</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>2258</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>2256</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>2252</v>
+      </c>
+      <c r="B39" s="7"/>
+    </row>
+    <row r="40" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>2251</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>2249</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>2247</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>2243</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>2241</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>2239</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
+        <v>2237</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>2235</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
+        <v>2217</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
+        <v>2215</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
+        <v>2211</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
+        <v>2205</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
+        <v>2203</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
+        <v>2201</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B66" s="7"/>
+    </row>
+    <row r="67" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="7" t="s">
+        <v>2198</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="7" t="s">
+        <v>2196</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="7" t="s">
+        <v>2194</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="7" t="s">
+        <v>2192</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="7" t="s">
+        <v>2190</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="7" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="7" t="s">
+        <v>2186</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="7" t="s">
+        <v>2184</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="7" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="7" t="s">
+        <v>2180</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="7" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="7" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>2175</v>
       </c>
     </row>
   </sheetData>
@@ -24870,26 +27298,662 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80:XFD80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="22" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="40" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
+    <row r="1" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>2327</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>2328</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>2330</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>2332</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>2334</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>2336</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>2338</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>2340</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>2342</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>2344</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>2348</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>2352</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>2354</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>2358</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>2360</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>2362</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>2364</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>2366</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>2368</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>2370</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>2372</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>2374</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>2378</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>2380</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>2382</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>2384</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>2386</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>2390</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>2394</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>2396</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>2398</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>2400</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>2404</v>
+      </c>
+      <c r="B40" s="7"/>
+    </row>
+    <row r="41" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>2405</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>2407</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>2409</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>2411</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>2413</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>2415</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
+        <v>2417</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>2419</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>2421</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
+        <v>2425</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
+        <v>2427</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
+        <v>2429</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
+        <v>2433</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
+        <v>2435</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
+        <v>2437</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
+        <v>2441</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
+        <v>2443</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
+        <v>2447</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
+        <v>2449</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
+        <v>2451</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
+        <v>2453</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="s">
+        <v>2455</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="7" t="s">
+        <v>2457</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="7" t="s">
+        <v>2459</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="7" t="s">
+        <v>2461</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="7" t="s">
+        <v>2463</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="7" t="s">
+        <v>2465</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="7" t="s">
+        <v>2467</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="7" t="s">
+        <v>2469</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="7" t="s">
+        <v>2471</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="7" t="s">
+        <v>2473</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="7" t="s">
+        <v>2475</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="7" t="s">
+        <v>2477</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="7" t="s">
+        <v>2479</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="7" t="s">
+        <v>2481</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="7" t="s">
+        <v>2483</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="7" t="s">
+        <v>2485</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>2486</v>
       </c>
     </row>
   </sheetData>
@@ -24899,6 +27963,706 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B85"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A87" activeCellId="7" sqref="A38:XFD38 A45:XFD45 A52:XFD52 A59:XFD59 A66:XFD66 A73:XFD73 A80:XFD80 A87:XFD87"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="40" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>2327</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>2489</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>2491</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>2493</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>2495</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>2497</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>2499</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>2501</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>2503</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>2505</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>2507</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>2509</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>2511</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>2513</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>2515</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>2521</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>2523</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>2525</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>2527</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>2529</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>2531</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>2533</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>2535</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>2537</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>2539</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>2541</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>2543</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>2545</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>2547</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>2551</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>2553</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>2555</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>2557</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>2559</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>2561</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>2563</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>2565</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>2567</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>2569</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>2571</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>2573</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>2575</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
+        <v>2577</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>2579</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>2581</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
+        <v>2585</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
+        <v>2589</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
+        <v>2591</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
+        <v>2595</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
+        <v>2597</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
+        <v>2599</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
+        <v>2601</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
+        <v>2603</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
+        <v>2605</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
+        <v>2607</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
+        <v>2609</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
+        <v>2611</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
+        <v>2613</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="s">
+        <v>2615</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="7" t="s">
+        <v>2617</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="7" t="s">
+        <v>2619</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="7" t="s">
+        <v>2621</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="7" t="s">
+        <v>2623</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="7" t="s">
+        <v>2625</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="7" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="7" t="s">
+        <v>2629</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="7" t="s">
+        <v>2631</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="7" t="s">
+        <v>2633</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="7" t="s">
+        <v>2635</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="7" t="s">
+        <v>2637</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="7" t="s">
+        <v>2639</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="7" t="s">
+        <v>2641</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="7" t="s">
+        <v>2643</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="7" t="s">
+        <v>2645</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="7" t="s">
+        <v>2647</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="7" t="s">
+        <v>2649</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="7" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="7" t="s">
+        <v>2653</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B44"/>
   <sheetViews>
@@ -25273,11 +29037,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -25655,7 +29419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B40"/>
   <sheetViews>
@@ -25995,339 +29759,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/雅思核心词汇精讲精练.xlsx
+++ b/雅思核心词汇精讲精练.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="记忆法" sheetId="40" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3423" uniqueCount="3231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3874" uniqueCount="3760">
   <si>
     <t>portrait</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -21513,6 +21513,3622 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>huan'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incident</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件 事变</t>
+    <rPh sb="0" eb="1">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi'bian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">货运 </t>
+    <rPh sb="0" eb="1">
+      <t>huo'yun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freight business</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货运业务</t>
+    <rPh sb="0" eb="1">
+      <t>huo'yun</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ye'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲板 露天平台</t>
+    <rPh sb="0" eb="1">
+      <t>jia'ban</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>lu'tian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ping'tai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ferry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渡口 渡船</t>
+    <rPh sb="0" eb="1">
+      <t>du'kou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>du'chuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>predict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">nest </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巢</t>
+    <rPh sb="0" eb="1">
+      <t>chao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foresee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预见</t>
+    <rPh sb="0" eb="1">
+      <t>yu'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dramatic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨大的 生动的</t>
+    <rPh sb="0" eb="1">
+      <t>ju'da</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>sheng'dong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hazard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>危险 危害</t>
+    <rPh sb="0" eb="1">
+      <t>wei'xian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wei'hai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>realm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领域</t>
+    <rPh sb="0" eb="1">
+      <t>ling'yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in the realm of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在..领域</t>
+    <rPh sb="0" eb="1">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ling'yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提炼</t>
+    <rPh sb="0" eb="1">
+      <t>ti'lian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>predator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕食者</t>
+    <rPh sb="0" eb="1">
+      <t>bu'shi'zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>predator hunt prey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摆脱 脱落</t>
+    <rPh sb="0" eb="1">
+      <t>bai'tuo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tuo'luo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fabric</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纺织物</t>
+    <rPh sb="0" eb="1">
+      <t>fng'zhi'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evaluate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价 评估</t>
+    <rPh sb="0" eb="1">
+      <t>ping'jia</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ping'gu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ally</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同盟 联盟</t>
+    <rPh sb="0" eb="1">
+      <t>tong'm</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>lian'm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒</t>
+    <rPh sb="0" eb="1">
+      <t>dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stimulus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺激 刺激物</t>
+    <rPh sb="0" eb="1">
+      <t>ci'ji</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ci'ji'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>light is a stimulus to growth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳光刺激生长</t>
+    <rPh sb="0" eb="1">
+      <t>yang'g</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ci'ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>sheng'zhag</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tackle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理 解决</t>
+    <rPh sb="0" eb="1">
+      <t>chu'li</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jie'jue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rational</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合理的 理性的</t>
+    <rPh sb="0" eb="1">
+      <t>he'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>li'xing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>awesome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可怕的 极好的</t>
+    <rPh sb="0" eb="1">
+      <t>ke'pa</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji'hao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shallow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肤浅的</t>
+    <rPh sb="0" eb="1">
+      <t>fu'qan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discrete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离散的 不连续的</t>
+    <rPh sb="0" eb="1">
+      <t>li'san</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bu'lian'xu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过渡 转变</t>
+    <rPh sb="0" eb="1">
+      <t>guo'du</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhuan'bian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排斥 击退</t>
+    <rPh sb="0" eb="1">
+      <t>pai'chi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ji'tui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>two electric repel each other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同性电荷相互排斥</t>
+    <rPh sb="0" eb="1">
+      <t>tong'xing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dian'he</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiang'hu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>pai'chi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生态学</t>
+    <rPh sb="0" eb="1">
+      <t>shen'tai'xue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beverage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饮料</t>
+    <rPh sb="0" eb="1">
+      <t>ying'liao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alcoholic beverage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒类</t>
+    <rPh sb="0" eb="1">
+      <t>jiu'lei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒冷</t>
+    <rPh sb="0" eb="1">
+      <t>han'len</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numerous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许多的</t>
+    <rPh sb="0" eb="1">
+      <t>xu'duo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>immigrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移民的</t>
+    <rPh sb="0" eb="1">
+      <t>yi'min</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗议</t>
+    <rPh sb="0" eb="1">
+      <t>kang'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comprise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含</t>
+    <rPh sb="0" eb="1">
+      <t>bao'han</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thesis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文 论点</t>
+    <rPh sb="0" eb="1">
+      <t>lun'wen</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>lun'dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昆虫</t>
+    <rPh sb="0" eb="1">
+      <t>kun'chong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demonstrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示</t>
+    <rPh sb="0" eb="1">
+      <t>zhan'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>engage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸引</t>
+    <rPh sb="0" eb="1">
+      <t>xi'yin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>促进 推进</t>
+    <rPh sb="0" eb="1">
+      <t>cu'jing</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tui'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密封</t>
+    <rPh sb="0" eb="1">
+      <t>mi'fe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to seal a contract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密封合同</t>
+    <rPh sb="0" eb="1">
+      <t>mi'f</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>he't</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗糙的 原油</t>
+    <rPh sb="0" eb="1">
+      <t>cu'cao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yuan'you</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旺盛</t>
+    <rPh sb="0" eb="1">
+      <t>wang'sheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因此</t>
+    <rPh sb="0" eb="1">
+      <t>yin'ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>erect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使竖直 笔直的</t>
+    <rPh sb="0" eb="1">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shu'zhi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bi'zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sympathy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同情</t>
+    <rPh sb="0" eb="1">
+      <t>tong'qing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚集  积累</t>
+    <rPh sb="0" eb="1">
+      <t>ju'ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji'lei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">amass a furtune </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积累一笔财富</t>
+    <rPh sb="0" eb="1">
+      <t>ji'lei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi'bi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cai'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屈服</t>
+    <rPh sb="0" eb="1">
+      <t>qu'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>worthwhile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值得做的</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'de'zuo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>centimeter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厘米</t>
+    <rPh sb="0" eb="1">
+      <t>li'mi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grasp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">抓住  理解 </t>
+    <rPh sb="0" eb="1">
+      <t>zhua'zu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>li'jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ashore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在岸上</t>
+    <rPh sb="0" eb="1">
+      <t>zai'an'shang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inspect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">检查 </t>
+    <rPh sb="0" eb="1">
+      <t>jian'cha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">decent </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得体的 相当好的</t>
+    <rPh sb="0" eb="1">
+      <t>de'ti</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiang'dang'hao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a decent meal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一份不错的饭菜</t>
+    <rPh sb="0" eb="1">
+      <t>y'f</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu'cuo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>d</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fan'cai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adopt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采取 收养</t>
+    <rPh sb="0" eb="1">
+      <t>cai'qu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shou'yang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meadow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草地</t>
+    <rPh sb="0" eb="1">
+      <t>cao'di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stretch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伸展</t>
+    <rPh sb="0" eb="1">
+      <t>shen'zhan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镭</t>
+    <rPh sb="0" eb="1">
+      <t>lei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核实 查证</t>
+    <rPh sb="0" eb="1">
+      <t>he'shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cha'zheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">flexible </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">灵活的 </t>
+    <rPh sb="0" eb="1">
+      <t>ling'huo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>justify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证明..正当的</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'm</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zheng'dang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>associate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系</t>
+    <rPh sb="0" eb="1">
+      <t>lian'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知 告诉</t>
+    <rPh sb="0" eb="1">
+      <t>tong'zhi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gao'su</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preserve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qualify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得资格</t>
+    <rPh sb="0" eb="1">
+      <t>qu'de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>departure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离开  出发</t>
+    <rPh sb="0" eb="1">
+      <t>li'kai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chu'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>departure lounge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>候机室</t>
+    <rPh sb="0" eb="1">
+      <t>hou'ji'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抛</t>
+    <rPh sb="0" eb="1">
+      <t>pao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纺织</t>
+    <rPh sb="0" eb="1">
+      <t>fang'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dormitory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宿舍</t>
+    <rPh sb="0" eb="1">
+      <t>su'she</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>争端  争吵</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'duan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zheng'chao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">comment </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论</t>
+    <rPh sb="0" eb="1">
+      <t>png'lun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>urge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼吁 催促</t>
+    <rPh sb="0" eb="1">
+      <t>hu'yu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cui'cu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>undergo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经历 忍受</t>
+    <rPh sb="0" eb="1">
+      <t>jing'li</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ren'shou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to ungergo test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经受考验</t>
+    <rPh sb="0" eb="1">
+      <t>jing'shou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kao'yan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inferior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下级的 下等的</t>
+    <rPh sb="0" eb="1">
+      <t>xia'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xia'deng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elegant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高雅的</t>
+    <rPh sb="0" eb="1">
+      <t>gao'ya</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>an elegant  room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">一间雅致的房间 </t>
+    <rPh sb="0" eb="1">
+      <t>yi'jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ya'zhi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fag'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追赶 追逐</t>
+    <rPh sb="0" eb="1">
+      <t>zhui'gan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhui'zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">monetary </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币的 财政的</t>
+    <rPh sb="0" eb="1">
+      <t>huo'bi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cai'zheng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">comprehensive </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合的  广泛的</t>
+    <rPh sb="0" eb="1">
+      <t>zong'he</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>guang'fan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砖</t>
+    <rPh sb="0" eb="1">
+      <t>zhuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enrol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">注册 入学 </t>
+    <rPh sb="0" eb="1">
+      <t>zhu'ce</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ru'xue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fibre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纤维</t>
+    <rPh sb="0" eb="1">
+      <t>xian'wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>neuron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神经元</t>
+    <rPh sb="0" eb="1">
+      <t>shen'jing'y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flourish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>繁荣   茂盛</t>
+    <rPh sb="0" eb="1">
+      <t>fan'rong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mao'sheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eliminate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消除  排除</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'chu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pai'chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">suburb </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郊区 边缘</t>
+    <rPh sb="0" eb="1">
+      <t>jiao'qu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bian'yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decorate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装饰</t>
+    <rPh sb="0" eb="1">
+      <t>zhuang'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ingredient  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要素 组成部分</t>
+    <rPh sb="0" eb="1">
+      <t>yao'su</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zu'cheg'bu'f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">laboratory </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验室</t>
+    <rPh sb="0" eb="1">
+      <t>shi'yan'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proportion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">比例   占比 </t>
+    <rPh sb="0" eb="1">
+      <t>bi'li</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhan'bi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>convery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传达 传输</t>
+    <rPh sb="0" eb="1">
+      <t>chuan'da</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chuan'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>precise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精确的 准确的</t>
+    <rPh sb="0" eb="1">
+      <t>jing'que</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhun'qe</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>victim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受害者</t>
+    <rPh sb="0" eb="1">
+      <t>shou'hai'zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">rival </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对手 竞争者</t>
+    <rPh sb="0" eb="1">
+      <t>dui'shou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jing'zheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">resort </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求助  度假胜地</t>
+    <rPh sb="0" eb="1">
+      <t>qiu'zhu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>du'jia'sheng'di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a popular holiday resort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受欢迎的度假胜地</t>
+    <rPh sb="0" eb="1">
+      <t>shou'huan'y</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>du'jia</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>sheng'di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">legend </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传奇</t>
+    <rPh sb="0" eb="1">
+      <t>chuan'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶片 刀片</t>
+    <rPh sb="0" eb="1">
+      <t>ye'pian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dao'pian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cognition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认识  知识</t>
+    <rPh sb="0" eb="1">
+      <t>ren'shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhi'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shelter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庇护</t>
+    <rPh sb="0" eb="1">
+      <t>bi'hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>an animal shelter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动物收容所</t>
+    <rPh sb="0" eb="1">
+      <t>dong'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shou'rong'suo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">exclude </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排除 排斥</t>
+    <rPh sb="0" eb="1">
+      <t>pai'chu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>pai'chi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>include</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">包含 </t>
+    <rPh sb="0" eb="1">
+      <t>boa'han</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利润 利益</t>
+    <rPh sb="0" eb="1">
+      <t>li'run</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>li'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">curriculum </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程</t>
+    <rPh sb="0" eb="1">
+      <t>ke'cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>innovation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创新 革新</t>
+    <rPh sb="0" eb="1">
+      <t>chuang'x</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ge'xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>capable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够胜任的</t>
+    <rPh sb="0" eb="1">
+      <t>neng'ou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>sheng'ren</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vessel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a fishing vessel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渔船</t>
+    <rPh sb="0" eb="1">
+      <t>yu'chuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>community</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区</t>
+    <rPh sb="0" eb="1">
+      <t>she'qu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Opera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌剧</t>
+    <rPh sb="0" eb="1">
+      <t>ge'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>corridor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">走廊 </t>
+    <rPh sb="0" eb="1">
+      <t>zou'lang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sociology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会学</t>
+    <rPh sb="0" eb="1">
+      <t>she'hui'xue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preliminary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步的</t>
+    <rPh sb="0" eb="1">
+      <t>chu'bu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overcome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克服</t>
+    <rPh sb="0" eb="1">
+      <t>ke'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forecast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测 预报</t>
+    <rPh sb="0" eb="1">
+      <t>yu'ce</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yu'bao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描绘  刻画</t>
+    <rPh sb="0" eb="1">
+      <t>miao'hui</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ke'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>he portrays himself as the victim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他把自己描绘成受害者</t>
+    <rPh sb="0" eb="1">
+      <t>ta</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ba</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>z'j</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>miao'hui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>cheng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>sho'hai'zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">counsel </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法律顾问</t>
+    <rPh sb="0" eb="1">
+      <t>fa'lv'gu'wen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一 使一致</t>
+    <rPh sb="0" eb="1">
+      <t>tong'yi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yi'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obligation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>责任 义务</t>
+    <rPh sb="0" eb="1">
+      <t>ze're</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yi'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desperate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不顾一切的 令人绝望的</t>
+    <rPh sb="0" eb="1">
+      <t>bu'gu'yi'qie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>d</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ling'ren'jue'w</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧凑的   简介的</t>
+    <rPh sb="0" eb="1">
+      <t>jing'cou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jian'jie</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a compact camera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袖珍照相机</t>
+    <rPh sb="0" eb="1">
+      <t>xiu'zhen</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhao'xiang'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a compact mass of earth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结实的泥土</t>
+    <rPh sb="0" eb="1">
+      <t>jie'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ni'tu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆</t>
+    <rPh sb="0" eb="1">
+      <t>dui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gross</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总共的</t>
+    <rPh sb="0" eb="1">
+      <t>zong'gong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agenda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程表</t>
+    <rPh sb="0" eb="1">
+      <t>ri'cheng'biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神话</t>
+    <rPh sb="0" eb="1">
+      <t>shen'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>belly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腹部 胃</t>
+    <rPh sb="0" eb="1">
+      <t>fu'bu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压缩 压紧</t>
+    <rPh sb="0" eb="1">
+      <t>ya'suo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ya'jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collapse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒塌 瓦解</t>
+    <rPh sb="0" eb="1">
+      <t>dao'ta</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wa'jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>possess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制拥有</t>
+    <rPh sb="0" eb="1">
+      <t>kong'zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong'you</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condemn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谴责 判刑</t>
+    <rPh sb="0" eb="1">
+      <t>qina'ze</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>pan'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gradual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逐渐的 平缓的</t>
+    <rPh sb="0" eb="1">
+      <t>zu'jian'de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ping'huan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psychiatric</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">精神病学的 </t>
+    <rPh sb="0" eb="1">
+      <t>jing's</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xue</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inspire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼓舞</t>
+    <rPh sb="0" eb="1">
+      <t>gu'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>variable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量的</t>
+    <rPh sb="0" eb="1">
+      <t>bian'l</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>investigate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调查  研究</t>
+    <rPh sb="0" eb="1">
+      <t>diao'cha</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yan'jiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reputation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名声 名誉</t>
+    <rPh sb="0" eb="1">
+      <t>ming'sh</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ming'yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">地点 </t>
+    <rPh sb="0" eb="1">
+      <t>di'dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">facility </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设施  设备</t>
+    <rPh sb="0" eb="1">
+      <t>she'shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>she'bei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">跨度  持续 </t>
+    <rPh sb="0" eb="1">
+      <t>kua'du</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chi'xu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spanned 10 years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续了10年</t>
+    <rPh sb="0" eb="1">
+      <t>chi'xu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>l</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>nian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 肺</t>
+    <rPh sb="1" eb="2">
+      <t>fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">drain </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排水 下水道</t>
+    <rPh sb="0" eb="1">
+      <t>pai'shui</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xia'hsui'dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">physician </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医师</t>
+    <rPh sb="0" eb="1">
+      <t>yi'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>density</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密度</t>
+    <rPh sb="0" eb="1">
+      <t>mi'du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斜坡</t>
+    <rPh sb="0" eb="1">
+      <t>xie'po</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">entertain </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>娱乐 招待</t>
+    <rPh sb="0" eb="1">
+      <t>yu'le</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhao'dai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">thrive </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>繁荣 兴旺</t>
+    <rPh sb="0" eb="1">
+      <t>fan'rong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xing'wang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a thriving industry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">兴盛的行业 </t>
+    <rPh sb="0" eb="1">
+      <t>xing'sheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hang'ye</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">procedure </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序 步骤</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'xu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bu'zhou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">verse </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诗 诗篇</t>
+    <rPh sb="0" eb="1">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'pian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>substance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物质</t>
+    <rPh sb="0" eb="1">
+      <t>wu'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>era</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">年代 时代 </t>
+    <rPh sb="0" eb="1">
+      <t>nian'dai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi'dai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intensive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加强的  集中的</t>
+    <rPh sb="0" eb="1">
+      <t>jia'qiang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ji'zhong</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">welfare </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">福利 </t>
+    <rPh sb="0" eb="1">
+      <t>fu'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>immune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">免疫 的 </t>
+    <rPh sb="0" eb="1">
+      <t>mian'yi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">conference </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议</t>
+    <rPh sb="0" eb="1">
+      <t>hui'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">exceed </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜过 超过</t>
+    <rPh sb="0" eb="1">
+      <t>sheng'guo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chao'guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appliance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">器具 装置 </t>
+    <rPh sb="0" eb="1">
+      <t>qi'ju</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhuang'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">electrical appliance </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电器</t>
+    <rPh sb="0" eb="1">
+      <t>dian'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tendency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趋势</t>
+    <rPh sb="0" eb="1">
+      <t>qu'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>participate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">参与   参加 </t>
+    <rPh sb="0" eb="1">
+      <t>can'yu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>can'jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愤怒 情绪激动</t>
+    <rPh sb="0" eb="1">
+      <t>fen'nu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qing'xu'ji'dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fluent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">流畅 的 </t>
+    <rPh sb="0" eb="1">
+      <t>liu'chang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bilingual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双语的</t>
+    <rPh sb="0" eb="1">
+      <t>shuang'yu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conflict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">冲突 矛盾 </t>
+    <rPh sb="0" eb="1">
+      <t>chong'tu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mao'dun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>domestic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内的 家庭的</t>
+    <rPh sb="0" eb="1">
+      <t>guo'nei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jia'ting</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">褪色 </t>
+    <rPh sb="0" eb="1">
+      <t>tui'se</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">时期 阶段 </t>
+    <rPh sb="0" eb="1">
+      <t>shi'qi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jie'duan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>during the first phase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">第一阶段 </t>
+    <rPh sb="0" eb="1">
+      <t>di'yi'jie'duan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">位置   时段 </t>
+    <rPh sb="0" eb="1">
+      <t>wei'zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi'duan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>civilization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文明 文化</t>
+    <rPh sb="0" eb="1">
+      <t>wen'ming</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wen'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">drift </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漂流</t>
+    <rPh sb="0" eb="1">
+      <t>piao'liu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">draft </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草稿</t>
+    <rPh sb="0" eb="1">
+      <t>cao'gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>genetic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗传的</t>
+    <rPh sb="0" eb="1">
+      <t>yi'chuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adhere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准守  沾着</t>
+    <rPh sb="0" eb="1">
+      <t>zhun'shou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhan'zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ancestor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">始祖 祖先 </t>
+    <rPh sb="0" eb="1">
+      <t>shi'zu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zu'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">frame </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构</t>
+    <rPh sb="0" eb="1">
+      <t>jie'gou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>债务</t>
+    <rPh sb="0" eb="1">
+      <t>zhai'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">刺眼的光 </t>
+    <rPh sb="0" eb="1">
+      <t>ci'yan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>guang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>illiterate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文盲的 文盲</t>
+    <rPh sb="0" eb="1">
+      <t>wen'mang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wen'mang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">indispensable </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可缺少的</t>
+    <rPh sb="0" eb="1">
+      <t>bu'ke'que'hsao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dazzle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使目眩</t>
+    <rPh sb="0" eb="1">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>mu'xuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discipline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学科 纪律</t>
+    <rPh sb="0" eb="1">
+      <t>xue'ke</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ji'lv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>differ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使..不同</t>
+    <rPh sb="0" eb="1">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bu'tong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">edition </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本  版次</t>
+    <rPh sb="0" eb="1">
+      <t>ban'ben</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ban'ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>harness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治理 驾驭</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'li</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jia'yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to harness the  anger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制愤怒</t>
+    <rPh sb="0" eb="1">
+      <t>kong'zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen'nu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">identify </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份  同一性</t>
+    <rPh sb="0" eb="1">
+      <t>shen'f</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tong'yi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>习惯于  有..倾向的</t>
+    <rPh sb="0" eb="1">
+      <t>xi'guan'yu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>you</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qing'x</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>babies are  apt to …</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>婴儿习惯于..</t>
+    <rPh sb="0" eb="1">
+      <t>ying'er</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xi'guan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conjunction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">结合 连接词 </t>
+    <rPh sb="0" eb="1">
+      <t>jie'he</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>lian'jie'ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ambassador</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大使 代表</t>
+    <rPh sb="0" eb="1">
+      <t>da'shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dai'biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雕像</t>
+    <rPh sb="0" eb="1">
+      <t>diao'xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">giant </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨大的</t>
+    <rPh sb="0" eb="1">
+      <t>ju'da</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">压抑 </t>
+    <rPh sb="0" eb="1">
+      <t>ya'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>undermine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">architecture </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑学</t>
+    <rPh sb="0" eb="1">
+      <t>jian'zhu'xue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cosmic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宇宙的</t>
+    <rPh sb="0" eb="1">
+      <t>yu'zhou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>submerge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">淹没 </t>
+    <rPh sb="0" eb="1">
+      <t>yan'mo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">committee </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">委员会 </t>
+    <rPh sb="0" eb="1">
+      <t>wei'yuan'hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诱捕</t>
+    <rPh sb="0" eb="1">
+      <t>you'bu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">relevant </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关 的</t>
+    <rPh sb="0" eb="1">
+      <t>xaing'guan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">qualification </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资格</t>
+    <rPh sb="0" eb="1">
+      <t>zi'ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效率</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'lv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">oral </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">口头的 </t>
+    <rPh sb="0" eb="1">
+      <t>ko'tou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原子</t>
+    <rPh sb="0" eb="1">
+      <t>yuan'zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>literature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文学</t>
+    <rPh sb="0" eb="1">
+      <t>wen'xue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">insight </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞察力</t>
+    <rPh sb="0" eb="1">
+      <t>dong'cha'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expertise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业知识</t>
+    <rPh sb="0" eb="1">
+      <t>zhuan'ye'zh'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>individual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人的</t>
+    <rPh sb="0" eb="1">
+      <t>ge'ren</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">colony </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殖民地</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'ming'di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">rank </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">排  等级 </t>
+    <rPh sb="0" eb="1">
+      <t>pai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>deng'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the rank of captain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上尉军衔</t>
+    <rPh sb="0" eb="1">
+      <t>shang'wei'jun'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">obstacle </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>障碍物</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'ai'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">绝对的 完全的 </t>
+    <rPh sb="0" eb="1">
+      <t>jue'dui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wan'quan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打算 想要</t>
+    <rPh sb="0" eb="1">
+      <t>da'suan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xiang'yao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">readily </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容易的  乐意 的</t>
+    <rPh sb="0" eb="1">
+      <t>rong'yi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>le'yi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>票价 费用</t>
+    <rPh sb="0" eb="1">
+      <t>piao'jia</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fei'yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transparent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>透明的</t>
+    <rPh sb="0" eb="1">
+      <t>tou'm</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>syllabus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教学大纲 课程表</t>
+    <rPh sb="0" eb="1">
+      <t>jiao'xue'da'gang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ke'chebg'biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crucial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要的决定性的</t>
+    <rPh sb="0" eb="1">
+      <t>zhong'yao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jue'ding'x</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">manipulate </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">操作 </t>
+    <rPh sb="0" eb="1">
+      <t>cao'zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incredible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难以置信的</t>
+    <rPh sb="0" eb="1">
+      <t>nan'yi'zhi'x</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有机的</t>
+    <rPh sb="0" eb="1">
+      <t>you'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>therapy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">治疗 </t>
+    <rPh sb="0" eb="1">
+      <t>zhi'liao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>therapy group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗小组</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'liao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiao'zu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>racial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种族的 人种的</t>
+    <rPh sb="0" eb="1">
+      <t>zhong'zu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ren'zhong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">court </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法庭</t>
+    <rPh sb="0" eb="1">
+      <t>fa'ting</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>violent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴力的</t>
+    <rPh sb="0" eb="1">
+      <t>bao'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>utilise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用  利用</t>
+    <rPh sb="0" eb="1">
+      <t>shi'yong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>li'yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proposal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">提议  建议 求婚 </t>
+    <rPh sb="0" eb="1">
+      <t>ti'yi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jian'yi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>qiu'hun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">zinc </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锌</t>
+    <rPh sb="0" eb="1">
+      <t>xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>luxury</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">奢侈品 </t>
+    <rPh sb="0" eb="1">
+      <t>she'chi'p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">casual </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">偶然的 </t>
+    <rPh sb="0" eb="1">
+      <t>uo'ran</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commitment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">承诺  保证 </t>
+    <rPh sb="0" eb="1">
+      <t>cheng'nuo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bao'z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fluid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流动的 液体</t>
+    <rPh sb="0" eb="1">
+      <t>liu'dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ye'ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">dispose </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">处理   安排 </t>
+    <rPh sb="0" eb="1">
+      <t>chu'li</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>an'pai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fundamental</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本的</t>
+    <rPh sb="0" eb="1">
+      <t>ji'ben</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fundamental particle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本粒子</t>
+    <rPh sb="0" eb="1">
+      <t>ji'ben'li'zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">倾向 </t>
+    <rPh sb="0" eb="1">
+      <t>qing'xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">bachelor </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学士 单身汉</t>
+    <rPh sb="0" eb="1">
+      <t>xue'shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dan'shen'han</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aspiration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">渴望 抱负 </t>
+    <rPh sb="0" eb="1">
+      <t>k'wang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bao'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exemplify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">例证 示例 </t>
+    <rPh sb="0" eb="1">
+      <t>li'zheng</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>urgent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">紧急的 </t>
+    <rPh sb="0" eb="1">
+      <t>jin'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">hike </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徒步旅行</t>
+    <rPh sb="0" eb="1">
+      <t>tu'bu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lv'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endeavour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竭力</t>
+    <rPh sb="0" eb="1">
+      <t>jie'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loyal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忠诚的</t>
+    <rPh sb="0" eb="1">
+      <t>zhong'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追溯 回溯</t>
+    <rPh sb="0" eb="1">
+      <t>zhui's</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hui'su</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">region </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地区</t>
+    <rPh sb="0" eb="1">
+      <t>di'qu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使完整</t>
+    <rPh sb="0" eb="1">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>wan'z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integrate the parts into a whole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把各部分组成一个 整体</t>
+    <rPh sb="0" eb="1">
+      <t>ba</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ge'bu'f</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zu'c</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zheng'ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>constant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">不变的 恒定的 </t>
+    <rPh sb="0" eb="1">
+      <t>bu'bian'de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>heng'ding</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>haul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖 拉</t>
+    <rPh sb="0" eb="1">
+      <t>tuo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>la</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scheme</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">计划 组合 </t>
+    <rPh sb="0" eb="1">
+      <t>ji'hua</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zu'he</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -21625,14 +25241,14 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -21937,16 +25553,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1951</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:10" ht="23" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -22174,16 +25790,16 @@
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>1955</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
       <c r="J11" s="3"/>
     </row>
   </sheetData>
@@ -22201,7 +25817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -33620,7 +37236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
+    <sheetView topLeftCell="A275" workbookViewId="0">
       <selection activeCell="B282" sqref="B282"/>
     </sheetView>
   </sheetViews>
@@ -33994,7 +37610,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="52" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="7" t="s">
         <v>2742</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -35983,9 +39599,2189 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B270"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
+      <selection activeCell="B273" sqref="B273"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="48.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3231</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3233</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3235</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3237</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>3239</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>3241</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>3242</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>3244</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>3246</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>3248</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>3250</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>3252</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>3254</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>3256</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>3259</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>3261</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>3263</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>3264</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>3266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>3267</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>3268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>3269</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>3271</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>3272</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>3273</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>3274</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3275</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>3277</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>3278</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>3279</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>3282</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>3283</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>3286</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>3287</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3289</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>3291</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>3293</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>3294</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>3295</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>3297</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>3298</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>3299</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>3301</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>3302</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3303</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>3305</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>3307</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>3308</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>3309</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>3311</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>3312</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>3313</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>3314</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>3315</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>3316</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3317</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>3318</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>3319</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>3321</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>3323</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>3325</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>3326</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>3327</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>3329</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>3331</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>3332</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>2979</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>3334</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>3336</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>3337</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>3338</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>3339</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>3340</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>3342</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>3344</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>3346</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>3348</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>3350</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>3352</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>3354</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>3356</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>3357</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>3358</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>3359</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>3361</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>3362</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>3363</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>3365</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>3366</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>3367</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>3368</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>3370</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>3371</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>3372</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>3373</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>3374</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>3376</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>3377</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>3378</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>3379</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>3381</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>3382</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>3383</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>3385</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>3387</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>3389</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>3391</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>3393</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>3395</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>3396</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>3397</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>3398</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>3399</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>3402</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>3403</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>3404</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>3405</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>3406</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>3407</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>3408</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>3409</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>3411</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>3413</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>3414</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>3415</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>3416</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>3417</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>3418</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>3419</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>3422</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>3423</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>3425</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>3427</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>3428</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>3429</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>3430</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>3431</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>3433</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>3434</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>3435</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>3437</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>3439</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>3441</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>3443</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>3445</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>3446</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>3447</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>3448</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>3450</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>3452</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>3454</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>3456</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>3457</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>3458</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>3460</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>3461</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>3463</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>3464</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>3465</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>3467</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>3468</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>3469</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>3471</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>3472</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>3473</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>3474</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>3475</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>3476</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>3477</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>3479</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>3481</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>3482</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>3484</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>3485</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>3486</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>3487</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>3488</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>3489</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>3491</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>3492</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>3493</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>3494</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>3496</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>3497</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>3498</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>3499</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>3501</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>3503</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>3504</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>3505</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>3506</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>3507</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>3508</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>3509</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>3511</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>3512</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>3513</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>3514</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>3515</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>3516</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>3517</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>3518</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>3519</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>3520</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>3521</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>3522</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>3523</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>3524</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>3525</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>3526</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>3527</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>3528</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>3529</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>3530</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>3531</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>3532</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>3533</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>3535</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>3536</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>3537</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>3538</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>3540</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>3541</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>3542</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>3543</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>3544</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>3545</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>3546</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>3547</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>3548</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>3549</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>3551</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>3552</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>3553</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>3554</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>3555</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>3556</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>3557</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>3558</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>3559</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>3561</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>3562</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>3563</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>3564</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>3565</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>3566</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>3567</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>3568</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>3569</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>3571</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>3572</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>3573</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>3574</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>3575</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>3576</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>3577</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>3578</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>3579</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>3581</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>3583</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>3584</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>3585</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>3586</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>3587</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>3588</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>3589</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>3591</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>3593</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>3594</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>3595</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>3596</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>3597</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>3598</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>3599</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>3601</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>3602</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>3603</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>3604</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>3605</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>3606</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>3607</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>3610</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
+        <v>3611</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>3612</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>3613</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>3615</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>3616</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>3617</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>3618</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>3619</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>3621</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>3622</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
+        <v>3623</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>3625</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>3626</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>3627</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>3628</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>3629</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>3631</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>3632</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>3633</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>3634</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>3635</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>3636</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>3637</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>3638</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>3639</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>3641</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>3642</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>3643</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>3644</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>3645</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>3646</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>3648</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>3649</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
+        <v>3650</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>3651</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>3652</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>3653</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
+        <v>3654</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>3655</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
+        <v>3656</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>3657</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
+        <v>3658</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>3659</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
+        <v>3660</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>3661</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
+        <v>3663</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>3662</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
+        <v>3664</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>3665</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" s="1" t="s">
+        <v>3666</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>3667</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
+        <v>3668</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>3669</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" s="1" t="s">
+        <v>3670</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>3671</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" s="1" t="s">
+        <v>3672</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>3673</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" s="1" t="s">
+        <v>3674</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>3675</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>3677</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" s="1" t="s">
+        <v>3678</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>3679</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
+        <v>3680</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>3681</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" s="1" t="s">
+        <v>3682</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>3683</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
+        <v>3684</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>3685</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" s="1" t="s">
+        <v>3686</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>3687</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
+        <v>3688</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>3689</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" s="1" t="s">
+        <v>3690</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>3691</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" s="1" t="s">
+        <v>3692</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>3693</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" s="1" t="s">
+        <v>3694</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>3695</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" s="1" t="s">
+        <v>3696</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>3697</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" s="1" t="s">
+        <v>3698</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>3699</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" s="1" t="s">
+        <v>3700</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" s="1" t="s">
+        <v>3702</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>3703</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" s="1" t="s">
+        <v>3704</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>3705</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" s="1" t="s">
+        <v>3706</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>3707</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" s="1" t="s">
+        <v>3708</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>3709</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" s="1" t="s">
+        <v>3710</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>3711</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" s="1" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>3713</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" s="1" t="s">
+        <v>3714</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>3715</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" s="1" t="s">
+        <v>3716</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>3717</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" s="1" t="s">
+        <v>3718</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>3719</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" s="1" t="s">
+        <v>3720</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>3721</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" s="1" t="s">
+        <v>3722</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>3723</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" s="1" t="s">
+        <v>3724</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>3725</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" s="1" t="s">
+        <v>3726</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>3727</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" s="1" t="s">
+        <v>3728</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>3729</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" s="1" t="s">
+        <v>3730</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>3731</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" s="1" t="s">
+        <v>3732</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>3733</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" s="1" t="s">
+        <v>3734</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>3735</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" s="1" t="s">
+        <v>3736</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>3737</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" s="1" t="s">
+        <v>3738</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>3741</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" s="1" t="s">
+        <v>3742</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>3743</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" s="1" t="s">
+        <v>3744</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" s="1" t="s">
+        <v>3746</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>3747</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" s="1" t="s">
+        <v>3748</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>3749</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" s="1" t="s">
+        <v>3750</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>3751</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" s="1" t="s">
+        <v>3752</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>3753</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" s="1" t="s">
+        <v>3754</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>3755</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" s="1" t="s">
+        <v>3756</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>3757</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" s="1" t="s">
+        <v>3758</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>3759</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -36354,379 +42150,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B44"/>
-  <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="28.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/雅思核心词汇精讲精练.xlsx
+++ b/雅思核心词汇精讲精练.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="记忆法" sheetId="40" r:id="rId1"/>
@@ -18,19 +18,14 @@
     <sheet name="初-7-12" sheetId="46" r:id="rId4"/>
     <sheet name="初-13-19" sheetId="47" r:id="rId5"/>
     <sheet name="初-20-26" sheetId="48" r:id="rId6"/>
-    <sheet name="中-1" sheetId="14" r:id="rId7"/>
-    <sheet name="中-2" sheetId="15" r:id="rId8"/>
-    <sheet name="中-3" sheetId="27" r:id="rId9"/>
-    <sheet name="中-4" sheetId="28" r:id="rId10"/>
-    <sheet name="中-5" sheetId="29" r:id="rId11"/>
-    <sheet name="中-6" sheetId="30" r:id="rId12"/>
-    <sheet name="中-7" sheetId="32" r:id="rId13"/>
-    <sheet name="中-8" sheetId="33" r:id="rId14"/>
-    <sheet name="中-9" sheetId="35" r:id="rId15"/>
-    <sheet name="中-10" sheetId="36" r:id="rId16"/>
-    <sheet name="中-11" sheetId="37" r:id="rId17"/>
-    <sheet name="中-12" sheetId="38" r:id="rId18"/>
-    <sheet name="高-1" sheetId="39" r:id="rId19"/>
+    <sheet name="中-1-6" sheetId="14" r:id="rId7"/>
+    <sheet name="中-7" sheetId="32" r:id="rId8"/>
+    <sheet name="中-8" sheetId="33" r:id="rId9"/>
+    <sheet name="中-9" sheetId="35" r:id="rId10"/>
+    <sheet name="中-10" sheetId="36" r:id="rId11"/>
+    <sheet name="中-11" sheetId="37" r:id="rId12"/>
+    <sheet name="中-12" sheetId="38" r:id="rId13"/>
+    <sheet name="高-1" sheetId="39" r:id="rId14"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -45,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3942" uniqueCount="3843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3932" uniqueCount="3843">
   <si>
     <t>portrait</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26373,2480 +26368,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B56"/>
-  <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>881</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-    </row>
-    <row r="55" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B55"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>912</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>923</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>937</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>938</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>939</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>940</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>941</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>942</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>950</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>953</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>954</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>964</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>965</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>966</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>967</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>968</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>969</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>970</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>978</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>979</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>980</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>981</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>982</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>984</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>993</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>994</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>995</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>996</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>999</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-    </row>
-    <row r="55" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B55"/>
-  <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="36.83203125" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-    </row>
-    <row r="55" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B66"/>
-  <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="34.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>1131</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>1135</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>1137</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>1141</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>1143</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>1161</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>1165</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>1173</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>1179</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>1187</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>1192</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>1197</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>1214</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>1201</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>1219</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>1232</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>1233</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>1234</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>1235</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>1236</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B73"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="42.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>1240</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>1241</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>1242</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>1244</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>1257</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>1258</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>1259</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>1261</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>1262</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>1263</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>1267</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>1269</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>1268</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>1289</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>1270</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>1271</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>1273</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>1274</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>1275</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>1295</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>1296</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>1315</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>1297</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>1298</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>1299</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>1301</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>1302</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>1324</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>1303</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>1304</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>1305</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>1306</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>1308</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>1335</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>1311</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>1312</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>1339</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>1342</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>1344</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>1345</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>1347</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>1359</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>1348</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>1350</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>1352</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>1354</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>1362</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>1364</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>1366</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>1367</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-    </row>
-    <row r="70" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-    </row>
-    <row r="71" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-    </row>
-    <row r="72" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-    </row>
-    <row r="73" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -29448,7 +26969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFF0000"/>
@@ -30103,7 +27624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFF0000"/>
@@ -30734,7 +28255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFF0000"/>
@@ -31357,7 +28878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFF0000"/>
@@ -32611,8 +30132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="50" workbookViewId="0">
-      <selection activeCell="G184" sqref="G184"/>
+    <sheetView topLeftCell="A146" zoomScale="50" workbookViewId="0">
+      <selection activeCell="G185" sqref="G185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -41405,15 +38926,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B315"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView topLeftCell="A302" workbookViewId="0">
+      <selection activeCell="B257" sqref="B257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="40.6640625" style="1" customWidth="1"/>
     <col min="2" max="3" width="22" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.83203125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="1"/>
@@ -41857,6 +39378,2086 @@
       </c>
       <c r="B55" s="1" t="s">
         <v>592</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>1106</v>
       </c>
     </row>
   </sheetData>
@@ -41868,22 +41469,22 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B59"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -41891,489 +41492,547 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>593</v>
+        <v>1107</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>594</v>
+        <v>1108</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>595</v>
+        <v>1109</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>596</v>
+        <v>1110</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>597</v>
+        <v>1111</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>598</v>
+        <v>1112</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>605</v>
+        <v>1127</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>607</v>
+        <v>1113</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>617</v>
+        <v>1114</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>608</v>
+        <v>1131</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>609</v>
+        <v>1115</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>610</v>
+        <v>1123</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>611</v>
+        <v>1116</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>612</v>
+        <v>1135</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>613</v>
+        <v>1137</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>614</v>
+        <v>1117</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>625</v>
+        <v>1118</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>631</v>
+        <v>1141</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>626</v>
+        <v>1143</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>634</v>
+        <v>1145</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>627</v>
+        <v>1147</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>628</v>
+        <v>1149</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>638</v>
+        <v>1151</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>640</v>
+        <v>1153</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>629</v>
+        <v>1155</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>12</v>
+        <v>1157</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>644</v>
+        <v>1159</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>646</v>
+        <v>1161</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>647</v>
+        <v>1163</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>648</v>
+        <v>1165</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>649</v>
+        <v>1167</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>650</v>
+        <v>1169</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>651</v>
+        <v>1171</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>652</v>
+        <v>1173</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>660</v>
+        <v>1175</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>661</v>
+        <v>1177</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>662</v>
+        <v>1179</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>663</v>
+        <v>1181</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>664</v>
+        <v>1183</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>665</v>
+        <v>1185</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>666</v>
+        <v>1187</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>674</v>
+        <v>1189</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>676</v>
+        <v>1190</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>677</v>
+        <v>1191</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>678</v>
+        <v>1192</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>679</v>
+        <v>1193</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>680</v>
+        <v>1194</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>681</v>
+        <v>1195</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>682</v>
+        <v>1196</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>683</v>
+        <v>1197</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>692</v>
+        <v>1214</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>693</v>
+        <v>1198</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>694</v>
+        <v>1199</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>695</v>
+        <v>1200</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>696</v>
+        <v>1202</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>697</v>
+        <v>1201</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>705</v>
+        <v>1219</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>698</v>
+        <v>1223</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>707</v>
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>1231</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B53"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.1640625" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="1" max="1" width="42.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26" x14ac:dyDescent="0.3">
@@ -42386,419 +42045,559 @@
     </row>
     <row r="2" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>708</v>
+        <v>1237</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>715</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>709</v>
+        <v>1238</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>716</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>710</v>
+        <v>1248</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>717</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>711</v>
+        <v>1239</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>718</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>712</v>
+        <v>1240</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>719</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>713</v>
+        <v>1241</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>720</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>714</v>
+        <v>1242</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>721</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>722</v>
+        <v>1243</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>730</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>723</v>
+        <v>1244</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>724</v>
+        <v>1245</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>731</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>725</v>
+        <v>1257</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>732</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>726</v>
+        <v>1258</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>733</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>727</v>
+        <v>1259</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>734</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>728</v>
+        <v>1260</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>735</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>729</v>
+        <v>1261</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>736</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>737</v>
+        <v>1262</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>738</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>739</v>
+        <v>1263</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>740</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>741</v>
+        <v>1264</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>742</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>743</v>
+        <v>1265</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>744</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>745</v>
+        <v>1266</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>751</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>746</v>
+        <v>1267</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>752</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>747</v>
+        <v>1269</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>753</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>748</v>
+        <v>1268</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>754</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>749</v>
+        <v>1289</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>750</v>
+        <v>1270</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>756</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>757</v>
+        <v>1271</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>765</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>758</v>
+        <v>1273</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>766</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>759</v>
+        <v>1274</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>767</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>760</v>
+        <v>1275</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>768</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>761</v>
+        <v>1295</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>769</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>762</v>
+        <v>1296</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>770</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>763</v>
+        <v>1315</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>771</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>764</v>
+        <v>1317</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>772</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>773</v>
+        <v>1297</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>780</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>774</v>
+        <v>1298</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>781</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>775</v>
+        <v>1299</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>782</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>776</v>
+        <v>1300</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>783</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>777</v>
+        <v>1301</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>784</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>778</v>
+        <v>1302</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>785</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>779</v>
+        <v>1324</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>786</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>787</v>
+        <v>1303</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>794</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>788</v>
+        <v>1304</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>795</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>789</v>
+        <v>1305</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>796</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>790</v>
+        <v>1306</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>797</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>791</v>
+        <v>1307</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>798</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>792</v>
+        <v>1308</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>799</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>793</v>
+        <v>1309</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>800</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>801</v>
+        <v>1310</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>802</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>803</v>
+        <v>1335</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>807</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>804</v>
+        <v>1311</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>808</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>805</v>
+        <v>1312</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>809</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>806</v>
+        <v>124</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>810</v>
-      </c>
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/雅思核心词汇精讲精练.xlsx
+++ b/雅思核心词汇精讲精练.xlsx
@@ -19,13 +19,8 @@
     <sheet name="初-13-19" sheetId="47" r:id="rId5"/>
     <sheet name="初-20-26" sheetId="48" r:id="rId6"/>
     <sheet name="中-1-6" sheetId="14" r:id="rId7"/>
-    <sheet name="中-7" sheetId="32" r:id="rId8"/>
-    <sheet name="中-8" sheetId="33" r:id="rId9"/>
-    <sheet name="中-9" sheetId="35" r:id="rId10"/>
-    <sheet name="中-10" sheetId="36" r:id="rId11"/>
-    <sheet name="中-11" sheetId="37" r:id="rId12"/>
-    <sheet name="中-12" sheetId="38" r:id="rId13"/>
-    <sheet name="高-1" sheetId="39" r:id="rId14"/>
+    <sheet name="中-7-12" sheetId="32" r:id="rId8"/>
+    <sheet name="高-1" sheetId="39" r:id="rId9"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -40,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3932" uniqueCount="3843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3922" uniqueCount="3843">
   <si>
     <t>portrait</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26366,2865 +26361,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B73"/>
-  <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="42.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1370</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1371</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>1372</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>1373</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>1374</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>1375</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>1376</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>1378</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1397</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>1379</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>1380</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1399</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>1381</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>1382</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>1383</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>1384</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>1386</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>1387</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>1407</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>1408</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>1411</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>1413</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>1415</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>1417</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>1419</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>1421</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>1423</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>1425</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>1427</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>1429</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>1431</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>1433</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>1434</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>1435</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>1436</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>1437</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>1438</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>1439</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>1441</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>1442</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>1445</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>1446</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>1447</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>1449</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>1451</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>1453</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>1454</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>1455</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>1457</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>1458</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>1459</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>1461</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>1462</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>1463</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>1465</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>1467</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>1468</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>1469</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>1472</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>1471</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>1473</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>1475</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>1477</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>1479</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>1481</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>1483</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>1485</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>1487</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>1489</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>1491</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>1492</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>1493</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>1494</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>1495</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>1496</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>1497</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>1499</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>1501</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>1502</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>1503</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>1505</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>1508</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>1507</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>1509</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B79"/>
-  <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="51.1640625" customWidth="1"/>
-    <col min="2" max="2" width="30.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1511</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1512</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>1515</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1516</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>1517</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>1519</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>1521</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>1525</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>1527</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>1529</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>1531</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1532</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>1534</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>1535</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>1537</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1538</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>1540</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>1542</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>1544</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>1546</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>1548</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1549</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>1550</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1551</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>1552</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>1553</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>1554</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>1555</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>1556</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>1557</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>1558</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>1560</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>1562</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>1563</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>1564</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>1565</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>1566</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>1567</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>1568</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>1569</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>1570</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>1571</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>1572</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>1573</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>1576</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>1578</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>1579</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>1580</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>1581</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>1582</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>1583</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>1584</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>1586</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>1588</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>1590</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>1592</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>1594</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>1595</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>1596</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>1598</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>1600</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>1601</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>1602</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>1603</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>1604</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>1605</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>1606</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>1608</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>1609</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>1610</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>1611</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>1612</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>1613</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>1614</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>1615</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>1616</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>1617</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>1618</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>1619</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>1620</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>1622</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>1623</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>1624</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>1626</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>1627</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>1628</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>1630</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>1632</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>1633</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>1634</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>1636</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>1638</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>1640</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>1641</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>1642</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>1643</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>1644</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>1645</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>1646</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>1647</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>1648</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>1649</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>1650</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>1651</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
-        <v>1662</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>1653</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
-        <v>1663</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>1654</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
-        <v>1655</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>1656</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>1657</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>1658</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>1659</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>1660</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>1664</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>1661</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B79"/>
-  <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="51.1640625" customWidth="1"/>
-    <col min="2" max="2" width="30.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1665</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1666</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1667</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1668</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>1669</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>1671</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>1675</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1676</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>1677</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>1679</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>1681</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>1683</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1684</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>1685</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1686</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1688</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>1689</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1690</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>1691</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1692</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>1693</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1694</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>1695</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1696</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>1697</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>1699</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>1701</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1702</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>1703</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1704</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>1705</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1706</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>1707</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>1708</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>1709</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>1710</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>1711</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>1712</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>1713</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>1714</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>1715</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>1716</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>1717</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>1718</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>1719</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>1720</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>1721</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>1722</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>1723</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>1725</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>1726</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>1727</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>1730</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>1728</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>1731</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>1647</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>1732</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>1734</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>1736</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>1738</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>1739</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>1740</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>1741</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>1742</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>1743</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>1744</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>1745</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>1746</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>1748</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>1749</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>1750</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>1751</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>1752</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>1753</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>1754</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>1755</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>1756</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>1758</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>1759</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>1760</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>1761</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>1762</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>1763</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>1764</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>1765</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>1766</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>1767</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>1768</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>1769</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>1770</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>1771</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>1772</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>1773</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>1774</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>1775</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>1776</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>1777</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>1778</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>1779</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>1780</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>1781</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>1782</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>1783</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>1784</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>1786</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>1788</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>1789</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>1790</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>1791</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>1792</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>1793</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>1794</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>1796</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>1797</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>1800</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>1801</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>1802</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>1803</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>1804</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-    </row>
-    <row r="75" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-    </row>
-    <row r="76" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-    </row>
-    <row r="77" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-    </row>
-    <row r="78" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-    </row>
-    <row r="79" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B80"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="51.1640625" customWidth="1"/>
-    <col min="2" max="2" width="30.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1806</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1807</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1808</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1809</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>1810</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>1811</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1812</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>1813</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1814</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>1815</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1816</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>1817</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1818</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1819</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>1820</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1821</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>1822</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1823</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>1824</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1825</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>1826</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1827</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>1828</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1829</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>1830</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1831</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>1832</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>1834</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1835</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>1836</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1837</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>1838</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1839</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>1840</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1841</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>1842</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1843</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>1844</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1845</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>1846</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>1847</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>1848</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>1849</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>1850</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>1851</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>1852</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>1853</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>1854</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>1855</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>1856</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>1857</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>1858</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>1859</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>1860</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>1862</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>1863</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>1864</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>1865</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>1866</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>1868</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>1869</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>1870</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>1871</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>1872</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>1873</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>1874</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>1876</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>1878</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>1879</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>1880</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>1881</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>1882</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>1883</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>1884</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>1885</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>1886</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>1889</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>1890</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>1891</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>1887</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>1888</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>1892</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>1893</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>1895</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>1896</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>1897</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>1898</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>1899</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>1900</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>1901</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>1902</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>1903</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>1904</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>1906</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>1907</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>1908</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>1909</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>1910</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>1912</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>1913</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>1914</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>1915</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>1916</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>1917</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>1918</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>1919</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>1920</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>1921</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>1922</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>1923</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>1924</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>1925</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>1926</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>1927</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>1928</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>1929</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>1930</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>1931</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>1932</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>1933</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>1934</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>1935</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>1936</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>1937</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>1938</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>1939</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>1940</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>1941</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-    </row>
-    <row r="72" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-    </row>
-    <row r="73" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-    </row>
-    <row r="74" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-    </row>
-    <row r="75" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-    </row>
-    <row r="76" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-    </row>
-    <row r="77" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-    </row>
-    <row r="78" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-    </row>
-    <row r="79" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-    </row>
-    <row r="80" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B80"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="51.1640625" customWidth="1"/>
-    <col min="2" max="2" width="30.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-    </row>
-    <row r="55" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-    </row>
-    <row r="57" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-    </row>
-    <row r="58" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-    </row>
-    <row r="59" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-    </row>
-    <row r="60" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-    </row>
-    <row r="61" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-    </row>
-    <row r="62" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-    </row>
-    <row r="63" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-    </row>
-    <row r="64" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-    </row>
-    <row r="65" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-    </row>
-    <row r="66" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-    </row>
-    <row r="67" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-    </row>
-    <row r="68" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-    </row>
-    <row r="69" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-    </row>
-    <row r="70" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-    </row>
-    <row r="71" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-    </row>
-    <row r="72" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-    </row>
-    <row r="73" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-    </row>
-    <row r="74" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-    </row>
-    <row r="75" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-    </row>
-    <row r="76" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-    </row>
-    <row r="77" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-    </row>
-    <row r="78" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-    </row>
-    <row r="79" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-    </row>
-    <row r="80" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B110"/>
@@ -38929,7 +36065,7 @@
   <dimension ref="A1:B315"/>
   <sheetViews>
     <sheetView topLeftCell="A302" workbookViewId="0">
-      <selection activeCell="B257" sqref="B257"/>
+      <selection activeCell="A316" sqref="A316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -41472,10 +38608,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B423"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" topLeftCell="A387" workbookViewId="0">
+      <selection activeCell="E401" sqref="E401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -42012,6 +39148,2862 @@
         <v>1231</v>
       </c>
     </row>
+    <row r="67" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A224" s="1" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A226" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A227" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A228" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A229" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A230" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A232" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A234" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A236" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A237" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A238" s="1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A239" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A240" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A241" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A242" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A243" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A244" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A245" s="1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A246" s="1" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A247" s="1" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A248" s="1" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A249" s="1" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A250" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A251" s="1" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A252" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A253" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A254" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A255" s="1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A256" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A257" s="1" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A258" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A259" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A260" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A261" s="1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A262" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A263" s="1" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A264" s="1" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A265" s="1" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A266" s="1" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A267" s="1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A268" s="1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A269" s="1" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A270" s="1" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A271" s="1" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A272" s="1" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A273" s="1" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A274" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A275" s="1" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A276" s="1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A277" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A278" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A279" s="1" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A280" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A281" s="1" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A282" s="1" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A283" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A284" s="1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A285" s="1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A286" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A287" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A288" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A289" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A290" s="1" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A291" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A292" s="1" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A293" s="1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A294" s="1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A295" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A296" s="1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A297" s="1" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A298" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A299" s="1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A300" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A301" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A302" s="1" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A303" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A304" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A305" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A306" s="1" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A307" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A308" s="1" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A309" s="1" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A310" s="1" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A311" s="1" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A312" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A313" s="1" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A314" s="1" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A315" s="1" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A316" s="1" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A317" s="1" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A318" s="1" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A319" s="1" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A320" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A321" s="1" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A322" s="1" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A323" s="1" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A324" s="1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A325" s="1" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A326" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A327" s="1" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A328" s="1" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A329" s="1" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A330" s="1" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A331" s="1" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A332" s="1" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A333" s="1" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A334" s="1" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A335" s="1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A336" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A337" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A338" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A339" s="1" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A340" s="1" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A341" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A342" s="1" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A343" s="1" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A344" s="1" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A345" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A346" s="1" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A347" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A348" s="1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A349" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A350" s="1" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A351" s="1" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A352" s="1" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A353" s="1" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A354" s="1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A355" s="1" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A356" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A357" s="1" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A358" s="1" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A359" s="1" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A360" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A361" s="1" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A362" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A363" s="1" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A364" s="1" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A365" s="1" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A366" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A367" s="1" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A368" s="1" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A369" s="1" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A370" s="1" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A371" s="1" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A372" s="1" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A373" s="1" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A374" s="1" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A375" s="1" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A376" s="1" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A377" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A378" s="1" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A379" s="1" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A380" s="1" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A381" s="1" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A382" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A383" s="1" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A384" s="1" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A385" s="1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A386" s="1" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A387" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A388" s="1" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A389" s="1" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A390" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A391" s="1" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A392" s="1" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A393" s="1" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A394" s="1" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A395" s="1" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A396" s="1" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A397" s="1" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A398" s="1" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A399" s="1" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A400" s="1" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A401" s="1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A402" s="1" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A403" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A404" s="1" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A405" s="1" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A406" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A407" s="1" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A408" s="1" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A409" s="1" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A410" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A411" s="1" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A412" s="1" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A413" s="1" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A414" s="1" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A415" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A416" s="1" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A417" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A418" s="1" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A419" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A420" s="1" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A421" s="1" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A422" s="1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A423" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>1941</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42023,16 +42015,16 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="1" max="1" width="51.1640625" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26" x14ac:dyDescent="0.3">
@@ -42044,540 +42036,272 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1246</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1247</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1249</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1250</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>1240</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1251</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>1241</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1252</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>1242</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1253</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1254</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>1244</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1255</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1256</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>1257</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1276</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>1258</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1277</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>1259</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1278</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1279</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>1261</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1280</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>1262</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1281</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>1263</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1282</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1283</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1284</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1285</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>1267</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1286</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>1269</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>1287</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>1268</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>1288</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>1289</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>1290</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>1270</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>1291</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
     </row>
     <row r="27" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>1271</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>1272</v>
-      </c>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>1273</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>1292</v>
-      </c>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>1274</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>1293</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>1275</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>1294</v>
-      </c>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>1295</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>1313</v>
-      </c>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
     </row>
     <row r="32" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>1296</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>1314</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
     </row>
     <row r="33" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>1315</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>1316</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>1318</v>
-      </c>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
     </row>
     <row r="35" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>1297</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>1319</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
     </row>
     <row r="36" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>1298</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>1320</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>1299</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>1321</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
     </row>
     <row r="38" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>1322</v>
-      </c>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
     </row>
     <row r="39" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>1301</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>1323</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
     </row>
     <row r="40" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>1302</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>1326</v>
-      </c>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
     </row>
     <row r="41" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>1324</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>1325</v>
-      </c>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
     </row>
     <row r="42" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>1303</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>1327</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
     </row>
     <row r="43" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>1304</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>1328</v>
-      </c>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
     </row>
     <row r="44" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>1305</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>1329</v>
-      </c>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
     </row>
     <row r="45" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>1306</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>1330</v>
-      </c>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
     </row>
     <row r="46" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>1331</v>
-      </c>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
     </row>
     <row r="47" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>1308</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>1332</v>
-      </c>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
     </row>
     <row r="48" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>1333</v>
-      </c>
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
     </row>
     <row r="49" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>1334</v>
-      </c>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
     </row>
     <row r="50" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>1335</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>1336</v>
-      </c>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
     </row>
     <row r="51" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>1311</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>1337</v>
-      </c>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
     </row>
     <row r="52" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>1312</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>1338</v>
-      </c>
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
     </row>
     <row r="53" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>1341</v>
-      </c>
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
     </row>
     <row r="54" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>1339</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>1340</v>
-      </c>
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
     </row>
     <row r="55" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>1342</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>1356</v>
-      </c>
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
     </row>
     <row r="56" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>1357</v>
-      </c>
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
     </row>
     <row r="57" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>1344</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>1358</v>
-      </c>
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
     </row>
     <row r="58" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>1345</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>1346</v>
-      </c>
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
     </row>
     <row r="59" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>1347</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>1361</v>
-      </c>
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
     </row>
     <row r="60" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>1359</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>1360</v>
-      </c>
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
     </row>
     <row r="61" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>1348</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>1349</v>
-      </c>
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
     </row>
     <row r="62" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>1350</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>1351</v>
-      </c>
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
     </row>
     <row r="63" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>1352</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>1353</v>
-      </c>
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
     </row>
     <row r="64" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>1354</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>1355</v>
-      </c>
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
     </row>
     <row r="65" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>1362</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>1363</v>
-      </c>
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
     </row>
     <row r="66" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>1364</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>1365</v>
-      </c>
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
     </row>
     <row r="67" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>1366</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>1368</v>
-      </c>
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>1367</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>1369</v>
-      </c>
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
     </row>
     <row r="69" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
@@ -42598,6 +42322,34 @@
     <row r="73" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
+    </row>
+    <row r="74" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/雅思核心词汇精讲精练.xlsx
+++ b/雅思核心词汇精讲精练.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="记忆法" sheetId="40" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="初-20-26" sheetId="48" r:id="rId6"/>
     <sheet name="中-1-6" sheetId="14" r:id="rId7"/>
     <sheet name="中-7-12" sheetId="32" r:id="rId8"/>
-    <sheet name="高-1" sheetId="39" r:id="rId9"/>
+    <sheet name="高-1-6" sheetId="39" r:id="rId9"/>
+    <sheet name="易混淆" sheetId="49" r:id="rId10"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3922" uniqueCount="3843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3928" uniqueCount="3848">
   <si>
     <t>portrait</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25677,6 +25678,35 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>yi'tiao'mi'mi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏僻的</t>
+    <rPh sb="0" eb="1">
+      <t>pain'pi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>literacy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">读写能力 </t>
+    <rPh sb="0" eb="1">
+      <t>du'xie'neng'li</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -26079,10 +26109,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26100,7 +26130,7 @@
     <col min="11" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
         <v>1951</v>
       </c>
@@ -26112,7 +26142,7 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:10" ht="23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="23" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>1942</v>
@@ -26142,7 +26172,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="23" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -26165,8 +26195,11 @@
       <c r="J3" s="3" t="s">
         <v>1957</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="23" x14ac:dyDescent="0.25">
+      <c r="K3" s="2" t="s">
+        <v>3843</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="23" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -26189,8 +26222,11 @@
       <c r="J4" s="3" t="s">
         <v>1957</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="23" x14ac:dyDescent="0.25">
+      <c r="K4" s="2" t="s">
+        <v>3843</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="23" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -26214,7 +26250,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="23" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -26238,7 +26274,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="23" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -26262,7 +26298,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="23" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -26286,7 +26322,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="23" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -26310,7 +26346,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="23" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -26334,7 +26370,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="23" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -26358,6 +26394,33 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3846</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3847</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -38610,8 +38673,8 @@
   </sheetPr>
   <dimension ref="A1:B423"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A387" workbookViewId="0">
-      <selection activeCell="E401" sqref="E401"/>
+    <sheetView topLeftCell="A401" workbookViewId="0">
+      <selection activeCell="A409" sqref="A409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -42018,7 +42081,7 @@
   <dimension ref="A1:B80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -42036,8 +42099,12 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>3844</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3845</v>
+      </c>
     </row>
     <row r="3" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
